--- a/BackTest/2019-10-19 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-19 BackTest WAVES.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>10</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-75</v>
+      </c>
       <c r="L12" t="n">
         <v>948.1</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>10</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-60</v>
+      </c>
       <c r="L13" t="n">
         <v>947.5</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>10</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-60</v>
+      </c>
       <c r="L14" t="n">
         <v>947.2</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>10</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-50</v>
+      </c>
       <c r="L15" t="n">
         <v>946.9</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>10</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-50</v>
+      </c>
       <c r="L16" t="n">
         <v>946.7</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>11</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-60</v>
+      </c>
       <c r="L17" t="n">
         <v>946.4</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>12</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-66.66666666666666</v>
+      </c>
       <c r="L18" t="n">
         <v>946</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>13</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-60</v>
+      </c>
       <c r="L19" t="n">
         <v>945.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>13</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-100</v>
+      </c>
       <c r="L20" t="n">
         <v>945.2</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>14</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-50</v>
+      </c>
       <c r="L21" t="n">
         <v>944.9</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>15</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-60</v>
+      </c>
       <c r="L22" t="n">
         <v>944.6</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>16</v>
       </c>
       <c r="K23" t="n">
-        <v>-71.42857142857143</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L23" t="n">
         <v>944.2</v>
@@ -1466,7 +1488,7 @@
         <v>17</v>
       </c>
       <c r="K24" t="n">
-        <v>-50</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L24" t="n">
         <v>943.9</v>
@@ -1515,7 +1537,7 @@
         <v>18</v>
       </c>
       <c r="K25" t="n">
-        <v>-38.46153846153847</v>
+        <v>-25</v>
       </c>
       <c r="L25" t="n">
         <v>943.7</v>
@@ -1564,7 +1586,7 @@
         <v>18</v>
       </c>
       <c r="K26" t="n">
-        <v>-33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L26" t="n">
         <v>943.5</v>
@@ -1613,7 +1635,7 @@
         <v>20</v>
       </c>
       <c r="K27" t="n">
-        <v>-42.85714285714285</v>
+        <v>-25</v>
       </c>
       <c r="L27" t="n">
         <v>943.2</v>
@@ -1662,7 +1684,7 @@
         <v>22</v>
       </c>
       <c r="K28" t="n">
-        <v>-25</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L28" t="n">
         <v>943.2</v>
@@ -1711,7 +1733,7 @@
         <v>25</v>
       </c>
       <c r="K29" t="n">
-        <v>-5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L29" t="n">
         <v>943.6</v>
@@ -1760,7 +1782,7 @@
         <v>27</v>
       </c>
       <c r="K30" t="n">
-        <v>-5.263157894736842</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L30" t="n">
         <v>943.8</v>
@@ -1809,7 +1831,7 @@
         <v>27</v>
       </c>
       <c r="K31" t="n">
-        <v>-11.11111111111111</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L31" t="n">
         <v>943.9</v>
@@ -1860,7 +1882,7 @@
         <v>27</v>
       </c>
       <c r="K32" t="n">
-        <v>-5.88235294117647</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L32" t="n">
         <v>944.1</v>
@@ -1911,7 +1933,7 @@
         <v>28</v>
       </c>
       <c r="K33" t="n">
-        <v>-11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L33" t="n">
         <v>944.3</v>
@@ -1962,7 +1984,7 @@
         <v>30</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L34" t="n">
         <v>944.6</v>
@@ -2013,7 +2035,7 @@
         <v>32</v>
       </c>
       <c r="K35" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>944.6</v>
@@ -2064,7 +2086,7 @@
         <v>32</v>
       </c>
       <c r="K36" t="n">
-        <v>-9.090909090909092</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L36" t="n">
         <v>944.6</v>
@@ -2115,7 +2137,7 @@
         <v>32</v>
       </c>
       <c r="K37" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>944.8</v>
@@ -2166,7 +2188,7 @@
         <v>32</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L38" t="n">
         <v>944.8</v>
@@ -2217,7 +2239,7 @@
         <v>35</v>
       </c>
       <c r="K39" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L39" t="n">
         <v>944.2</v>
@@ -2268,7 +2290,7 @@
         <v>36</v>
       </c>
       <c r="K40" t="n">
-        <v>-4.347826086956522</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>943.9</v>
@@ -2319,7 +2341,7 @@
         <v>37</v>
       </c>
       <c r="K41" t="n">
-        <v>-13.04347826086956</v>
+        <v>-40</v>
       </c>
       <c r="L41" t="n">
         <v>943.5</v>
@@ -2370,7 +2392,7 @@
         <v>39</v>
       </c>
       <c r="K42" t="n">
-        <v>-16.66666666666666</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L42" t="n">
         <v>942.9</v>
@@ -2421,7 +2443,7 @@
         <v>39</v>
       </c>
       <c r="K43" t="n">
-        <v>-13.04347826086956</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L43" t="n">
         <v>942.4</v>
@@ -2472,7 +2494,7 @@
         <v>40</v>
       </c>
       <c r="K44" t="n">
-        <v>-21.73913043478261</v>
+        <v>-75</v>
       </c>
       <c r="L44" t="n">
         <v>941.6</v>
@@ -2523,7 +2545,7 @@
         <v>41</v>
       </c>
       <c r="K45" t="n">
-        <v>-30.43478260869566</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L45" t="n">
         <v>940.9</v>
@@ -2574,7 +2596,7 @@
         <v>42</v>
       </c>
       <c r="K46" t="n">
-        <v>-33.33333333333333</v>
+        <v>-80</v>
       </c>
       <c r="L46" t="n">
         <v>940.1</v>
@@ -2625,7 +2647,7 @@
         <v>50</v>
       </c>
       <c r="K47" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>940.1</v>
@@ -2676,7 +2698,7 @@
         <v>51</v>
       </c>
       <c r="K48" t="n">
-        <v>-3.448275862068965</v>
+        <v>12.5</v>
       </c>
       <c r="L48" t="n">
         <v>940</v>
@@ -2727,7 +2749,7 @@
         <v>54</v>
       </c>
       <c r="K49" t="n">
-        <v>-24.13793103448276</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L49" t="n">
         <v>939.9</v>
@@ -2778,7 +2800,7 @@
         <v>54</v>
       </c>
       <c r="K50" t="n">
-        <v>-18.51851851851852</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L50" t="n">
         <v>939.7</v>
@@ -2829,7 +2851,7 @@
         <v>55</v>
       </c>
       <c r="K51" t="n">
-        <v>-14.28571428571428</v>
+        <v>12.5</v>
       </c>
       <c r="L51" t="n">
         <v>939.7</v>
@@ -2880,7 +2902,7 @@
         <v>55</v>
       </c>
       <c r="K52" t="n">
-        <v>-14.28571428571428</v>
+        <v>12.5</v>
       </c>
       <c r="L52" t="n">
         <v>939.9</v>
@@ -2931,7 +2953,7 @@
         <v>55</v>
       </c>
       <c r="K53" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L53" t="n">
         <v>940.1</v>
@@ -2982,7 +3004,7 @@
         <v>55</v>
       </c>
       <c r="K54" t="n">
-        <v>-20</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L54" t="n">
         <v>940.4</v>
@@ -3033,7 +3055,7 @@
         <v>55</v>
       </c>
       <c r="K55" t="n">
-        <v>-13.04347826086956</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L55" t="n">
         <v>940.8</v>
@@ -3084,7 +3106,7 @@
         <v>55</v>
       </c>
       <c r="K56" t="n">
-        <v>-13.04347826086956</v>
+        <v>-60</v>
       </c>
       <c r="L56" t="n">
         <v>941.3</v>
@@ -3135,7 +3157,7 @@
         <v>55</v>
       </c>
       <c r="K57" t="n">
-        <v>-13.04347826086956</v>
+        <v>-50</v>
       </c>
       <c r="L57" t="n">
         <v>941</v>
@@ -3186,7 +3208,7 @@
         <v>60</v>
       </c>
       <c r="K58" t="n">
-        <v>-28.57142857142857</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L58" t="n">
         <v>940.3</v>
@@ -3237,7 +3259,7 @@
         <v>65</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L59" t="n">
         <v>940.4</v>
@@ -3288,7 +3310,7 @@
         <v>65</v>
       </c>
       <c r="K60" t="n">
-        <v>-3.448275862068965</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>940.5</v>
@@ -3339,7 +3361,7 @@
         <v>68</v>
       </c>
       <c r="K61" t="n">
-        <v>-9.67741935483871</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L61" t="n">
         <v>940.2</v>
@@ -3390,7 +3412,7 @@
         <v>69</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L62" t="n">
         <v>940</v>
@@ -3441,7 +3463,7 @@
         <v>69</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L63" t="n">
         <v>939.8</v>
@@ -3492,7 +3514,7 @@
         <v>69</v>
       </c>
       <c r="K64" t="n">
-        <v>3.448275862068965</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L64" t="n">
         <v>939.6</v>
@@ -3543,7 +3565,7 @@
         <v>73</v>
       </c>
       <c r="K65" t="n">
-        <v>18.75</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L65" t="n">
         <v>939.8</v>
@@ -3594,7 +3616,7 @@
         <v>75</v>
       </c>
       <c r="K66" t="n">
-        <v>15.15151515151515</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>939.8</v>
@@ -3645,7 +3667,7 @@
         <v>77</v>
       </c>
       <c r="K67" t="n">
-        <v>-18.51851851851852</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L67" t="n">
         <v>939.6</v>
@@ -3696,7 +3718,7 @@
         <v>79</v>
       </c>
       <c r="K68" t="n">
-        <v>-7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>940.1</v>
@@ -3747,7 +3769,7 @@
         <v>80</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L69" t="n">
         <v>940</v>
@@ -3798,7 +3820,7 @@
         <v>81</v>
       </c>
       <c r="K70" t="n">
-        <v>-3.703703703703703</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L70" t="n">
         <v>939.8</v>
@@ -3849,7 +3871,7 @@
         <v>81</v>
       </c>
       <c r="K71" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>939.9</v>
@@ -3900,7 +3922,7 @@
         <v>81</v>
       </c>
       <c r="K72" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>939.9</v>
@@ -3951,7 +3973,7 @@
         <v>87</v>
       </c>
       <c r="K73" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L73" t="n">
         <v>940.5</v>
@@ -4002,7 +4024,7 @@
         <v>92</v>
       </c>
       <c r="K74" t="n">
-        <v>-2.702702702702703</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L74" t="n">
         <v>940.6</v>
@@ -4053,7 +4075,7 @@
         <v>92</v>
       </c>
       <c r="K75" t="n">
-        <v>-2.702702702702703</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L75" t="n">
         <v>940.3</v>
@@ -4104,7 +4126,7 @@
         <v>92</v>
       </c>
       <c r="K76" t="n">
-        <v>-2.702702702702703</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L76" t="n">
         <v>940.2</v>
@@ -4155,7 +4177,7 @@
         <v>93</v>
       </c>
       <c r="K77" t="n">
-        <v>-5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L77" t="n">
         <v>940.2</v>
@@ -4206,7 +4228,7 @@
         <v>94</v>
       </c>
       <c r="K78" t="n">
-        <v>11.76470588235294</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>940.1</v>
@@ -4257,7 +4279,7 @@
         <v>94</v>
       </c>
       <c r="K79" t="n">
-        <v>-3.448275862068965</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L79" t="n">
         <v>940.1</v>
@@ -4308,7 +4330,7 @@
         <v>95</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L80" t="n">
         <v>940.3</v>
@@ -4359,7 +4381,7 @@
         <v>96</v>
       </c>
       <c r="K81" t="n">
-        <v>7.142857142857142</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L81" t="n">
         <v>940.4</v>
@@ -4410,7 +4432,7 @@
         <v>96</v>
       </c>
       <c r="K82" t="n">
-        <v>3.703703703703703</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L82" t="n">
         <v>940.5</v>
@@ -4461,7 +4483,7 @@
         <v>96</v>
       </c>
       <c r="K83" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>940</v>
@@ -4512,7 +4534,7 @@
         <v>96</v>
       </c>
       <c r="K84" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>940</v>
@@ -4563,7 +4585,7 @@
         <v>96</v>
       </c>
       <c r="K85" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>940</v>
@@ -4614,7 +4636,7 @@
         <v>96</v>
       </c>
       <c r="K86" t="n">
-        <v>-4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L86" t="n">
         <v>940</v>
@@ -4665,7 +4687,7 @@
         <v>96</v>
       </c>
       <c r="K87" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>940.1</v>
@@ -4716,7 +4738,7 @@
         <v>96</v>
       </c>
       <c r="K88" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>940.1</v>
@@ -4767,7 +4789,7 @@
         <v>96</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" t="n">
         <v>940.1</v>
@@ -4817,9 +4839,7 @@
       <c r="J90" t="n">
         <v>96</v>
       </c>
-      <c r="K90" t="n">
-        <v>6.666666666666667</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>940</v>
       </c>
@@ -4868,9 +4888,7 @@
       <c r="J91" t="n">
         <v>96</v>
       </c>
-      <c r="K91" t="n">
-        <v>6.666666666666667</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>940</v>
       </c>
@@ -4919,9 +4937,7 @@
       <c r="J92" t="n">
         <v>96</v>
       </c>
-      <c r="K92" t="n">
-        <v>6.666666666666667</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>940</v>
       </c>
@@ -4970,9 +4986,7 @@
       <c r="J93" t="n">
         <v>96</v>
       </c>
-      <c r="K93" t="n">
-        <v>-55.55555555555556</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>940</v>
       </c>
@@ -5022,7 +5036,7 @@
         <v>99</v>
       </c>
       <c r="K94" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L94" t="n">
         <v>939.7</v>
@@ -5073,7 +5087,7 @@
         <v>100</v>
       </c>
       <c r="K95" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L95" t="n">
         <v>939.5</v>
@@ -5124,7 +5138,7 @@
         <v>102</v>
       </c>
       <c r="K96" t="n">
-        <v>-40</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L96" t="n">
         <v>939.1</v>
@@ -5175,7 +5189,7 @@
         <v>102</v>
       </c>
       <c r="K97" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L97" t="n">
         <v>938.7</v>
@@ -5226,7 +5240,7 @@
         <v>102</v>
       </c>
       <c r="K98" t="n">
-        <v>-50</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L98" t="n">
         <v>938.3</v>
@@ -5277,7 +5291,7 @@
         <v>103</v>
       </c>
       <c r="K99" t="n">
-        <v>-55.55555555555556</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L99" t="n">
         <v>937.8</v>
@@ -5328,7 +5342,7 @@
         <v>106</v>
       </c>
       <c r="K100" t="n">
-        <v>-81.81818181818183</v>
+        <v>-80</v>
       </c>
       <c r="L100" t="n">
         <v>937</v>
@@ -5481,7 +5495,7 @@
         <v>107</v>
       </c>
       <c r="K103" t="n">
-        <v>-81.81818181818183</v>
+        <v>-75</v>
       </c>
       <c r="L103" t="n">
         <v>934.3</v>
@@ -5532,7 +5546,7 @@
         <v>107</v>
       </c>
       <c r="K104" t="n">
-        <v>-81.81818181818183</v>
+        <v>-100</v>
       </c>
       <c r="L104" t="n">
         <v>933.7</v>
@@ -5583,7 +5597,7 @@
         <v>108</v>
       </c>
       <c r="K105" t="n">
-        <v>-83.33333333333334</v>
+        <v>-100</v>
       </c>
       <c r="L105" t="n">
         <v>932.9</v>
@@ -5634,7 +5648,7 @@
         <v>108</v>
       </c>
       <c r="K106" t="n">
-        <v>-83.33333333333334</v>
+        <v>-100</v>
       </c>
       <c r="L106" t="n">
         <v>932.3</v>
@@ -5685,7 +5699,7 @@
         <v>114</v>
       </c>
       <c r="K107" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>932.3</v>
@@ -5736,7 +5750,7 @@
         <v>119</v>
       </c>
       <c r="K108" t="n">
-        <v>-39.1304347826087</v>
+        <v>-25</v>
       </c>
       <c r="L108" t="n">
         <v>931.8</v>
@@ -5787,7 +5801,7 @@
         <v>126</v>
       </c>
       <c r="K109" t="n">
-        <v>-6.666666666666667</v>
+        <v>30</v>
       </c>
       <c r="L109" t="n">
         <v>932.1</v>
@@ -5838,7 +5852,7 @@
         <v>130</v>
       </c>
       <c r="K110" t="n">
-        <v>-17.64705882352941</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L110" t="n">
         <v>932.3</v>
@@ -5889,7 +5903,7 @@
         <v>131</v>
       </c>
       <c r="K111" t="n">
-        <v>-20</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L111" t="n">
         <v>932.5</v>
@@ -5940,7 +5954,7 @@
         <v>132</v>
       </c>
       <c r="K112" t="n">
-        <v>-22.22222222222222</v>
+        <v>4</v>
       </c>
       <c r="L112" t="n">
         <v>932.6</v>
@@ -5991,7 +6005,7 @@
         <v>132</v>
       </c>
       <c r="K113" t="n">
-        <v>-22.22222222222222</v>
+        <v>4</v>
       </c>
       <c r="L113" t="n">
         <v>932.7</v>
@@ -6042,7 +6056,7 @@
         <v>133</v>
       </c>
       <c r="K114" t="n">
-        <v>-17.64705882352941</v>
+        <v>4</v>
       </c>
       <c r="L114" t="n">
         <v>932.7</v>
@@ -6093,7 +6107,7 @@
         <v>135</v>
       </c>
       <c r="K115" t="n">
-        <v>-14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L115" t="n">
         <v>933</v>
@@ -6144,7 +6158,7 @@
         <v>135</v>
       </c>
       <c r="K116" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L116" t="n">
         <v>933.3</v>
@@ -6195,7 +6209,7 @@
         <v>136</v>
       </c>
       <c r="K117" t="n">
-        <v>-5.88235294117647</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L117" t="n">
         <v>933.1</v>
@@ -6246,7 +6260,7 @@
         <v>137</v>
       </c>
       <c r="K118" t="n">
-        <v>-8.571428571428571</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L118" t="n">
         <v>933.3</v>
@@ -6297,7 +6311,7 @@
         <v>137</v>
       </c>
       <c r="K119" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L119" t="n">
         <v>932.8</v>
@@ -6348,7 +6362,7 @@
         <v>138</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L120" t="n">
         <v>932.6</v>
@@ -6399,7 +6413,7 @@
         <v>138</v>
       </c>
       <c r="K121" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>932.5</v>
@@ -6450,7 +6464,7 @@
         <v>138</v>
       </c>
       <c r="K122" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>932.5</v>
@@ -6501,7 +6515,7 @@
         <v>142</v>
       </c>
       <c r="K123" t="n">
-        <v>14.28571428571428</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L123" t="n">
         <v>932.9</v>
@@ -6552,7 +6566,7 @@
         <v>146</v>
       </c>
       <c r="K124" t="n">
-        <v>2.564102564102564</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L124" t="n">
         <v>933</v>
@@ -6603,7 +6617,7 @@
         <v>146</v>
       </c>
       <c r="K125" t="n">
-        <v>5.263157894736842</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L125" t="n">
         <v>932.9</v>
@@ -6654,7 +6668,7 @@
         <v>146</v>
       </c>
       <c r="K126" t="n">
-        <v>5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L126" t="n">
         <v>932.8</v>
@@ -6705,7 +6719,7 @@
         <v>147</v>
       </c>
       <c r="K127" t="n">
-        <v>-15.15151515151515</v>
+        <v>-20</v>
       </c>
       <c r="L127" t="n">
         <v>932.5</v>
@@ -6756,7 +6770,7 @@
         <v>148</v>
       </c>
       <c r="K128" t="n">
-        <v>3.448275862068965</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L128" t="n">
         <v>932.4</v>
@@ -6807,7 +6821,7 @@
         <v>148</v>
       </c>
       <c r="K129" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>932.3</v>
@@ -6858,7 +6872,7 @@
         <v>148</v>
       </c>
       <c r="K130" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>932.3</v>
@@ -6909,7 +6923,7 @@
         <v>148</v>
       </c>
       <c r="K131" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>932.3</v>
@@ -6960,7 +6974,7 @@
         <v>149</v>
       </c>
       <c r="K132" t="n">
-        <v>-5.88235294117647</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L132" t="n">
         <v>932.2</v>
@@ -7062,7 +7076,7 @@
         <v>150</v>
       </c>
       <c r="K134" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>931.8</v>
@@ -7113,7 +7127,7 @@
         <v>150</v>
       </c>
       <c r="K135" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>931.8</v>
@@ -7164,7 +7178,7 @@
         <v>151</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L136" t="n">
         <v>931.9</v>
@@ -7215,7 +7229,7 @@
         <v>151</v>
       </c>
       <c r="K137" t="n">
-        <v>-6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L137" t="n">
         <v>932.1</v>
@@ -7266,7 +7280,7 @@
         <v>151</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>932.2</v>
@@ -7317,7 +7331,7 @@
         <v>152</v>
       </c>
       <c r="K139" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>932.2</v>
@@ -7419,7 +7433,7 @@
         <v>152</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L141" t="n">
         <v>932.2</v>
@@ -7521,7 +7535,7 @@
         <v>152</v>
       </c>
       <c r="K143" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>932.3</v>
@@ -7623,7 +7637,7 @@
         <v>152</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L145" t="n">
         <v>932.3</v>
@@ -7674,7 +7688,7 @@
         <v>152</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L146" t="n">
         <v>932.2</v>
@@ -7725,7 +7739,7 @@
         <v>152</v>
       </c>
       <c r="K147" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L147" t="n">
         <v>932.1</v>
@@ -7776,7 +7790,7 @@
         <v>155</v>
       </c>
       <c r="K148" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L148" t="n">
         <v>932.3</v>
@@ -7929,7 +7943,7 @@
         <v>159</v>
       </c>
       <c r="K151" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L151" t="n">
         <v>932.4</v>
@@ -8082,7 +8096,7 @@
         <v>165</v>
       </c>
       <c r="K154" t="n">
-        <v>6.666666666666667</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L154" t="n">
         <v>932.8</v>
@@ -8133,7 +8147,7 @@
         <v>166</v>
       </c>
       <c r="K155" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L155" t="n">
         <v>933</v>
@@ -8184,7 +8198,7 @@
         <v>171</v>
       </c>
       <c r="K156" t="n">
-        <v>30</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L156" t="n">
         <v>933.7</v>
@@ -8235,7 +8249,7 @@
         <v>171</v>
       </c>
       <c r="K157" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L157" t="n">
         <v>934.4</v>
@@ -8286,7 +8300,7 @@
         <v>172</v>
       </c>
       <c r="K158" t="n">
-        <v>23.80952380952381</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L158" t="n">
         <v>934.7</v>
@@ -8341,7 +8355,7 @@
         <v>172</v>
       </c>
       <c r="K159" t="n">
-        <v>30</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L159" t="n">
         <v>935.3</v>
@@ -8398,7 +8412,7 @@
         <v>174</v>
       </c>
       <c r="K160" t="n">
-        <v>36.36363636363637</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L160" t="n">
         <v>936.1</v>
@@ -8455,7 +8469,7 @@
         <v>176</v>
       </c>
       <c r="K161" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L161" t="n">
         <v>936.6</v>
@@ -8512,7 +8526,7 @@
         <v>177</v>
       </c>
       <c r="K162" t="n">
-        <v>20</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L162" t="n">
         <v>936.8</v>
@@ -8569,7 +8583,7 @@
         <v>178</v>
       </c>
       <c r="K163" t="n">
-        <v>15.38461538461539</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L163" t="n">
         <v>937.2</v>
@@ -8626,7 +8640,7 @@
         <v>181</v>
       </c>
       <c r="K164" t="n">
-        <v>24.13793103448276</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L164" t="n">
         <v>937.8</v>
@@ -8681,7 +8695,7 @@
         <v>182</v>
       </c>
       <c r="K165" t="n">
-        <v>20</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L165" t="n">
         <v>938.2</v>
@@ -8738,7 +8752,7 @@
         <v>183</v>
       </c>
       <c r="K166" t="n">
-        <v>16.12903225806452</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L166" t="n">
         <v>938</v>
@@ -8795,7 +8809,7 @@
         <v>186</v>
       </c>
       <c r="K167" t="n">
-        <v>23.52941176470588</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L167" t="n">
         <v>938.1</v>
@@ -8852,7 +8866,7 @@
         <v>187</v>
       </c>
       <c r="K168" t="n">
-        <v>12.5</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L168" t="n">
         <v>938.2</v>
@@ -8909,7 +8923,7 @@
         <v>188</v>
       </c>
       <c r="K169" t="n">
-        <v>26.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>938.4</v>
@@ -8966,7 +8980,7 @@
         <v>188</v>
       </c>
       <c r="K170" t="n">
-        <v>26.66666666666667</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L170" t="n">
         <v>938.4</v>
@@ -9023,7 +9037,7 @@
         <v>188</v>
       </c>
       <c r="K171" t="n">
-        <v>24.13793103448276</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L171" t="n">
         <v>938.6</v>
@@ -9080,7 +9094,7 @@
         <v>189</v>
       </c>
       <c r="K172" t="n">
-        <v>21.42857142857143</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L172" t="n">
         <v>939</v>
@@ -9137,7 +9151,7 @@
         <v>191</v>
       </c>
       <c r="K173" t="n">
-        <v>40.74074074074074</v>
+        <v>40</v>
       </c>
       <c r="L173" t="n">
         <v>939.7</v>
@@ -9194,7 +9208,7 @@
         <v>195</v>
       </c>
       <c r="K174" t="n">
-        <v>46.66666666666666</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L174" t="n">
         <v>940.5</v>
@@ -9251,7 +9265,7 @@
         <v>197</v>
       </c>
       <c r="K175" t="n">
-        <v>35.48387096774194</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L175" t="n">
         <v>941.2</v>
@@ -9308,7 +9322,7 @@
         <v>199</v>
       </c>
       <c r="K176" t="n">
-        <v>28.57142857142857</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L176" t="n">
         <v>942.2</v>
@@ -9365,7 +9379,7 @@
         <v>199</v>
       </c>
       <c r="K177" t="n">
-        <v>28.57142857142857</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L177" t="n">
         <v>942.9</v>
@@ -9422,7 +9436,7 @@
         <v>199</v>
       </c>
       <c r="K178" t="n">
-        <v>33.33333333333333</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L178" t="n">
         <v>943.7</v>
@@ -9479,7 +9493,7 @@
         <v>200</v>
       </c>
       <c r="K179" t="n">
-        <v>35.71428571428572</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L179" t="n">
         <v>944.5</v>
@@ -9536,7 +9550,7 @@
         <v>200</v>
       </c>
       <c r="K180" t="n">
-        <v>30.76923076923077</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L180" t="n">
         <v>945.3</v>
@@ -9593,7 +9607,7 @@
         <v>200</v>
       </c>
       <c r="K181" t="n">
-        <v>41.66666666666667</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L181" t="n">
         <v>946.1</v>
@@ -9650,7 +9664,7 @@
         <v>200</v>
       </c>
       <c r="K182" t="n">
-        <v>47.82608695652174</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L182" t="n">
         <v>946.8</v>
@@ -9707,7 +9721,7 @@
         <v>201</v>
       </c>
       <c r="K183" t="n">
-        <v>47.82608695652174</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>947.2</v>
@@ -9758,7 +9772,7 @@
         <v>201</v>
       </c>
       <c r="K184" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L184" t="n">
         <v>947.2</v>
@@ -9809,7 +9823,7 @@
         <v>201</v>
       </c>
       <c r="K185" t="n">
-        <v>47.36842105263158</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>947.4</v>
@@ -9860,7 +9874,7 @@
         <v>201</v>
       </c>
       <c r="K186" t="n">
-        <v>55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>947.4</v>
@@ -9911,7 +9925,7 @@
         <v>201</v>
       </c>
       <c r="K187" t="n">
-        <v>46.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>947.4</v>
@@ -9962,7 +9976,7 @@
         <v>201</v>
       </c>
       <c r="K188" t="n">
-        <v>57.14285714285714</v>
+        <v>-100</v>
       </c>
       <c r="L188" t="n">
         <v>947.4</v>
@@ -10013,7 +10027,7 @@
         <v>204</v>
       </c>
       <c r="K189" t="n">
-        <v>25</v>
+        <v>-100</v>
       </c>
       <c r="L189" t="n">
         <v>947</v>
@@ -10064,7 +10078,7 @@
         <v>207</v>
       </c>
       <c r="K190" t="n">
-        <v>36.84210526315789</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L190" t="n">
         <v>946.9</v>
@@ -10115,7 +10129,7 @@
         <v>207</v>
       </c>
       <c r="K191" t="n">
-        <v>36.84210526315789</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L191" t="n">
         <v>946.8</v>
@@ -10166,7 +10180,7 @@
         <v>207</v>
       </c>
       <c r="K192" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
         <v>946.7</v>
@@ -10217,7 +10231,7 @@
         <v>207</v>
       </c>
       <c r="K193" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>946.7</v>
@@ -10268,7 +10282,7 @@
         <v>208</v>
       </c>
       <c r="K194" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L194" t="n">
         <v>946.8</v>
@@ -10319,7 +10333,7 @@
         <v>208</v>
       </c>
       <c r="K195" t="n">
-        <v>27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L195" t="n">
         <v>946.9</v>
@@ -10370,7 +10384,7 @@
         <v>209</v>
       </c>
       <c r="K196" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L196" t="n">
         <v>947.1</v>
@@ -10421,7 +10435,7 @@
         <v>209</v>
       </c>
       <c r="K197" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L197" t="n">
         <v>947.3</v>
@@ -10472,7 +10486,7 @@
         <v>211</v>
       </c>
       <c r="K198" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L198" t="n">
         <v>947.7</v>
@@ -10523,7 +10537,7 @@
         <v>213</v>
       </c>
       <c r="K199" t="n">
-        <v>38.46153846153847</v>
+        <v>100</v>
       </c>
       <c r="L199" t="n">
         <v>948.6</v>
@@ -10574,7 +10588,7 @@
         <v>218</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L200" t="n">
         <v>948.7</v>

--- a/BackTest/2019-10-19 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-19 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S200"/>
+  <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>948.5</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>10</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-75</v>
-      </c>
-      <c r="L12" t="n">
-        <v>948.1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>10</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L13" t="n">
-        <v>947.5</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>10</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L14" t="n">
-        <v>947.2</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>10</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L15" t="n">
-        <v>946.9</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>10</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L16" t="n">
-        <v>946.7</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L17" t="n">
-        <v>946.4</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>12</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L18" t="n">
-        <v>946</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>13</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L19" t="n">
-        <v>945.5</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>13</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L20" t="n">
-        <v>945.2</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>14</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L21" t="n">
-        <v>944.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>946.7</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J22" t="n">
-        <v>15</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L22" t="n">
-        <v>944.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>946.35</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>16</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L23" t="n">
-        <v>944.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>945.85</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>17</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L24" t="n">
-        <v>943.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>945.55</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>18</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L25" t="n">
-        <v>943.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>945.3</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>18</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L26" t="n">
-        <v>943.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>945.1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>20</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L27" t="n">
-        <v>943.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>944.8</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>22</v>
-      </c>
-      <c r="K28" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L28" t="n">
-        <v>943.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>944.6</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>25</v>
-      </c>
-      <c r="K29" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L29" t="n">
-        <v>943.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>944.55</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>27</v>
-      </c>
-      <c r="K30" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L30" t="n">
-        <v>943.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>944.5</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>27</v>
-      </c>
-      <c r="K31" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L31" t="n">
-        <v>943.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="N31" t="n">
-        <v>945.7666666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>27</v>
-      </c>
-      <c r="K32" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L32" t="n">
-        <v>944.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>944.35</v>
-      </c>
-      <c r="N32" t="n">
-        <v>945.6</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>28</v>
-      </c>
-      <c r="K33" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L33" t="n">
-        <v>944.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>944.25</v>
-      </c>
-      <c r="N33" t="n">
-        <v>945.3333333333334</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J34" t="n">
-        <v>30</v>
-      </c>
-      <c r="K34" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L34" t="n">
-        <v>944.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>944.25</v>
-      </c>
-      <c r="N34" t="n">
-        <v>945.2333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>32</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>944.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>944.15</v>
-      </c>
-      <c r="N35" t="n">
-        <v>945.0666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>32</v>
-      </c>
-      <c r="K36" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L36" t="n">
-        <v>944.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>944.05</v>
-      </c>
-      <c r="N36" t="n">
-        <v>944.9333333333333</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>32</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>944.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>944</v>
-      </c>
-      <c r="N37" t="n">
-        <v>944.8</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J38" t="n">
-        <v>32</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L38" t="n">
-        <v>944.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>944</v>
-      </c>
-      <c r="N38" t="n">
-        <v>944.6666666666666</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J39" t="n">
-        <v>35</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L39" t="n">
-        <v>944.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>943.9</v>
-      </c>
-      <c r="N39" t="n">
-        <v>944.4333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J40" t="n">
-        <v>36</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L40" t="n">
-        <v>943.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>943.85</v>
-      </c>
-      <c r="N40" t="n">
-        <v>944.3</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J41" t="n">
-        <v>37</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L41" t="n">
-        <v>943.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>943.7</v>
-      </c>
-      <c r="N41" t="n">
-        <v>944.1</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J42" t="n">
-        <v>39</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L42" t="n">
-        <v>942.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>943.5</v>
-      </c>
-      <c r="N42" t="n">
-        <v>943.8666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J43" t="n">
-        <v>39</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-77.77777777777779</v>
-      </c>
-      <c r="L43" t="n">
-        <v>942.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>943.35</v>
-      </c>
-      <c r="N43" t="n">
-        <v>943.6333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J44" t="n">
-        <v>40</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-75</v>
-      </c>
-      <c r="L44" t="n">
-        <v>941.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>943.1</v>
-      </c>
-      <c r="N44" t="n">
-        <v>943.3666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J45" t="n">
-        <v>41</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-77.77777777777779</v>
-      </c>
-      <c r="L45" t="n">
-        <v>940.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>942.75</v>
-      </c>
-      <c r="N45" t="n">
-        <v>943.0666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J46" t="n">
-        <v>42</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-80</v>
-      </c>
-      <c r="L46" t="n">
-        <v>940.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>942.35</v>
-      </c>
-      <c r="N46" t="n">
-        <v>942.7333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J47" t="n">
-        <v>50</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>940.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>942.45</v>
-      </c>
-      <c r="N47" t="n">
-        <v>942.7</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J48" t="n">
-        <v>51</v>
-      </c>
-      <c r="K48" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L48" t="n">
-        <v>940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>942.4</v>
-      </c>
-      <c r="N48" t="n">
-        <v>942.6666666666666</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J49" t="n">
-        <v>54</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L49" t="n">
-        <v>939.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>942.05</v>
-      </c>
-      <c r="N49" t="n">
-        <v>942.5666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J50" t="n">
-        <v>54</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L50" t="n">
-        <v>939.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>941.8</v>
-      </c>
-      <c r="N50" t="n">
-        <v>942.4666666666667</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J51" t="n">
-        <v>55</v>
-      </c>
-      <c r="K51" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L51" t="n">
-        <v>939.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>941.6</v>
-      </c>
-      <c r="N51" t="n">
-        <v>942.3666666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J52" t="n">
-        <v>55</v>
-      </c>
-      <c r="K52" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L52" t="n">
-        <v>939.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>941.4</v>
-      </c>
-      <c r="N52" t="n">
-        <v>942.3</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>55</v>
-      </c>
-      <c r="K53" t="n">
-        <v>20</v>
-      </c>
-      <c r="L53" t="n">
-        <v>940.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>941.25</v>
-      </c>
-      <c r="N53" t="n">
-        <v>942.2666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>55</v>
-      </c>
-      <c r="K54" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L54" t="n">
-        <v>940.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>941</v>
-      </c>
-      <c r="N54" t="n">
-        <v>942.2</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J55" t="n">
-        <v>55</v>
-      </c>
-      <c r="K55" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L55" t="n">
-        <v>940.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>940.85</v>
-      </c>
-      <c r="N55" t="n">
-        <v>942.1</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J56" t="n">
-        <v>55</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L56" t="n">
-        <v>941.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>940.7</v>
-      </c>
-      <c r="N56" t="n">
-        <v>942</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J57" t="n">
-        <v>55</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L57" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>940.55</v>
-      </c>
-      <c r="N57" t="n">
-        <v>941.9666666666667</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J58" t="n">
-        <v>60</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L58" t="n">
-        <v>940.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>940.15</v>
-      </c>
-      <c r="N58" t="n">
-        <v>941.7</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J59" t="n">
-        <v>65</v>
-      </c>
-      <c r="K59" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L59" t="n">
-        <v>940.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>940.15</v>
-      </c>
-      <c r="N59" t="n">
-        <v>941.5</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J60" t="n">
-        <v>65</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>940.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>940.1</v>
-      </c>
-      <c r="N60" t="n">
-        <v>941.3666666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J61" t="n">
-        <v>68</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L61" t="n">
-        <v>940.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>939.95</v>
-      </c>
-      <c r="N61" t="n">
-        <v>941.1333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J62" t="n">
-        <v>69</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L62" t="n">
-        <v>940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>939.95</v>
-      </c>
-      <c r="N62" t="n">
-        <v>940.9333333333333</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J63" t="n">
-        <v>69</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L63" t="n">
-        <v>939.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>939.95</v>
-      </c>
-      <c r="N63" t="n">
-        <v>940.7666666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J64" t="n">
-        <v>69</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L64" t="n">
-        <v>939.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>940</v>
-      </c>
-      <c r="N64" t="n">
-        <v>940.5333333333333</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J65" t="n">
-        <v>73</v>
-      </c>
-      <c r="K65" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L65" t="n">
-        <v>939.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>940.3</v>
-      </c>
-      <c r="N65" t="n">
-        <v>940.5</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J66" t="n">
-        <v>75</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>939.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>940.55</v>
-      </c>
-      <c r="N66" t="n">
-        <v>940.4</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J67" t="n">
-        <v>77</v>
-      </c>
-      <c r="K67" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L67" t="n">
-        <v>939.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>940.3</v>
-      </c>
-      <c r="N67" t="n">
-        <v>940.2333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J68" t="n">
-        <v>79</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>940.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>940.2</v>
-      </c>
-      <c r="N68" t="n">
-        <v>940.1333333333333</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J69" t="n">
-        <v>80</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L69" t="n">
-        <v>940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>940.2</v>
-      </c>
-      <c r="N69" t="n">
-        <v>940.1</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J70" t="n">
-        <v>81</v>
-      </c>
-      <c r="K70" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L70" t="n">
-        <v>939.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>940.15</v>
-      </c>
-      <c r="N70" t="n">
-        <v>940</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J71" t="n">
-        <v>81</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>939.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>940.05</v>
-      </c>
-      <c r="N71" t="n">
-        <v>939.9333333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J72" t="n">
-        <v>81</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>939.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>939.95</v>
-      </c>
-      <c r="N72" t="n">
-        <v>939.9333333333333</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J73" t="n">
-        <v>87</v>
-      </c>
-      <c r="K73" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L73" t="n">
-        <v>940.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>940.15</v>
-      </c>
-      <c r="N73" t="n">
-        <v>940.1333333333333</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +2974,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J74" t="n">
-        <v>92</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L74" t="n">
-        <v>940.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>940.1</v>
-      </c>
-      <c r="N74" t="n">
-        <v>940.2</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J75" t="n">
-        <v>92</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L75" t="n">
-        <v>940.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>940.05</v>
-      </c>
-      <c r="N75" t="n">
-        <v>940.3</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J76" t="n">
-        <v>92</v>
-      </c>
-      <c r="K76" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L76" t="n">
-        <v>940.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>940</v>
-      </c>
-      <c r="N76" t="n">
-        <v>940.4333333333333</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3079,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>93</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L77" t="n">
-        <v>940.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>939.9</v>
-      </c>
-      <c r="N77" t="n">
-        <v>940.2666666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J78" t="n">
-        <v>94</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>940.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>940.1</v>
-      </c>
-      <c r="N78" t="n">
-        <v>940.1666666666666</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3149,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J79" t="n">
-        <v>94</v>
-      </c>
-      <c r="K79" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L79" t="n">
-        <v>940.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>940.05</v>
-      </c>
-      <c r="N79" t="n">
-        <v>940.1666666666666</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3184,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J80" t="n">
-        <v>95</v>
-      </c>
-      <c r="K80" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L80" t="n">
-        <v>940.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>940.05</v>
-      </c>
-      <c r="N80" t="n">
-        <v>940.2</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3219,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J81" t="n">
-        <v>96</v>
-      </c>
-      <c r="K81" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L81" t="n">
-        <v>940.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>940.15</v>
-      </c>
-      <c r="N81" t="n">
-        <v>940.1666666666666</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3254,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J82" t="n">
-        <v>96</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L82" t="n">
-        <v>940.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>940.2</v>
-      </c>
-      <c r="N82" t="n">
-        <v>940.1333333333333</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3289,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J83" t="n">
-        <v>96</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>940.25</v>
-      </c>
-      <c r="N83" t="n">
-        <v>940.1</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3324,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J84" t="n">
-        <v>96</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>940.3</v>
-      </c>
-      <c r="N84" t="n">
-        <v>940.0666666666667</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3359,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J85" t="n">
-        <v>96</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>940.15</v>
-      </c>
-      <c r="N85" t="n">
-        <v>940.0333333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3394,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J86" t="n">
-        <v>96</v>
-      </c>
-      <c r="K86" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L86" t="n">
-        <v>940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>940.1</v>
-      </c>
-      <c r="N86" t="n">
-        <v>940</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3429,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J87" t="n">
-        <v>96</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>940.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>940.15</v>
-      </c>
-      <c r="N87" t="n">
-        <v>939.9666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3464,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J88" t="n">
-        <v>96</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>940.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>940.1</v>
-      </c>
-      <c r="N88" t="n">
-        <v>940.1</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3499,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>96</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L89" t="n">
-        <v>940.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>940.1</v>
-      </c>
-      <c r="N89" t="n">
-        <v>940.0666666666667</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,26 +3534,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>940</v>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>940.15</v>
-      </c>
-      <c r="N90" t="n">
-        <v>940.0333333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4883,26 +3569,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J91" t="n">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>940</v>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>940.2</v>
-      </c>
-      <c r="N91" t="n">
-        <v>940.1</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4932,26 +3604,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>940</v>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>940.25</v>
-      </c>
-      <c r="N92" t="n">
-        <v>940.1333333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,26 +3639,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J93" t="n">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>940</v>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>940</v>
-      </c>
-      <c r="N93" t="n">
-        <v>940.1666666666666</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5030,28 +3674,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J94" t="n">
-        <v>99</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L94" t="n">
-        <v>939.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>939.85</v>
-      </c>
-      <c r="N94" t="n">
-        <v>940.1</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5081,28 +3709,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J95" t="n">
-        <v>100</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L95" t="n">
-        <v>939.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>939.75</v>
-      </c>
-      <c r="N95" t="n">
-        <v>939.9333333333333</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5132,28 +3744,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J96" t="n">
-        <v>102</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L96" t="n">
-        <v>939.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>939.55</v>
-      </c>
-      <c r="N96" t="n">
-        <v>939.7666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5183,28 +3779,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J97" t="n">
-        <v>102</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L97" t="n">
-        <v>938.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>939.4</v>
-      </c>
-      <c r="N97" t="n">
-        <v>939.6666666666666</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5234,28 +3814,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J98" t="n">
-        <v>102</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L98" t="n">
-        <v>938.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>939.2</v>
-      </c>
-      <c r="N98" t="n">
-        <v>939.5</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5285,28 +3849,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J99" t="n">
-        <v>103</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L99" t="n">
-        <v>937.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>938.95</v>
-      </c>
-      <c r="N99" t="n">
-        <v>939.3333333333334</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5336,28 +3884,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J100" t="n">
-        <v>106</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-80</v>
-      </c>
-      <c r="L100" t="n">
-        <v>937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>938.5</v>
-      </c>
-      <c r="N100" t="n">
-        <v>939.1</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5387,28 +3919,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J101" t="n">
-        <v>107</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-81.81818181818183</v>
-      </c>
-      <c r="L101" t="n">
-        <v>936.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>938.05</v>
-      </c>
-      <c r="N101" t="n">
-        <v>938.8333333333334</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5438,28 +3954,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J102" t="n">
-        <v>107</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-81.81818181818183</v>
-      </c>
-      <c r="L102" t="n">
-        <v>935.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>937.6</v>
-      </c>
-      <c r="N102" t="n">
-        <v>938.5666666666667</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5489,28 +3989,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J103" t="n">
-        <v>107</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-75</v>
-      </c>
-      <c r="L103" t="n">
-        <v>934.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>937.15</v>
-      </c>
-      <c r="N103" t="n">
-        <v>938.1</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5540,28 +4024,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J104" t="n">
-        <v>107</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L104" t="n">
-        <v>933.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>936.7</v>
-      </c>
-      <c r="N104" t="n">
-        <v>937.8</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5591,28 +4059,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J105" t="n">
-        <v>108</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L105" t="n">
-        <v>932.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>936.2</v>
-      </c>
-      <c r="N105" t="n">
-        <v>937.4666666666667</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5642,28 +4094,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J106" t="n">
-        <v>108</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L106" t="n">
-        <v>932.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>935.7</v>
-      </c>
-      <c r="N106" t="n">
-        <v>937.1333333333333</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5693,28 +4129,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J107" t="n">
-        <v>114</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>932.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>935.5</v>
-      </c>
-      <c r="N107" t="n">
-        <v>937.0333333333333</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5744,28 +4164,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J108" t="n">
-        <v>119</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L108" t="n">
-        <v>931.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>935.05</v>
-      </c>
-      <c r="N108" t="n">
-        <v>936.7333333333333</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5795,28 +4199,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J109" t="n">
-        <v>126</v>
-      </c>
-      <c r="K109" t="n">
-        <v>30</v>
-      </c>
-      <c r="L109" t="n">
-        <v>932.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>934.95</v>
-      </c>
-      <c r="N109" t="n">
-        <v>936.6666666666666</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5846,28 +4234,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J110" t="n">
-        <v>130</v>
-      </c>
-      <c r="K110" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="L110" t="n">
-        <v>932.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>934.65</v>
-      </c>
-      <c r="N110" t="n">
-        <v>936.4333333333333</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5897,28 +4269,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J111" t="n">
-        <v>131</v>
-      </c>
-      <c r="K111" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="L111" t="n">
-        <v>932.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>934.3</v>
-      </c>
-      <c r="N111" t="n">
-        <v>936.2</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5948,28 +4304,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J112" t="n">
-        <v>132</v>
-      </c>
-      <c r="K112" t="n">
-        <v>4</v>
-      </c>
-      <c r="L112" t="n">
-        <v>932.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>933.9</v>
-      </c>
-      <c r="N112" t="n">
-        <v>935.9333333333333</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5999,28 +4339,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J113" t="n">
-        <v>132</v>
-      </c>
-      <c r="K113" t="n">
-        <v>4</v>
-      </c>
-      <c r="L113" t="n">
-        <v>932.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>933.5</v>
-      </c>
-      <c r="N113" t="n">
-        <v>935.6666666666666</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6050,28 +4374,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J114" t="n">
-        <v>133</v>
-      </c>
-      <c r="K114" t="n">
-        <v>4</v>
-      </c>
-      <c r="L114" t="n">
-        <v>932.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>933.2</v>
-      </c>
-      <c r="N114" t="n">
-        <v>935.3666666666667</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6101,28 +4409,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J115" t="n">
-        <v>135</v>
-      </c>
-      <c r="K115" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L115" t="n">
-        <v>933</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>932.95</v>
-      </c>
-      <c r="N115" t="n">
-        <v>935.1333333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6152,28 +4444,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J116" t="n">
-        <v>135</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L116" t="n">
-        <v>933.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>932.8</v>
-      </c>
-      <c r="N116" t="n">
-        <v>934.9</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6203,28 +4479,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J117" t="n">
-        <v>136</v>
-      </c>
-      <c r="K117" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L117" t="n">
-        <v>933.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>932.7</v>
-      </c>
-      <c r="N117" t="n">
-        <v>934.7</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6254,28 +4514,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J118" t="n">
-        <v>137</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L118" t="n">
-        <v>933.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>932.55</v>
-      </c>
-      <c r="N118" t="n">
-        <v>934.4666666666667</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6305,28 +4549,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J119" t="n">
-        <v>137</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L119" t="n">
-        <v>932.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>932.45</v>
-      </c>
-      <c r="N119" t="n">
-        <v>934.2333333333333</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6356,28 +4584,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J120" t="n">
-        <v>138</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L120" t="n">
-        <v>932.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>932.45</v>
-      </c>
-      <c r="N120" t="n">
-        <v>933.9666666666667</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6407,28 +4619,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J121" t="n">
-        <v>138</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>932.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>932.5</v>
-      </c>
-      <c r="N121" t="n">
-        <v>933.7</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6458,28 +4654,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J122" t="n">
-        <v>138</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>932.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>932.55</v>
-      </c>
-      <c r="N122" t="n">
-        <v>933.4333333333333</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6506,31 +4686,21 @@
         <v>936.7333333333333</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>142</v>
-      </c>
-      <c r="K123" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L123" t="n">
-        <v>932.9</v>
+        <v>932</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>932.8</v>
-      </c>
-      <c r="N123" t="n">
-        <v>933.3</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6557,31 +4727,21 @@
         <v>936.6166666666667</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>146</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L124" t="n">
         <v>933</v>
       </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
-        <v>932.85</v>
-      </c>
-      <c r="N124" t="n">
-        <v>933.1333333333333</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6611,28 +4771,16 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J125" t="n">
-        <v>146</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L125" t="n">
-        <v>932.9</v>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>932.95</v>
-      </c>
-      <c r="N125" t="n">
-        <v>932.9333333333333</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6662,28 +4810,16 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J126" t="n">
-        <v>146</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L126" t="n">
-        <v>932.8</v>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>933.05</v>
-      </c>
-      <c r="N126" t="n">
-        <v>932.8</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,28 +4849,16 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J127" t="n">
-        <v>147</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L127" t="n">
-        <v>932.5</v>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>932.8</v>
-      </c>
-      <c r="N127" t="n">
-        <v>932.6333333333333</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6764,28 +4888,16 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J128" t="n">
-        <v>148</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L128" t="n">
-        <v>932.4</v>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>932.85</v>
-      </c>
-      <c r="N128" t="n">
-        <v>932.5</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6815,28 +4927,16 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J129" t="n">
-        <v>148</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" t="n">
-        <v>932.3</v>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>932.55</v>
-      </c>
-      <c r="N129" t="n">
-        <v>932.4</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6866,28 +4966,16 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J130" t="n">
-        <v>148</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0</v>
-      </c>
-      <c r="L130" t="n">
-        <v>932.3</v>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>932.45</v>
-      </c>
-      <c r="N130" t="n">
-        <v>932.4</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6914,31 +5002,21 @@
         <v>935.6333333333333</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>148</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>932.3</v>
+        <v>932</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>932.4</v>
-      </c>
-      <c r="N131" t="n">
-        <v>932.4333333333333</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6965,31 +5043,21 @@
         <v>935.5</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>149</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L132" t="n">
-        <v>932.2</v>
+        <v>931</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>932.35</v>
-      </c>
-      <c r="N132" t="n">
-        <v>932.4333333333333</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7016,31 +5084,21 @@
         <v>935.2833333333333</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>150</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>931.8</v>
+        <v>932</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>932.35</v>
-      </c>
-      <c r="N133" t="n">
-        <v>932.4666666666667</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7067,31 +5125,21 @@
         <v>935.15</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>150</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0</v>
-      </c>
-      <c r="L134" t="n">
-        <v>931.8</v>
+        <v>932</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>932.4</v>
-      </c>
-      <c r="N134" t="n">
-        <v>932.5</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7118,31 +5166,21 @@
         <v>935.0166666666667</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>150</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0</v>
-      </c>
-      <c r="L135" t="n">
-        <v>931.8</v>
+        <v>932</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>932.35</v>
-      </c>
-      <c r="N135" t="n">
-        <v>932.5666666666667</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7172,28 +5210,16 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J136" t="n">
-        <v>151</v>
-      </c>
-      <c r="K136" t="n">
-        <v>50</v>
-      </c>
-      <c r="L136" t="n">
-        <v>931.9</v>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>932.35</v>
-      </c>
-      <c r="N136" t="n">
-        <v>932.6666666666666</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7220,31 +5246,21 @@
         <v>934.8</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>151</v>
-      </c>
-      <c r="K137" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L137" t="n">
-        <v>932.1</v>
+        <v>933</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M137" t="n">
-        <v>932.3</v>
-      </c>
-      <c r="N137" t="n">
-        <v>932.5666666666667</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7271,31 +5287,21 @@
         <v>934.6833333333333</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>151</v>
-      </c>
-      <c r="K138" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L138" t="n">
-        <v>932.2</v>
+        <v>933</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M138" t="n">
-        <v>932.3</v>
-      </c>
-      <c r="N138" t="n">
-        <v>932.6333333333333</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7322,31 +5328,21 @@
         <v>934.55</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>152</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0</v>
-      </c>
-      <c r="L139" t="n">
-        <v>932.2</v>
+        <v>932</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M139" t="n">
-        <v>932.25</v>
-      </c>
-      <c r="N139" t="n">
-        <v>932.4333333333333</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7373,31 +5369,21 @@
         <v>934.4</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>152</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>932.2</v>
+        <v>932</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M140" t="n">
-        <v>932.25</v>
-      </c>
-      <c r="N140" t="n">
-        <v>932.3666666666667</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7424,31 +5410,21 @@
         <v>934.2666666666667</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>152</v>
-      </c>
-      <c r="K141" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L141" t="n">
-        <v>932.2</v>
+        <v>932</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M141" t="n">
-        <v>932.25</v>
-      </c>
-      <c r="N141" t="n">
-        <v>932.3333333333334</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7475,31 +5451,21 @@
         <v>934.1333333333333</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>152</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0</v>
-      </c>
-      <c r="L142" t="n">
-        <v>932.3</v>
+        <v>932</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M142" t="n">
-        <v>932.25</v>
-      </c>
-      <c r="N142" t="n">
-        <v>932.3333333333334</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7526,31 +5492,21 @@
         <v>934</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>152</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0</v>
-      </c>
-      <c r="L143" t="n">
-        <v>932.3</v>
+        <v>932</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M143" t="n">
-        <v>932.05</v>
-      </c>
-      <c r="N143" t="n">
-        <v>932.3333333333334</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7577,31 +5533,21 @@
         <v>933.8666666666667</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>152</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" t="n">
-        <v>932.3</v>
+        <v>932</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M144" t="n">
-        <v>932.05</v>
-      </c>
-      <c r="N144" t="n">
-        <v>932.3666666666667</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7628,31 +5574,21 @@
         <v>933.7333333333333</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>152</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L145" t="n">
-        <v>932.3</v>
+        <v>932</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M145" t="n">
-        <v>932.05</v>
-      </c>
-      <c r="N145" t="n">
-        <v>932.3333333333334</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7679,31 +5615,21 @@
         <v>933.6</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>152</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L146" t="n">
-        <v>932.2</v>
+        <v>932</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M146" t="n">
-        <v>932.05</v>
-      </c>
-      <c r="N146" t="n">
-        <v>932.3</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7730,31 +5656,21 @@
         <v>933.4666666666667</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>152</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L147" t="n">
-        <v>932.1</v>
+        <v>932</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M147" t="n">
-        <v>932.1</v>
-      </c>
-      <c r="N147" t="n">
-        <v>932.2333333333333</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7781,31 +5697,21 @@
         <v>933.3833333333333</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>155</v>
-      </c>
-      <c r="K148" t="n">
-        <v>100</v>
-      </c>
-      <c r="L148" t="n">
-        <v>932.3</v>
+        <v>932</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M148" t="n">
-        <v>932.25</v>
-      </c>
-      <c r="N148" t="n">
-        <v>932.3</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7832,31 +5738,21 @@
         <v>933.25</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>158</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0</v>
-      </c>
-      <c r="L149" t="n">
-        <v>932.3</v>
+        <v>932</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M149" t="n">
-        <v>932.25</v>
-      </c>
-      <c r="N149" t="n">
-        <v>932.2666666666667</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7883,31 +5779,21 @@
         <v>933.1166666666667</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>158</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0</v>
-      </c>
-      <c r="L150" t="n">
-        <v>932.3</v>
+        <v>932</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M150" t="n">
-        <v>932.25</v>
-      </c>
-      <c r="N150" t="n">
-        <v>932.2666666666667</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7934,31 +5820,21 @@
         <v>933</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>159</v>
-      </c>
-      <c r="K151" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L151" t="n">
-        <v>932.4</v>
+        <v>932</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M151" t="n">
-        <v>932.3</v>
-      </c>
-      <c r="N151" t="n">
-        <v>932.3</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7985,31 +5861,21 @@
         <v>932.9166666666666</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>161</v>
-      </c>
-      <c r="K152" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L152" t="n">
-        <v>932.7</v>
+        <v>932</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M152" t="n">
-        <v>932.5</v>
-      </c>
-      <c r="N152" t="n">
-        <v>932.4</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8036,31 +5902,21 @@
         <v>932.7833333333333</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>164</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0</v>
-      </c>
-      <c r="L153" t="n">
-        <v>932.7</v>
+        <v>931</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M153" t="n">
-        <v>932.5</v>
-      </c>
-      <c r="N153" t="n">
-        <v>932.2666666666667</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8090,30 +5946,16 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J154" t="n">
-        <v>165</v>
-      </c>
-      <c r="K154" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L154" t="n">
-        <v>932.8</v>
-      </c>
-      <c r="M154" t="n">
-        <v>932.55</v>
-      </c>
-      <c r="N154" t="n">
-        <v>932.3</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -8141,28 +5983,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J155" t="n">
-        <v>166</v>
-      </c>
-      <c r="K155" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L155" t="n">
-        <v>933</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>932.65</v>
-      </c>
-      <c r="N155" t="n">
-        <v>932.3666666666667</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8189,31 +6015,21 @@
         <v>932.7</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>171</v>
-      </c>
-      <c r="K156" t="n">
-        <v>36.84210526315789</v>
-      </c>
-      <c r="L156" t="n">
-        <v>933.7</v>
+        <v>934</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M156" t="n">
-        <v>932.95</v>
-      </c>
-      <c r="N156" t="n">
-        <v>932.6</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8240,31 +6056,21 @@
         <v>932.75</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>171</v>
-      </c>
-      <c r="K157" t="n">
-        <v>25</v>
-      </c>
-      <c r="L157" t="n">
-        <v>934.4</v>
+        <v>938</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M157" t="n">
-        <v>933.25</v>
-      </c>
-      <c r="N157" t="n">
-        <v>932.8666666666667</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8291,35 +6097,19 @@
         <v>932.7833333333333</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J158" t="n">
-        <v>172</v>
-      </c>
-      <c r="K158" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L158" t="n">
-        <v>934.7</v>
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M158" t="n">
-        <v>933.5</v>
-      </c>
-      <c r="N158" t="n">
-        <v>933.0666666666667</v>
-      </c>
-      <c r="O158" t="n">
-        <v>939</v>
-      </c>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="n">
-        <v>939</v>
-      </c>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8349,34 +6139,16 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J159" t="n">
-        <v>172</v>
-      </c>
-      <c r="K159" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L159" t="n">
-        <v>935.3</v>
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M159" t="n">
-        <v>933.8</v>
-      </c>
-      <c r="N159" t="n">
-        <v>933.2666666666667</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q159" t="n">
-        <v>939</v>
-      </c>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8406,34 +6178,16 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J160" t="n">
-        <v>174</v>
-      </c>
-      <c r="K160" t="n">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="L160" t="n">
-        <v>936.1</v>
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M160" t="n">
-        <v>934.2</v>
-      </c>
-      <c r="N160" t="n">
-        <v>933.5333333333333</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q160" t="n">
-        <v>939</v>
-      </c>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8463,34 +6217,16 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J161" t="n">
-        <v>176</v>
-      </c>
-      <c r="K161" t="n">
-        <v>20</v>
-      </c>
-      <c r="L161" t="n">
-        <v>936.6</v>
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M161" t="n">
-        <v>934.5</v>
-      </c>
-      <c r="N161" t="n">
-        <v>933.7333333333333</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q161" t="n">
-        <v>939</v>
-      </c>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8520,34 +6256,16 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J162" t="n">
-        <v>177</v>
-      </c>
-      <c r="K162" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L162" t="n">
-        <v>936.8</v>
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M162" t="n">
-        <v>934.75</v>
-      </c>
-      <c r="N162" t="n">
-        <v>933.9333333333333</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q162" t="n">
-        <v>939</v>
-      </c>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8577,34 +6295,16 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J163" t="n">
-        <v>178</v>
-      </c>
-      <c r="K163" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L163" t="n">
-        <v>937.2</v>
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M163" t="n">
-        <v>934.95</v>
-      </c>
-      <c r="N163" t="n">
-        <v>934.0666666666667</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q163" t="n">
-        <v>939</v>
-      </c>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8634,32 +6334,16 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J164" t="n">
-        <v>181</v>
-      </c>
-      <c r="K164" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L164" t="n">
-        <v>937.8</v>
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M164" t="n">
-        <v>935.3</v>
-      </c>
-      <c r="N164" t="n">
-        <v>934.3</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="n">
-        <v>971.8</v>
-      </c>
-      <c r="Q164" t="n">
-        <v>939</v>
-      </c>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8689,34 +6373,16 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J165" t="n">
-        <v>182</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L165" t="n">
-        <v>938.2</v>
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M165" t="n">
-        <v>935.6</v>
-      </c>
-      <c r="N165" t="n">
-        <v>934.5</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="n">
-        <v>939</v>
-      </c>
-      <c r="R165" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8746,34 +6412,16 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J166" t="n">
-        <v>183</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L166" t="n">
-        <v>938</v>
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M166" t="n">
-        <v>935.85</v>
-      </c>
-      <c r="N166" t="n">
-        <v>934.6333333333333</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="n">
-        <v>939</v>
-      </c>
-      <c r="R166" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8803,34 +6451,16 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J167" t="n">
-        <v>186</v>
-      </c>
-      <c r="K167" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L167" t="n">
-        <v>938.1</v>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M167" t="n">
-        <v>936.25</v>
-      </c>
-      <c r="N167" t="n">
-        <v>934.8666666666667</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="n">
-        <v>939</v>
-      </c>
-      <c r="R167" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8860,34 +6490,16 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J168" t="n">
-        <v>187</v>
-      </c>
-      <c r="K168" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L168" t="n">
-        <v>938.2</v>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M168" t="n">
-        <v>936.45</v>
-      </c>
-      <c r="N168" t="n">
-        <v>935.0666666666667</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="n">
-        <v>939</v>
-      </c>
-      <c r="R168" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8917,34 +6529,16 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J169" t="n">
-        <v>188</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0</v>
-      </c>
-      <c r="L169" t="n">
-        <v>938.4</v>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M169" t="n">
-        <v>936.85</v>
-      </c>
-      <c r="N169" t="n">
-        <v>935.3333333333334</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="n">
-        <v>939</v>
-      </c>
-      <c r="R169" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8974,34 +6568,16 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J170" t="n">
-        <v>188</v>
-      </c>
-      <c r="K170" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L170" t="n">
-        <v>938.4</v>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M170" t="n">
-        <v>937.25</v>
-      </c>
-      <c r="N170" t="n">
-        <v>935.6</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="n">
-        <v>939</v>
-      </c>
-      <c r="R170" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9031,34 +6607,16 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J171" t="n">
-        <v>188</v>
-      </c>
-      <c r="K171" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L171" t="n">
-        <v>938.6</v>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M171" t="n">
-        <v>937.6</v>
-      </c>
-      <c r="N171" t="n">
-        <v>935.8666666666667</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="n">
-        <v>939</v>
-      </c>
-      <c r="R171" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9088,34 +6646,16 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J172" t="n">
-        <v>189</v>
-      </c>
-      <c r="K172" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L172" t="n">
-        <v>939</v>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M172" t="n">
-        <v>937.9</v>
-      </c>
-      <c r="N172" t="n">
-        <v>936.1666666666666</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="n">
-        <v>939</v>
-      </c>
-      <c r="R172" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9145,36 +6685,16 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J173" t="n">
-        <v>191</v>
-      </c>
-      <c r="K173" t="n">
-        <v>40</v>
-      </c>
-      <c r="L173" t="n">
-        <v>939.7</v>
-      </c>
-      <c r="M173" t="n">
-        <v>938.45</v>
-      </c>
-      <c r="N173" t="n">
-        <v>936.5333333333333</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="n">
-        <v>939</v>
-      </c>
-      <c r="R173" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
         <is>
-          <t>waiting..</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="S173" t="n">
-        <v>1</v>
-      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -9202,34 +6722,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J174" t="n">
-        <v>195</v>
-      </c>
-      <c r="K174" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L174" t="n">
-        <v>940.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>939.15</v>
-      </c>
-      <c r="N174" t="n">
-        <v>937.0333333333333</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="n">
-        <v>939</v>
-      </c>
-      <c r="R174" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9259,34 +6757,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J175" t="n">
-        <v>197</v>
-      </c>
-      <c r="K175" t="n">
-        <v>57.14285714285714</v>
-      </c>
-      <c r="L175" t="n">
-        <v>941.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
-        <v>939.7</v>
-      </c>
-      <c r="N175" t="n">
-        <v>937.4666666666667</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="n">
-        <v>939</v>
-      </c>
-      <c r="R175" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9316,34 +6792,12 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J176" t="n">
-        <v>199</v>
-      </c>
-      <c r="K176" t="n">
-        <v>53.84615384615385</v>
-      </c>
-      <c r="L176" t="n">
-        <v>942.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
-        <v>940.1</v>
-      </c>
-      <c r="N176" t="n">
-        <v>937.9666666666667</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="n">
-        <v>939</v>
-      </c>
-      <c r="R176" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,34 +6827,12 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J177" t="n">
-        <v>199</v>
-      </c>
-      <c r="K177" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L177" t="n">
-        <v>942.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
-        <v>940.5</v>
-      </c>
-      <c r="N177" t="n">
-        <v>938.4666666666667</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="n">
-        <v>939</v>
-      </c>
-      <c r="R177" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9430,34 +6862,12 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J178" t="n">
-        <v>199</v>
-      </c>
-      <c r="K178" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L178" t="n">
-        <v>943.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
-        <v>940.95</v>
-      </c>
-      <c r="N178" t="n">
-        <v>938.8666666666667</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="n">
-        <v>939</v>
-      </c>
-      <c r="R178" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9487,1123 +6897,12 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J179" t="n">
-        <v>200</v>
-      </c>
-      <c r="K179" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L179" t="n">
-        <v>944.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
-        <v>941.45</v>
-      </c>
-      <c r="N179" t="n">
-        <v>939.4</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="n">
-        <v>939</v>
-      </c>
-      <c r="R179" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>948</v>
-      </c>
-      <c r="C180" t="n">
-        <v>948</v>
-      </c>
-      <c r="D180" t="n">
-        <v>948</v>
-      </c>
-      <c r="E180" t="n">
-        <v>948</v>
-      </c>
-      <c r="F180" t="n">
-        <v>150</v>
-      </c>
-      <c r="G180" t="n">
-        <v>936.1</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J180" t="n">
-        <v>200</v>
-      </c>
-      <c r="K180" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L180" t="n">
-        <v>945.3</v>
-      </c>
-      <c r="M180" t="n">
-        <v>941.85</v>
-      </c>
-      <c r="N180" t="n">
-        <v>939.9333333333333</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="n">
-        <v>939</v>
-      </c>
-      <c r="R180" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>948</v>
-      </c>
-      <c r="C181" t="n">
-        <v>948</v>
-      </c>
-      <c r="D181" t="n">
-        <v>948</v>
-      </c>
-      <c r="E181" t="n">
-        <v>948</v>
-      </c>
-      <c r="F181" t="n">
-        <v>161.259</v>
-      </c>
-      <c r="G181" t="n">
-        <v>936.3666666666667</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J181" t="n">
-        <v>200</v>
-      </c>
-      <c r="K181" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L181" t="n">
-        <v>946.1</v>
-      </c>
-      <c r="M181" t="n">
-        <v>942.35</v>
-      </c>
-      <c r="N181" t="n">
-        <v>940.4333333333333</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="n">
-        <v>939</v>
-      </c>
-      <c r="R181" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>948</v>
-      </c>
-      <c r="C182" t="n">
-        <v>948</v>
-      </c>
-      <c r="D182" t="n">
-        <v>948</v>
-      </c>
-      <c r="E182" t="n">
-        <v>948</v>
-      </c>
-      <c r="F182" t="n">
-        <v>3.741</v>
-      </c>
-      <c r="G182" t="n">
-        <v>936.6333333333333</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J182" t="n">
-        <v>200</v>
-      </c>
-      <c r="K182" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L182" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="M182" t="n">
-        <v>942.9</v>
-      </c>
-      <c r="N182" t="n">
-        <v>940.8666666666667</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="n">
-        <v>939</v>
-      </c>
-      <c r="R182" t="inlineStr">
-        <is>
-          <t>이탈 완료</t>
-        </is>
-      </c>
-      <c r="S182" t="n">
-        <v>1.004584664536741</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>947</v>
-      </c>
-      <c r="C183" t="n">
-        <v>947</v>
-      </c>
-      <c r="D183" t="n">
-        <v>947</v>
-      </c>
-      <c r="E183" t="n">
-        <v>947</v>
-      </c>
-      <c r="F183" t="n">
-        <v>167.0109</v>
-      </c>
-      <c r="G183" t="n">
-        <v>936.8166666666667</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J183" t="n">
-        <v>201</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0</v>
-      </c>
-      <c r="L183" t="n">
-        <v>947.2</v>
-      </c>
-      <c r="M183" t="n">
-        <v>943.45</v>
-      </c>
-      <c r="N183" t="n">
-        <v>941.3666666666667</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>947</v>
-      </c>
-      <c r="C184" t="n">
-        <v>947</v>
-      </c>
-      <c r="D184" t="n">
-        <v>947</v>
-      </c>
-      <c r="E184" t="n">
-        <v>947</v>
-      </c>
-      <c r="F184" t="n">
-        <v>232.69</v>
-      </c>
-      <c r="G184" t="n">
-        <v>937.0666666666667</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J184" t="n">
-        <v>201</v>
-      </c>
-      <c r="K184" t="n">
-        <v>50</v>
-      </c>
-      <c r="L184" t="n">
-        <v>947.2</v>
-      </c>
-      <c r="M184" t="n">
-        <v>943.85</v>
-      </c>
-      <c r="N184" t="n">
-        <v>941.8333333333334</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>947</v>
-      </c>
-      <c r="C185" t="n">
-        <v>947</v>
-      </c>
-      <c r="D185" t="n">
-        <v>947</v>
-      </c>
-      <c r="E185" t="n">
-        <v>947</v>
-      </c>
-      <c r="F185" t="n">
-        <v>36.9292</v>
-      </c>
-      <c r="G185" t="n">
-        <v>937.3166666666667</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J185" t="n">
-        <v>201</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0</v>
-      </c>
-      <c r="L185" t="n">
-        <v>947.4</v>
-      </c>
-      <c r="M185" t="n">
-        <v>944.3</v>
-      </c>
-      <c r="N185" t="n">
-        <v>942.2666666666667</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>947</v>
-      </c>
-      <c r="C186" t="n">
-        <v>947</v>
-      </c>
-      <c r="D186" t="n">
-        <v>947</v>
-      </c>
-      <c r="E186" t="n">
-        <v>947</v>
-      </c>
-      <c r="F186" t="n">
-        <v>134.4231</v>
-      </c>
-      <c r="G186" t="n">
-        <v>937.5666666666667</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J186" t="n">
-        <v>201</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0</v>
-      </c>
-      <c r="L186" t="n">
-        <v>947.4</v>
-      </c>
-      <c r="M186" t="n">
-        <v>944.8</v>
-      </c>
-      <c r="N186" t="n">
-        <v>942.5333333333333</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>947</v>
-      </c>
-      <c r="C187" t="n">
-        <v>947</v>
-      </c>
-      <c r="D187" t="n">
-        <v>947</v>
-      </c>
-      <c r="E187" t="n">
-        <v>947</v>
-      </c>
-      <c r="F187" t="n">
-        <v>150.19</v>
-      </c>
-      <c r="G187" t="n">
-        <v>937.8333333333334</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J187" t="n">
-        <v>201</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0</v>
-      </c>
-      <c r="L187" t="n">
-        <v>947.4</v>
-      </c>
-      <c r="M187" t="n">
-        <v>945.15</v>
-      </c>
-      <c r="N187" t="n">
-        <v>942.8</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>947</v>
-      </c>
-      <c r="C188" t="n">
-        <v>947</v>
-      </c>
-      <c r="D188" t="n">
-        <v>947</v>
-      </c>
-      <c r="E188" t="n">
-        <v>947</v>
-      </c>
-      <c r="F188" t="n">
-        <v>409.0308</v>
-      </c>
-      <c r="G188" t="n">
-        <v>938.0833333333334</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J188" t="n">
-        <v>201</v>
-      </c>
-      <c r="K188" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L188" t="n">
-        <v>947.4</v>
-      </c>
-      <c r="M188" t="n">
-        <v>945.55</v>
-      </c>
-      <c r="N188" t="n">
-        <v>943.1</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>944</v>
-      </c>
-      <c r="C189" t="n">
-        <v>944</v>
-      </c>
-      <c r="D189" t="n">
-        <v>944</v>
-      </c>
-      <c r="E189" t="n">
-        <v>944</v>
-      </c>
-      <c r="F189" t="n">
-        <v>1</v>
-      </c>
-      <c r="G189" t="n">
-        <v>938.2833333333333</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J189" t="n">
-        <v>204</v>
-      </c>
-      <c r="K189" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L189" t="n">
-        <v>947</v>
-      </c>
-      <c r="M189" t="n">
-        <v>945.75</v>
-      </c>
-      <c r="N189" t="n">
-        <v>943.3</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>947</v>
-      </c>
-      <c r="C190" t="n">
-        <v>947</v>
-      </c>
-      <c r="D190" t="n">
-        <v>947</v>
-      </c>
-      <c r="E190" t="n">
-        <v>947</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1</v>
-      </c>
-      <c r="G190" t="n">
-        <v>938.5333333333333</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J190" t="n">
-        <v>207</v>
-      </c>
-      <c r="K190" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L190" t="n">
-        <v>946.9</v>
-      </c>
-      <c r="M190" t="n">
-        <v>946.1</v>
-      </c>
-      <c r="N190" t="n">
-        <v>943.5333333333333</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>947</v>
-      </c>
-      <c r="C191" t="n">
-        <v>947</v>
-      </c>
-      <c r="D191" t="n">
-        <v>947</v>
-      </c>
-      <c r="E191" t="n">
-        <v>947</v>
-      </c>
-      <c r="F191" t="n">
-        <v>529</v>
-      </c>
-      <c r="G191" t="n">
-        <v>938.7833333333333</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J191" t="n">
-        <v>207</v>
-      </c>
-      <c r="K191" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L191" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="M191" t="n">
-        <v>946.45</v>
-      </c>
-      <c r="N191" t="n">
-        <v>943.8333333333334</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>947</v>
-      </c>
-      <c r="C192" t="n">
-        <v>947</v>
-      </c>
-      <c r="D192" t="n">
-        <v>947</v>
-      </c>
-      <c r="E192" t="n">
-        <v>947</v>
-      </c>
-      <c r="F192" t="n">
-        <v>87.5647</v>
-      </c>
-      <c r="G192" t="n">
-        <v>939.05</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J192" t="n">
-        <v>207</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0</v>
-      </c>
-      <c r="L192" t="n">
-        <v>946.7</v>
-      </c>
-      <c r="M192" t="n">
-        <v>946.75</v>
-      </c>
-      <c r="N192" t="n">
-        <v>944.1666666666666</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>947</v>
-      </c>
-      <c r="C193" t="n">
-        <v>947</v>
-      </c>
-      <c r="D193" t="n">
-        <v>947</v>
-      </c>
-      <c r="E193" t="n">
-        <v>947</v>
-      </c>
-      <c r="F193" t="n">
-        <v>108.0842</v>
-      </c>
-      <c r="G193" t="n">
-        <v>939.3</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J193" t="n">
-        <v>207</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0</v>
-      </c>
-      <c r="L193" t="n">
-        <v>946.7</v>
-      </c>
-      <c r="M193" t="n">
-        <v>946.95</v>
-      </c>
-      <c r="N193" t="n">
-        <v>944.5333333333333</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>948</v>
-      </c>
-      <c r="C194" t="n">
-        <v>948</v>
-      </c>
-      <c r="D194" t="n">
-        <v>948</v>
-      </c>
-      <c r="E194" t="n">
-        <v>948</v>
-      </c>
-      <c r="F194" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="G194" t="n">
-        <v>939.5666666666667</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J194" t="n">
-        <v>208</v>
-      </c>
-      <c r="K194" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L194" t="n">
-        <v>946.8</v>
-      </c>
-      <c r="M194" t="n">
-        <v>947</v>
-      </c>
-      <c r="N194" t="n">
-        <v>944.8333333333334</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>948</v>
-      </c>
-      <c r="C195" t="n">
-        <v>948</v>
-      </c>
-      <c r="D195" t="n">
-        <v>948</v>
-      </c>
-      <c r="E195" t="n">
-        <v>948</v>
-      </c>
-      <c r="F195" t="n">
-        <v>535.1035000000001</v>
-      </c>
-      <c r="G195" t="n">
-        <v>939.8333333333334</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J195" t="n">
-        <v>208</v>
-      </c>
-      <c r="K195" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L195" t="n">
-        <v>946.9</v>
-      </c>
-      <c r="M195" t="n">
-        <v>947.15</v>
-      </c>
-      <c r="N195" t="n">
-        <v>945.1666666666666</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>949</v>
-      </c>
-      <c r="C196" t="n">
-        <v>949</v>
-      </c>
-      <c r="D196" t="n">
-        <v>949</v>
-      </c>
-      <c r="E196" t="n">
-        <v>949</v>
-      </c>
-      <c r="F196" t="n">
-        <v>175.8301</v>
-      </c>
-      <c r="G196" t="n">
-        <v>940.1</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J196" t="n">
-        <v>209</v>
-      </c>
-      <c r="K196" t="n">
-        <v>25</v>
-      </c>
-      <c r="L196" t="n">
-        <v>947.1</v>
-      </c>
-      <c r="M196" t="n">
-        <v>947.25</v>
-      </c>
-      <c r="N196" t="n">
-        <v>945.5666666666667</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>949</v>
-      </c>
-      <c r="C197" t="n">
-        <v>949</v>
-      </c>
-      <c r="D197" t="n">
-        <v>949</v>
-      </c>
-      <c r="E197" t="n">
-        <v>949</v>
-      </c>
-      <c r="F197" t="n">
-        <v>43.2109</v>
-      </c>
-      <c r="G197" t="n">
-        <v>940.3666666666667</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J197" t="n">
-        <v>209</v>
-      </c>
-      <c r="K197" t="n">
-        <v>25</v>
-      </c>
-      <c r="L197" t="n">
-        <v>947.3</v>
-      </c>
-      <c r="M197" t="n">
-        <v>947.35</v>
-      </c>
-      <c r="N197" t="n">
-        <v>945.8666666666667</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>951</v>
-      </c>
-      <c r="C198" t="n">
-        <v>951</v>
-      </c>
-      <c r="D198" t="n">
-        <v>951</v>
-      </c>
-      <c r="E198" t="n">
-        <v>951</v>
-      </c>
-      <c r="F198" t="n">
-        <v>221.5143</v>
-      </c>
-      <c r="G198" t="n">
-        <v>940.6666666666666</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
-      <c r="J198" t="n">
-        <v>211</v>
-      </c>
-      <c r="K198" t="n">
-        <v>100</v>
-      </c>
-      <c r="L198" t="n">
-        <v>947.7</v>
-      </c>
-      <c r="M198" t="n">
-        <v>947.55</v>
-      </c>
-      <c r="N198" t="n">
-        <v>946.2666666666667</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>950</v>
-      </c>
-      <c r="C199" t="n">
-        <v>953</v>
-      </c>
-      <c r="D199" t="n">
-        <v>953</v>
-      </c>
-      <c r="E199" t="n">
-        <v>950</v>
-      </c>
-      <c r="F199" t="n">
-        <v>938.6384</v>
-      </c>
-      <c r="G199" t="n">
-        <v>941.0166666666667</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>3</v>
-      </c>
-      <c r="J199" t="n">
-        <v>213</v>
-      </c>
-      <c r="K199" t="n">
-        <v>100</v>
-      </c>
-      <c r="L199" t="n">
-        <v>948.6</v>
-      </c>
-      <c r="M199" t="n">
-        <v>947.8</v>
-      </c>
-      <c r="N199" t="n">
-        <v>946.7</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>950</v>
-      </c>
-      <c r="C200" t="n">
-        <v>948</v>
-      </c>
-      <c r="D200" t="n">
-        <v>950</v>
-      </c>
-      <c r="E200" t="n">
-        <v>948</v>
-      </c>
-      <c r="F200" t="n">
-        <v>824.7317</v>
-      </c>
-      <c r="G200" t="n">
-        <v>941.2833333333333</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J200" t="n">
-        <v>218</v>
-      </c>
-      <c r="K200" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L200" t="n">
-        <v>948.7</v>
-      </c>
-      <c r="M200" t="n">
-        <v>947.8</v>
-      </c>
-      <c r="N200" t="n">
-        <v>946.9666666666667</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-19 BackTest WAVES.xlsx
@@ -1291,14 +1291,20 @@
         <v>951</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>944</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1326,14 +1332,20 @@
         <v>950.7166666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>944</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1368,7 +1380,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1403,7 +1419,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1438,7 +1458,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1473,7 +1497,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1508,7 +1536,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1543,7 +1575,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1578,7 +1614,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1613,7 +1653,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1648,7 +1692,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1683,7 +1731,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1718,7 +1770,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1753,7 +1809,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1788,7 +1848,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1823,7 +1887,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1858,7 +1926,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1893,7 +1965,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1928,7 +2004,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1963,7 +2043,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1998,7 +2082,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2033,7 +2121,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2068,7 +2160,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2103,7 +2199,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2238,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2173,7 +2277,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2208,7 +2316,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2243,7 +2355,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2278,7 +2394,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2313,7 +2433,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2348,7 +2472,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2383,7 +2511,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2418,7 +2550,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2453,7 +2589,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2488,7 +2628,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2523,7 +2667,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2558,7 +2706,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2593,7 +2745,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2628,7 +2784,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2663,7 +2823,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2698,7 +2862,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2733,7 +2901,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2768,7 +2940,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2803,7 +2979,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2838,7 +3018,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2873,7 +3057,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2908,7 +3096,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2943,7 +3135,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2978,7 +3174,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3013,7 +3213,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3048,7 +3252,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3083,7 +3291,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3118,7 +3330,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3153,7 +3369,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3188,7 +3408,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3223,7 +3447,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3258,7 +3486,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3525,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3328,7 +3564,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3363,7 +3603,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3398,7 +3642,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3433,7 +3681,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3468,7 +3720,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3503,7 +3759,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3538,7 +3798,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3573,7 +3837,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3608,7 +3876,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3643,7 +3915,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3678,7 +3954,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3713,7 +3993,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3748,7 +4032,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3783,7 +4071,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3818,7 +4110,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3853,7 +4149,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3888,7 +4188,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3923,7 +4227,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3958,7 +4266,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3993,7 +4305,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4028,7 +4344,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4056,14 +4376,20 @@
         <v>938.8833333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>931</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4091,14 +4417,20 @@
         <v>938.7833333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>930</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4126,14 +4458,20 @@
         <v>938.65</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>930</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4161,14 +4499,20 @@
         <v>938.45</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>936</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4203,7 +4547,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4238,7 +4586,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4273,7 +4625,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4308,7 +4664,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4343,7 +4703,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4378,7 +4742,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4413,7 +4781,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4820,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4483,7 +4859,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4511,14 +4891,20 @@
         <v>937.2833333333333</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>934</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4553,7 +4939,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4588,7 +4978,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4623,7 +5017,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4658,7 +5056,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4686,18 +5088,16 @@
         <v>936.7333333333333</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>932</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M123" t="n">
@@ -4727,14 +5127,12 @@
         <v>936.6166666666667</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>933</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
@@ -5002,14 +5400,12 @@
         <v>935.6333333333333</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>932</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
@@ -5043,14 +5439,12 @@
         <v>935.5</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>931</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
@@ -5084,14 +5478,12 @@
         <v>935.2833333333333</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>932</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
@@ -5125,14 +5517,12 @@
         <v>935.15</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>932</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
@@ -5166,14 +5556,12 @@
         <v>935.0166666666667</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>932</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
@@ -5246,14 +5634,12 @@
         <v>934.8</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>933</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
@@ -5287,14 +5673,12 @@
         <v>934.6833333333333</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>933</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -5328,14 +5712,12 @@
         <v>934.55</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>932</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
@@ -5369,14 +5751,12 @@
         <v>934.4</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>932</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -5410,14 +5790,12 @@
         <v>934.2666666666667</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>932</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
@@ -5451,14 +5829,12 @@
         <v>934.1333333333333</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>932</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
@@ -5492,14 +5868,12 @@
         <v>934</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>932</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -5533,14 +5907,12 @@
         <v>933.8666666666667</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>932</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
@@ -5574,14 +5946,12 @@
         <v>933.7333333333333</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>932</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -5615,14 +5985,12 @@
         <v>933.6</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>932</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
@@ -5656,14 +6024,12 @@
         <v>933.4666666666667</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>932</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -5697,14 +6063,12 @@
         <v>933.3833333333333</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>932</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -5738,14 +6102,12 @@
         <v>933.25</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>932</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -5779,14 +6141,12 @@
         <v>933.1166666666667</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>932</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
@@ -5820,14 +6180,12 @@
         <v>933</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>932</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -5861,14 +6219,12 @@
         <v>932.9166666666666</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>932</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -5902,14 +6258,12 @@
         <v>932.7833333333333</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>931</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -5946,16 +6300,18 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5987,10 +6343,12 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6015,20 +6373,14 @@
         <v>932.7</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
       </c>
-      <c r="J156" t="n">
-        <v>934</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6056,20 +6408,14 @@
         <v>932.75</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="n">
-        <v>938</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6104,11 +6450,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6139,15 +6481,11 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6182,11 +6520,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6217,15 +6551,11 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6256,15 +6586,11 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6295,15 +6621,11 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6334,15 +6656,11 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6373,15 +6691,11 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6412,15 +6726,11 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6455,11 +6765,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6494,11 +6800,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6533,11 +6835,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6572,11 +6870,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6611,11 +6905,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6650,11 +6940,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6685,16 +6971,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6722,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
@@ -6792,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
@@ -6827,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -6862,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -6897,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-19 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M179"/>
+  <dimension ref="A1:M180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,13 +442,13 @@
         <v>950</v>
       </c>
       <c r="E2" t="n">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F2" t="n">
-        <v>851.8132000000001</v>
+        <v>536</v>
       </c>
       <c r="G2" t="n">
-        <v>957.3666666666667</v>
+        <v>957.6</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>950</v>
       </c>
       <c r="C3" t="n">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D3" t="n">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E3" t="n">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F3" t="n">
-        <v>3254.6882</v>
+        <v>851.8132000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>957.15</v>
+        <v>957.3666666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C4" t="n">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="D4" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E4" t="n">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F4" t="n">
-        <v>2557.9568</v>
+        <v>3254.6882</v>
       </c>
       <c r="G4" t="n">
-        <v>956.9</v>
+        <v>957.15</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C5" t="n">
         <v>949</v>
       </c>
       <c r="D5" t="n">
+        <v>951</v>
+      </c>
+      <c r="E5" t="n">
         <v>949</v>
       </c>
-      <c r="E5" t="n">
-        <v>948</v>
-      </c>
       <c r="F5" t="n">
-        <v>1029.7443</v>
+        <v>2557.9568</v>
       </c>
       <c r="G5" t="n">
-        <v>956.65</v>
+        <v>956.9</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C6" t="n">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D6" t="n">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E6" t="n">
         <v>948</v>
       </c>
       <c r="F6" t="n">
-        <v>741.3031999999999</v>
+        <v>1029.7443</v>
       </c>
       <c r="G6" t="n">
-        <v>956.4</v>
+        <v>956.65</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>948</v>
       </c>
       <c r="F7" t="n">
-        <v>440.9806</v>
+        <v>741.3031999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>956.15</v>
+        <v>956.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>948</v>
       </c>
       <c r="F8" t="n">
-        <v>205</v>
+        <v>440.9806</v>
       </c>
       <c r="G8" t="n">
-        <v>955.9</v>
+        <v>956.15</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C9" t="n">
         <v>948</v>
@@ -687,13 +687,13 @@
         <v>948</v>
       </c>
       <c r="E9" t="n">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F9" t="n">
-        <v>3175.2408</v>
+        <v>205</v>
       </c>
       <c r="G9" t="n">
-        <v>955.6666666666666</v>
+        <v>955.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C10" t="n">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="D10" t="n">
         <v>948</v>
@@ -725,10 +725,10 @@
         <v>946</v>
       </c>
       <c r="F10" t="n">
-        <v>6091.41</v>
+        <v>3175.2408</v>
       </c>
       <c r="G10" t="n">
-        <v>955.4166666666666</v>
+        <v>955.6666666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>946</v>
       </c>
       <c r="C11" t="n">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D11" t="n">
         <v>948</v>
@@ -760,10 +760,10 @@
         <v>946</v>
       </c>
       <c r="F11" t="n">
-        <v>3235.5925</v>
+        <v>6091.41</v>
       </c>
       <c r="G11" t="n">
-        <v>955.1833333333333</v>
+        <v>955.4166666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>946</v>
       </c>
       <c r="C12" t="n">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D12" t="n">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="E12" t="n">
         <v>946</v>
       </c>
       <c r="F12" t="n">
-        <v>410</v>
+        <v>3235.5925</v>
       </c>
       <c r="G12" t="n">
-        <v>954.9333333333333</v>
+        <v>955.1833333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>946</v>
       </c>
       <c r="F13" t="n">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="G13" t="n">
-        <v>954.6833333333333</v>
+        <v>954.9333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>946</v>
       </c>
       <c r="F14" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G14" t="n">
-        <v>954.4333333333333</v>
+        <v>954.6833333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,16 +894,16 @@
         <v>946</v>
       </c>
       <c r="D15" t="n">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E15" t="n">
         <v>946</v>
       </c>
       <c r="F15" t="n">
-        <v>2430.15</v>
+        <v>200</v>
       </c>
       <c r="G15" t="n">
-        <v>954.1166666666667</v>
+        <v>954.4333333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -929,16 +929,16 @@
         <v>946</v>
       </c>
       <c r="D16" t="n">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E16" t="n">
         <v>946</v>
       </c>
       <c r="F16" t="n">
-        <v>1831.3267</v>
+        <v>2430.15</v>
       </c>
       <c r="G16" t="n">
-        <v>953.85</v>
+        <v>954.1166666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>946</v>
       </c>
       <c r="C17" t="n">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D17" t="n">
         <v>946</v>
       </c>
       <c r="E17" t="n">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F17" t="n">
-        <v>915.4302</v>
+        <v>1831.3267</v>
       </c>
       <c r="G17" t="n">
-        <v>953.5833333333334</v>
+        <v>953.85</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C18" t="n">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D18" t="n">
         <v>946</v>
       </c>
       <c r="E18" t="n">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F18" t="n">
-        <v>2043.4324</v>
+        <v>915.4302</v>
       </c>
       <c r="G18" t="n">
-        <v>953.3</v>
+        <v>953.5833333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>944</v>
       </c>
       <c r="C19" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D19" t="n">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E19" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F19" t="n">
-        <v>2463.57</v>
+        <v>2043.4324</v>
       </c>
       <c r="G19" t="n">
-        <v>953</v>
+        <v>953.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C20" t="n">
         <v>943</v>
       </c>
       <c r="D20" t="n">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E20" t="n">
         <v>943</v>
       </c>
       <c r="F20" t="n">
-        <v>2100</v>
+        <v>2463.57</v>
       </c>
       <c r="G20" t="n">
-        <v>952.7</v>
+        <v>953</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>943</v>
       </c>
       <c r="C21" t="n">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D21" t="n">
         <v>944</v>
@@ -1110,10 +1110,10 @@
         <v>943</v>
       </c>
       <c r="F21" t="n">
-        <v>1712.0947</v>
+        <v>2100</v>
       </c>
       <c r="G21" t="n">
-        <v>952.4166666666666</v>
+        <v>952.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>943</v>
       </c>
       <c r="C22" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D22" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E22" t="n">
         <v>943</v>
       </c>
       <c r="F22" t="n">
-        <v>25.6941</v>
+        <v>1712.0947</v>
       </c>
       <c r="G22" t="n">
-        <v>952.1166666666667</v>
+        <v>952.4166666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>943</v>
       </c>
       <c r="C23" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D23" t="n">
         <v>943</v>
       </c>
       <c r="E23" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F23" t="n">
-        <v>1674.9144</v>
+        <v>25.6941</v>
       </c>
       <c r="G23" t="n">
-        <v>951.8</v>
+        <v>952.1166666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>943</v>
       </c>
       <c r="C24" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D24" t="n">
         <v>943</v>
       </c>
       <c r="E24" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F24" t="n">
-        <v>211.8982</v>
+        <v>1674.9144</v>
       </c>
       <c r="G24" t="n">
-        <v>951.5166666666667</v>
+        <v>951.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C25" t="n">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D25" t="n">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E25" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F25" t="n">
-        <v>2751.7991</v>
+        <v>211.8982</v>
       </c>
       <c r="G25" t="n">
-        <v>951.25</v>
+        <v>951.5166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C26" t="n">
         <v>944</v>
@@ -1282,29 +1282,23 @@
         <v>944</v>
       </c>
       <c r="E26" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F26" t="n">
-        <v>4678.09</v>
+        <v>2751.7991</v>
       </c>
       <c r="G26" t="n">
-        <v>951</v>
+        <v>951.25</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>944</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1314,38 +1308,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>943</v>
+      </c>
+      <c r="C27" t="n">
         <v>944</v>
       </c>
-      <c r="C27" t="n">
-        <v>942</v>
-      </c>
       <c r="D27" t="n">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E27" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F27" t="n">
-        <v>2844.5073</v>
+        <v>4678.09</v>
       </c>
       <c r="G27" t="n">
-        <v>950.7166666666667</v>
+        <v>951</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>944</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1355,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>944</v>
+      </c>
+      <c r="C28" t="n">
         <v>942</v>
       </c>
-      <c r="C28" t="n">
-        <v>944</v>
-      </c>
       <c r="D28" t="n">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E28" t="n">
         <v>942</v>
       </c>
       <c r="F28" t="n">
-        <v>4212.9091</v>
+        <v>2844.5073</v>
       </c>
       <c r="G28" t="n">
-        <v>950.45</v>
+        <v>950.7166666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1380,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1394,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C29" t="n">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D29" t="n">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E29" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F29" t="n">
-        <v>4509.9</v>
+        <v>4212.9091</v>
       </c>
       <c r="G29" t="n">
-        <v>950.2333333333333</v>
+        <v>950.45</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1419,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1433,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C30" t="n">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="D30" t="n">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E30" t="n">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F30" t="n">
-        <v>901.9669</v>
+        <v>4509.9</v>
       </c>
       <c r="G30" t="n">
-        <v>950</v>
+        <v>950.2333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1458,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1472,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C31" t="n">
         <v>945</v>
       </c>
       <c r="D31" t="n">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E31" t="n">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F31" t="n">
-        <v>125</v>
+        <v>901.9669</v>
       </c>
       <c r="G31" t="n">
-        <v>949.7666666666667</v>
+        <v>950</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1497,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1517,16 +1489,16 @@
         <v>945</v>
       </c>
       <c r="D32" t="n">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E32" t="n">
         <v>945</v>
       </c>
       <c r="F32" t="n">
-        <v>450</v>
+        <v>125</v>
       </c>
       <c r="G32" t="n">
-        <v>949.5333333333333</v>
+        <v>949.7666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1536,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1553,19 +1521,19 @@
         <v>945</v>
       </c>
       <c r="C33" t="n">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D33" t="n">
+        <v>947</v>
+      </c>
+      <c r="E33" t="n">
         <v>945</v>
       </c>
-      <c r="E33" t="n">
-        <v>944</v>
-      </c>
       <c r="F33" t="n">
-        <v>490.7118</v>
+        <v>450</v>
       </c>
       <c r="G33" t="n">
-        <v>949.2666666666667</v>
+        <v>949.5333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1575,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1592,19 +1556,19 @@
         <v>945</v>
       </c>
       <c r="C34" t="n">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D34" t="n">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E34" t="n">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F34" t="n">
-        <v>3106.8801</v>
+        <v>490.7118</v>
       </c>
       <c r="G34" t="n">
-        <v>949.05</v>
+        <v>949.2666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1628,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C35" t="n">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D35" t="n">
+        <v>946</v>
+      </c>
+      <c r="E35" t="n">
         <v>945</v>
       </c>
-      <c r="E35" t="n">
-        <v>942</v>
-      </c>
       <c r="F35" t="n">
-        <v>2191.3282</v>
+        <v>3106.8801</v>
       </c>
       <c r="G35" t="n">
-        <v>948.8</v>
+        <v>949.05</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1653,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1667,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C36" t="n">
         <v>944</v>
@@ -1679,10 +1635,10 @@
         <v>942</v>
       </c>
       <c r="F36" t="n">
-        <v>1610.5216</v>
+        <v>2191.3282</v>
       </c>
       <c r="G36" t="n">
-        <v>948.55</v>
+        <v>948.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1692,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1706,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C37" t="n">
         <v>944</v>
       </c>
       <c r="D37" t="n">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E37" t="n">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F37" t="n">
-        <v>2.1313</v>
+        <v>1610.5216</v>
       </c>
       <c r="G37" t="n">
-        <v>948.3166666666667</v>
+        <v>948.55</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1731,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1745,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C38" t="n">
         <v>944</v>
@@ -1754,13 +1702,13 @@
         <v>944</v>
       </c>
       <c r="E38" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F38" t="n">
-        <v>776.4496</v>
+        <v>2.1313</v>
       </c>
       <c r="G38" t="n">
-        <v>948.0833333333334</v>
+        <v>948.3166666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1787,19 +1731,19 @@
         <v>943</v>
       </c>
       <c r="C39" t="n">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="D39" t="n">
+        <v>944</v>
+      </c>
+      <c r="E39" t="n">
         <v>943</v>
       </c>
-      <c r="E39" t="n">
-        <v>941</v>
-      </c>
       <c r="F39" t="n">
-        <v>703.0022</v>
+        <v>776.4496</v>
       </c>
       <c r="G39" t="n">
-        <v>947.8333333333334</v>
+        <v>948.0833333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1809,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1823,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>943</v>
+      </c>
+      <c r="C40" t="n">
         <v>941</v>
       </c>
-      <c r="C40" t="n">
-        <v>942</v>
-      </c>
       <c r="D40" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E40" t="n">
         <v>941</v>
       </c>
       <c r="F40" t="n">
-        <v>3091.127</v>
+        <v>703.0022</v>
       </c>
       <c r="G40" t="n">
-        <v>947.6166666666667</v>
+        <v>947.8333333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1848,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1865,19 +1801,19 @@
         <v>941</v>
       </c>
       <c r="C41" t="n">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D41" t="n">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E41" t="n">
         <v>941</v>
       </c>
       <c r="F41" t="n">
-        <v>323</v>
+        <v>3091.127</v>
       </c>
       <c r="G41" t="n">
-        <v>947.4</v>
+        <v>947.6166666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1887,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1901,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C42" t="n">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="D42" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E42" t="n">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F42" t="n">
-        <v>190.0749</v>
+        <v>323</v>
       </c>
       <c r="G42" t="n">
-        <v>947.1666666666666</v>
+        <v>947.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1926,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1940,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C43" t="n">
         <v>939</v>
       </c>
       <c r="D43" t="n">
+        <v>940</v>
+      </c>
+      <c r="E43" t="n">
         <v>939</v>
       </c>
-      <c r="E43" t="n">
-        <v>938</v>
-      </c>
       <c r="F43" t="n">
-        <v>2237.846</v>
+        <v>190.0749</v>
       </c>
       <c r="G43" t="n">
-        <v>946.9333333333333</v>
+        <v>947.1666666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1965,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1979,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C44" t="n">
+        <v>939</v>
+      </c>
+      <c r="D44" t="n">
+        <v>939</v>
+      </c>
+      <c r="E44" t="n">
         <v>938</v>
       </c>
-      <c r="D44" t="n">
-        <v>938</v>
-      </c>
-      <c r="E44" t="n">
-        <v>936</v>
-      </c>
       <c r="F44" t="n">
-        <v>2042</v>
+        <v>2237.846</v>
       </c>
       <c r="G44" t="n">
-        <v>946.6833333333333</v>
+        <v>946.9333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2004,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2021,19 +1941,19 @@
         <v>937</v>
       </c>
       <c r="C45" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D45" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E45" t="n">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F45" t="n">
-        <v>183</v>
+        <v>2042</v>
       </c>
       <c r="G45" t="n">
-        <v>946.4166666666666</v>
+        <v>946.6833333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2043,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2057,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C46" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D46" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E46" t="n">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="F46" t="n">
-        <v>906</v>
+        <v>183</v>
       </c>
       <c r="G46" t="n">
-        <v>946.15</v>
+        <v>946.4166666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2082,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2096,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>935</v>
+      </c>
+      <c r="C47" t="n">
         <v>936</v>
       </c>
-      <c r="C47" t="n">
-        <v>944</v>
-      </c>
       <c r="D47" t="n">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="E47" t="n">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F47" t="n">
-        <v>2520</v>
+        <v>906</v>
       </c>
       <c r="G47" t="n">
-        <v>946.0166666666667</v>
+        <v>946.15</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2121,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2135,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C48" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D48" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E48" t="n">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F48" t="n">
-        <v>821</v>
+        <v>2520</v>
       </c>
       <c r="G48" t="n">
-        <v>945.8666666666667</v>
+        <v>946.0166666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2160,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2174,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C49" t="n">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="D49" t="n">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E49" t="n">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F49" t="n">
-        <v>1175.9428</v>
+        <v>821</v>
       </c>
       <c r="G49" t="n">
-        <v>945.6666666666666</v>
+        <v>945.8666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2199,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2219,16 +2119,16 @@
         <v>940</v>
       </c>
       <c r="D50" t="n">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E50" t="n">
         <v>939</v>
       </c>
       <c r="F50" t="n">
-        <v>1795.7505</v>
+        <v>1175.9428</v>
       </c>
       <c r="G50" t="n">
-        <v>945.4833333333333</v>
+        <v>945.6666666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2238,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2255,19 +2151,19 @@
         <v>940</v>
       </c>
       <c r="C51" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D51" t="n">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E51" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F51" t="n">
-        <v>893.9995</v>
+        <v>1795.7505</v>
       </c>
       <c r="G51" t="n">
-        <v>945.3166666666667</v>
+        <v>945.4833333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2277,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2291,7 +2183,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C52" t="n">
         <v>941</v>
@@ -2300,13 +2192,13 @@
         <v>941</v>
       </c>
       <c r="E52" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F52" t="n">
-        <v>50</v>
+        <v>893.9995</v>
       </c>
       <c r="G52" t="n">
-        <v>945.15</v>
+        <v>945.3166666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2316,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2342,10 +2230,10 @@
         <v>941</v>
       </c>
       <c r="F53" t="n">
-        <v>2745</v>
+        <v>50</v>
       </c>
       <c r="G53" t="n">
-        <v>944.9833333333333</v>
+        <v>945.15</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2355,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2381,10 +2265,10 @@
         <v>941</v>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>2745</v>
       </c>
       <c r="G54" t="n">
-        <v>944.8166666666667</v>
+        <v>944.9833333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2394,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2420,10 +2300,10 @@
         <v>941</v>
       </c>
       <c r="F55" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="G55" t="n">
-        <v>944.65</v>
+        <v>944.8166666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2433,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2459,10 +2335,10 @@
         <v>941</v>
       </c>
       <c r="F56" t="n">
-        <v>175.18</v>
+        <v>450</v>
       </c>
       <c r="G56" t="n">
-        <v>944.4833333333333</v>
+        <v>944.65</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2472,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2498,10 +2370,10 @@
         <v>941</v>
       </c>
       <c r="F57" t="n">
-        <v>17.7379</v>
+        <v>175.18</v>
       </c>
       <c r="G57" t="n">
-        <v>944.3166666666667</v>
+        <v>944.4833333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2511,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2528,19 +2396,19 @@
         <v>941</v>
       </c>
       <c r="C58" t="n">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="D58" t="n">
         <v>941</v>
       </c>
       <c r="E58" t="n">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="F58" t="n">
-        <v>3649.2235</v>
+        <v>17.7379</v>
       </c>
       <c r="G58" t="n">
-        <v>944.0666666666667</v>
+        <v>944.3166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2550,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2564,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C59" t="n">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="D59" t="n">
         <v>941</v>
       </c>
       <c r="E59" t="n">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F59" t="n">
-        <v>1248.4103</v>
+        <v>3649.2235</v>
       </c>
       <c r="G59" t="n">
-        <v>943.8166666666667</v>
+        <v>944.0666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2589,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2603,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C60" t="n">
         <v>941</v>
@@ -2612,13 +2472,13 @@
         <v>941</v>
       </c>
       <c r="E60" t="n">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F60" t="n">
-        <v>1480.3039</v>
+        <v>1248.4103</v>
       </c>
       <c r="G60" t="n">
-        <v>943.65</v>
+        <v>943.8166666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2628,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2642,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C61" t="n">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="D61" t="n">
+        <v>941</v>
+      </c>
+      <c r="E61" t="n">
         <v>939</v>
       </c>
-      <c r="E61" t="n">
-        <v>938</v>
-      </c>
       <c r="F61" t="n">
-        <v>1350.0965</v>
+        <v>1480.3039</v>
       </c>
       <c r="G61" t="n">
-        <v>943.45</v>
+        <v>943.65</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2667,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2684,7 +2536,7 @@
         <v>938</v>
       </c>
       <c r="C62" t="n">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D62" t="n">
         <v>939</v>
@@ -2693,10 +2545,10 @@
         <v>938</v>
       </c>
       <c r="F62" t="n">
-        <v>664</v>
+        <v>1350.0965</v>
       </c>
       <c r="G62" t="n">
-        <v>943.2666666666667</v>
+        <v>943.45</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2706,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2732,10 +2580,10 @@
         <v>938</v>
       </c>
       <c r="F63" t="n">
-        <v>2097.5189</v>
+        <v>664</v>
       </c>
       <c r="G63" t="n">
-        <v>943.05</v>
+        <v>943.2666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2745,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2759,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C64" t="n">
         <v>939</v>
       </c>
       <c r="D64" t="n">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E64" t="n">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F64" t="n">
-        <v>2690</v>
+        <v>2097.5189</v>
       </c>
       <c r="G64" t="n">
-        <v>942.8833333333333</v>
+        <v>943.05</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2784,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2801,19 +2641,19 @@
         <v>939</v>
       </c>
       <c r="C65" t="n">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="D65" t="n">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E65" t="n">
         <v>939</v>
       </c>
       <c r="F65" t="n">
-        <v>1200</v>
+        <v>2690</v>
       </c>
       <c r="G65" t="n">
-        <v>942.7833333333333</v>
+        <v>942.8833333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2823,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2840,19 +2676,19 @@
         <v>939</v>
       </c>
       <c r="C66" t="n">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="D66" t="n">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E66" t="n">
         <v>939</v>
       </c>
       <c r="F66" t="n">
-        <v>1228.59</v>
+        <v>1200</v>
       </c>
       <c r="G66" t="n">
-        <v>942.6666666666666</v>
+        <v>942.7833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2862,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2879,19 +2711,19 @@
         <v>939</v>
       </c>
       <c r="C67" t="n">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="D67" t="n">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="E67" t="n">
         <v>939</v>
       </c>
       <c r="F67" t="n">
-        <v>1234</v>
+        <v>1228.59</v>
       </c>
       <c r="G67" t="n">
-        <v>942.5166666666667</v>
+        <v>942.6666666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2901,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2915,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C68" t="n">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D68" t="n">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E68" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F68" t="n">
-        <v>1215</v>
+        <v>1234</v>
       </c>
       <c r="G68" t="n">
-        <v>942.4</v>
+        <v>942.5166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2940,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2957,19 +2781,19 @@
         <v>940</v>
       </c>
       <c r="C69" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D69" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E69" t="n">
         <v>940</v>
       </c>
       <c r="F69" t="n">
-        <v>26.4699</v>
+        <v>1215</v>
       </c>
       <c r="G69" t="n">
-        <v>942.2666666666667</v>
+        <v>942.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2979,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2993,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C70" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D70" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E70" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F70" t="n">
-        <v>495</v>
+        <v>26.4699</v>
       </c>
       <c r="G70" t="n">
-        <v>942.15</v>
+        <v>942.2666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3018,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3044,10 +2860,10 @@
         <v>939</v>
       </c>
       <c r="F71" t="n">
-        <v>1345.0751</v>
+        <v>495</v>
       </c>
       <c r="G71" t="n">
-        <v>942.0166666666667</v>
+        <v>942.15</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3057,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3077,16 +2889,16 @@
         <v>939</v>
       </c>
       <c r="D72" t="n">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="E72" t="n">
         <v>939</v>
       </c>
       <c r="F72" t="n">
-        <v>3898.5809</v>
+        <v>1345.0751</v>
       </c>
       <c r="G72" t="n">
-        <v>941.9</v>
+        <v>942.0166666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3096,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3113,7 +2921,7 @@
         <v>939</v>
       </c>
       <c r="C73" t="n">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="D73" t="n">
         <v>945</v>
@@ -3122,10 +2930,10 @@
         <v>939</v>
       </c>
       <c r="F73" t="n">
-        <v>2681.529</v>
+        <v>3898.5809</v>
       </c>
       <c r="G73" t="n">
-        <v>941.8833333333333</v>
+        <v>941.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3135,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3149,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C74" t="n">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="D74" t="n">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="E74" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F74" t="n">
-        <v>438.468</v>
+        <v>2681.529</v>
       </c>
       <c r="G74" t="n">
-        <v>941.7833333333333</v>
+        <v>941.8833333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3174,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3200,10 +3000,10 @@
         <v>940</v>
       </c>
       <c r="F75" t="n">
-        <v>554.4104</v>
+        <v>438.468</v>
       </c>
       <c r="G75" t="n">
-        <v>941.6833333333333</v>
+        <v>941.7833333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3213,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3239,10 +3035,10 @@
         <v>940</v>
       </c>
       <c r="F76" t="n">
-        <v>3140</v>
+        <v>554.4104</v>
       </c>
       <c r="G76" t="n">
-        <v>941.5833333333334</v>
+        <v>941.6833333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3252,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3266,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C77" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D77" t="n">
         <v>940</v>
       </c>
       <c r="E77" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F77" t="n">
-        <v>2076</v>
+        <v>3140</v>
       </c>
       <c r="G77" t="n">
-        <v>941.4833333333333</v>
+        <v>941.5833333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3291,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3308,19 +3096,19 @@
         <v>939</v>
       </c>
       <c r="C78" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D78" t="n">
         <v>940</v>
       </c>
       <c r="E78" t="n">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F78" t="n">
-        <v>1998.3805</v>
+        <v>2076</v>
       </c>
       <c r="G78" t="n">
-        <v>941.4166666666666</v>
+        <v>941.4833333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3330,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3344,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C79" t="n">
         <v>940</v>
       </c>
       <c r="D79" t="n">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E79" t="n">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F79" t="n">
-        <v>433.1234</v>
+        <v>1998.3805</v>
       </c>
       <c r="G79" t="n">
-        <v>941.3666666666667</v>
+        <v>941.4166666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3369,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3383,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C80" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D80" t="n">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E80" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F80" t="n">
-        <v>247.9454</v>
+        <v>433.1234</v>
       </c>
       <c r="G80" t="n">
-        <v>941.3333333333334</v>
+        <v>941.3666666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3408,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3422,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C81" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D81" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E81" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="F81" t="n">
-        <v>45.2427</v>
+        <v>247.9454</v>
       </c>
       <c r="G81" t="n">
-        <v>941.2666666666667</v>
+        <v>941.3333333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3447,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3467,16 +3239,16 @@
         <v>940</v>
       </c>
       <c r="D82" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E82" t="n">
         <v>940</v>
       </c>
       <c r="F82" t="n">
-        <v>2040.2836</v>
+        <v>45.2427</v>
       </c>
       <c r="G82" t="n">
-        <v>941.2166666666667</v>
+        <v>941.2666666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3486,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3506,16 +3274,16 @@
         <v>940</v>
       </c>
       <c r="D83" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E83" t="n">
         <v>940</v>
       </c>
       <c r="F83" t="n">
-        <v>144.3726</v>
+        <v>2040.2836</v>
       </c>
       <c r="G83" t="n">
-        <v>941.1833333333333</v>
+        <v>941.2166666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3525,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3551,10 +3315,10 @@
         <v>940</v>
       </c>
       <c r="F84" t="n">
-        <v>100</v>
+        <v>144.3726</v>
       </c>
       <c r="G84" t="n">
-        <v>941.1333333333333</v>
+        <v>941.1833333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3564,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3590,10 +3350,10 @@
         <v>940</v>
       </c>
       <c r="F85" t="n">
-        <v>237.402</v>
+        <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>941.0666666666667</v>
+        <v>941.1333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3603,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3629,10 +3385,10 @@
         <v>940</v>
       </c>
       <c r="F86" t="n">
-        <v>90.0119</v>
+        <v>237.402</v>
       </c>
       <c r="G86" t="n">
-        <v>941</v>
+        <v>941.0666666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3642,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3668,10 +3420,10 @@
         <v>940</v>
       </c>
       <c r="F87" t="n">
-        <v>319.1489</v>
+        <v>90.0119</v>
       </c>
       <c r="G87" t="n">
-        <v>940.9666666666667</v>
+        <v>941</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3681,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3707,10 +3455,10 @@
         <v>940</v>
       </c>
       <c r="F88" t="n">
-        <v>1079.083</v>
+        <v>319.1489</v>
       </c>
       <c r="G88" t="n">
-        <v>940.9</v>
+        <v>940.9666666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3720,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3746,10 +3490,10 @@
         <v>940</v>
       </c>
       <c r="F89" t="n">
-        <v>125.7199</v>
+        <v>1079.083</v>
       </c>
       <c r="G89" t="n">
-        <v>940.7833333333333</v>
+        <v>940.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3759,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3785,10 +3525,10 @@
         <v>940</v>
       </c>
       <c r="F90" t="n">
-        <v>1756.9999</v>
+        <v>125.7199</v>
       </c>
       <c r="G90" t="n">
-        <v>940.7</v>
+        <v>940.7833333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3798,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3824,10 +3560,10 @@
         <v>940</v>
       </c>
       <c r="F91" t="n">
-        <v>277.23</v>
+        <v>1756.9999</v>
       </c>
       <c r="G91" t="n">
-        <v>940.6166666666667</v>
+        <v>940.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3837,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3863,10 +3595,10 @@
         <v>940</v>
       </c>
       <c r="F92" t="n">
-        <v>56.3062</v>
+        <v>277.23</v>
       </c>
       <c r="G92" t="n">
-        <v>940.5333333333333</v>
+        <v>940.6166666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3876,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3902,10 +3630,10 @@
         <v>940</v>
       </c>
       <c r="F93" t="n">
-        <v>267.1998</v>
+        <v>56.3062</v>
       </c>
       <c r="G93" t="n">
-        <v>940.4666666666667</v>
+        <v>940.5333333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3915,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3929,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C94" t="n">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="D94" t="n">
         <v>940</v>
       </c>
       <c r="E94" t="n">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="F94" t="n">
-        <v>4337.8116</v>
+        <v>267.1998</v>
       </c>
       <c r="G94" t="n">
-        <v>940.3166666666667</v>
+        <v>940.4666666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3954,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3968,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>939</v>
+      </c>
+      <c r="C95" t="n">
         <v>937</v>
       </c>
-      <c r="C95" t="n">
-        <v>938</v>
-      </c>
       <c r="D95" t="n">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="E95" t="n">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F95" t="n">
-        <v>540.0236</v>
+        <v>4337.8116</v>
       </c>
       <c r="G95" t="n">
-        <v>940.2166666666667</v>
+        <v>940.3166666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3993,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4007,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C96" t="n">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="D96" t="n">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="E96" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F96" t="n">
-        <v>436.5834</v>
+        <v>540.0236</v>
       </c>
       <c r="G96" t="n">
-        <v>940.0833333333334</v>
+        <v>940.2166666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4032,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4058,10 +3770,10 @@
         <v>936</v>
       </c>
       <c r="F97" t="n">
-        <v>210.31</v>
+        <v>436.5834</v>
       </c>
       <c r="G97" t="n">
-        <v>939.95</v>
+        <v>940.0833333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4071,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4097,10 +3805,10 @@
         <v>936</v>
       </c>
       <c r="F98" t="n">
-        <v>516.7092</v>
+        <v>210.31</v>
       </c>
       <c r="G98" t="n">
-        <v>939.8166666666667</v>
+        <v>939.95</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4110,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4124,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C99" t="n">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D99" t="n">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E99" t="n">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="F99" t="n">
-        <v>904.1319999999999</v>
+        <v>516.7092</v>
       </c>
       <c r="G99" t="n">
-        <v>939.7166666666667</v>
+        <v>939.8166666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4149,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4166,19 +3866,19 @@
         <v>934</v>
       </c>
       <c r="C100" t="n">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D100" t="n">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="E100" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F100" t="n">
-        <v>2212.2013</v>
+        <v>904.1319999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>939.55</v>
+        <v>939.7166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4188,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4202,34 +3898,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C101" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D101" t="n">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E101" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F101" t="n">
-        <v>2184.7996</v>
+        <v>2212.2013</v>
       </c>
       <c r="G101" t="n">
-        <v>939.3833333333333</v>
+        <v>939.55</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>935</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M101" t="n">
@@ -4241,30 +3939,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C102" t="n">
         <v>931</v>
       </c>
       <c r="D102" t="n">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E102" t="n">
         <v>931</v>
       </c>
       <c r="F102" t="n">
-        <v>225</v>
+        <v>2184.7996</v>
       </c>
       <c r="G102" t="n">
-        <v>939.25</v>
+        <v>939.3833333333333</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>932</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4280,22 +3980,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C103" t="n">
         <v>931</v>
       </c>
       <c r="D103" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E103" t="n">
         <v>931</v>
       </c>
       <c r="F103" t="n">
-        <v>803.753</v>
+        <v>225</v>
       </c>
       <c r="G103" t="n">
-        <v>939.1166666666667</v>
+        <v>939.25</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4319,30 +4019,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C104" t="n">
         <v>931</v>
       </c>
       <c r="D104" t="n">
+        <v>932</v>
+      </c>
+      <c r="E104" t="n">
         <v>931</v>
       </c>
-      <c r="E104" t="n">
-        <v>930</v>
-      </c>
       <c r="F104" t="n">
-        <v>1398.4384</v>
+        <v>803.753</v>
       </c>
       <c r="G104" t="n">
-        <v>939</v>
+        <v>939.1166666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>931</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
@@ -4361,7 +4063,7 @@
         <v>930</v>
       </c>
       <c r="C105" t="n">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D105" t="n">
         <v>931</v>
@@ -4370,20 +4072,18 @@
         <v>930</v>
       </c>
       <c r="F105" t="n">
-        <v>3837.1285</v>
+        <v>1398.4384</v>
       </c>
       <c r="G105" t="n">
-        <v>938.8833333333333</v>
+        <v>939</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>931</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
@@ -4405,16 +4105,16 @@
         <v>930</v>
       </c>
       <c r="D106" t="n">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="E106" t="n">
         <v>930</v>
       </c>
       <c r="F106" t="n">
-        <v>2545</v>
+        <v>3837.1285</v>
       </c>
       <c r="G106" t="n">
-        <v>938.7833333333333</v>
+        <v>938.8833333333333</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -4423,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
@@ -4443,7 +4143,7 @@
         <v>930</v>
       </c>
       <c r="C107" t="n">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="D107" t="n">
         <v>936</v>
@@ -4452,10 +4152,10 @@
         <v>930</v>
       </c>
       <c r="F107" t="n">
-        <v>2365</v>
+        <v>2545</v>
       </c>
       <c r="G107" t="n">
-        <v>938.65</v>
+        <v>938.7833333333333</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -4481,32 +4181,30 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C108" t="n">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="D108" t="n">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E108" t="n">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F108" t="n">
-        <v>3475</v>
+        <v>2365</v>
       </c>
       <c r="G108" t="n">
-        <v>938.45</v>
+        <v>938.65</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>936</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
@@ -4522,30 +4220,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C109" t="n">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="D109" t="n">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E109" t="n">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F109" t="n">
-        <v>3750</v>
+        <v>3475</v>
       </c>
       <c r="G109" t="n">
-        <v>938.4166666666666</v>
+        <v>938.45</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>936</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -4561,22 +4261,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C110" t="n">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="D110" t="n">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="E110" t="n">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="F110" t="n">
-        <v>960.447</v>
+        <v>3750</v>
       </c>
       <c r="G110" t="n">
-        <v>938.3166666666667</v>
+        <v>938.4166666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4600,22 +4300,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>935</v>
+      </c>
+      <c r="C111" t="n">
         <v>934</v>
-      </c>
-      <c r="C111" t="n">
-        <v>933</v>
       </c>
       <c r="D111" t="n">
         <v>935</v>
       </c>
       <c r="E111" t="n">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F111" t="n">
-        <v>238.69</v>
+        <v>960.447</v>
       </c>
       <c r="G111" t="n">
-        <v>938.1833333333333</v>
+        <v>938.3166666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4639,22 +4339,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C112" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D112" t="n">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="E112" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F112" t="n">
-        <v>486</v>
+        <v>238.69</v>
       </c>
       <c r="G112" t="n">
-        <v>938.0333333333333</v>
+        <v>938.1833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4690,10 +4390,10 @@
         <v>932</v>
       </c>
       <c r="F113" t="n">
-        <v>1459</v>
+        <v>486</v>
       </c>
       <c r="G113" t="n">
-        <v>937.8833333333333</v>
+        <v>938.0333333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4720,19 +4420,19 @@
         <v>932</v>
       </c>
       <c r="C114" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D114" t="n">
         <v>932</v>
       </c>
       <c r="E114" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F114" t="n">
-        <v>2317.2011</v>
+        <v>1459</v>
       </c>
       <c r="G114" t="n">
-        <v>937.7166666666667</v>
+        <v>937.8833333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4756,22 +4456,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>932</v>
+      </c>
+      <c r="C115" t="n">
         <v>931</v>
       </c>
-      <c r="C115" t="n">
-        <v>933</v>
-      </c>
       <c r="D115" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E115" t="n">
         <v>931</v>
       </c>
       <c r="F115" t="n">
-        <v>1587.2482</v>
+        <v>2317.2011</v>
       </c>
       <c r="G115" t="n">
-        <v>937.5833333333334</v>
+        <v>937.7166666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4795,7 +4495,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C116" t="n">
         <v>933</v>
@@ -4804,13 +4504,13 @@
         <v>933</v>
       </c>
       <c r="E116" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F116" t="n">
-        <v>1903.8974</v>
+        <v>1587.2482</v>
       </c>
       <c r="G116" t="n">
-        <v>937.45</v>
+        <v>937.5833333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4834,22 +4534,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>932</v>
+      </c>
+      <c r="C117" t="n">
         <v>933</v>
       </c>
-      <c r="C117" t="n">
-        <v>934</v>
-      </c>
       <c r="D117" t="n">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E117" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F117" t="n">
-        <v>1042.5606</v>
+        <v>1903.8974</v>
       </c>
       <c r="G117" t="n">
-        <v>937.3333333333334</v>
+        <v>937.45</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4876,7 +4576,7 @@
         <v>933</v>
       </c>
       <c r="C118" t="n">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D118" t="n">
         <v>934</v>
@@ -4885,20 +4585,18 @@
         <v>933</v>
       </c>
       <c r="F118" t="n">
-        <v>1822.3776</v>
+        <v>1042.5606</v>
       </c>
       <c r="G118" t="n">
-        <v>937.2833333333333</v>
+        <v>937.3333333333334</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>934</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
@@ -4914,22 +4612,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C119" t="n">
         <v>933</v>
       </c>
       <c r="D119" t="n">
+        <v>934</v>
+      </c>
+      <c r="E119" t="n">
         <v>933</v>
       </c>
-      <c r="E119" t="n">
-        <v>932</v>
-      </c>
       <c r="F119" t="n">
-        <v>2400</v>
+        <v>1822.3776</v>
       </c>
       <c r="G119" t="n">
-        <v>937.15</v>
+        <v>937.2833333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4956,19 +4654,19 @@
         <v>932</v>
       </c>
       <c r="C120" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D120" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E120" t="n">
         <v>932</v>
       </c>
       <c r="F120" t="n">
-        <v>379.8276</v>
+        <v>2400</v>
       </c>
       <c r="G120" t="n">
-        <v>937</v>
+        <v>937.15</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5004,10 +4702,10 @@
         <v>932</v>
       </c>
       <c r="F121" t="n">
-        <v>319.9561</v>
+        <v>379.8276</v>
       </c>
       <c r="G121" t="n">
-        <v>936.9</v>
+        <v>937</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5040,13 +4738,13 @@
         <v>932</v>
       </c>
       <c r="E122" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F122" t="n">
-        <v>1001.862</v>
+        <v>319.9561</v>
       </c>
       <c r="G122" t="n">
-        <v>936.7833333333333</v>
+        <v>936.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5073,19 +4771,19 @@
         <v>932</v>
       </c>
       <c r="C123" t="n">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D123" t="n">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E123" t="n">
         <v>931</v>
       </c>
       <c r="F123" t="n">
-        <v>3243.4844</v>
+        <v>1001.862</v>
       </c>
       <c r="G123" t="n">
-        <v>936.7333333333333</v>
+        <v>936.7833333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5109,22 +4807,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C124" t="n">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="D124" t="n">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="E124" t="n">
         <v>931</v>
       </c>
       <c r="F124" t="n">
-        <v>1283.6936</v>
+        <v>3243.4844</v>
       </c>
       <c r="G124" t="n">
-        <v>936.6166666666667</v>
+        <v>936.7333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5148,22 +4846,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C125" t="n">
         <v>932</v>
       </c>
       <c r="D125" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E125" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F125" t="n">
-        <v>1728.6874</v>
+        <v>1283.6936</v>
       </c>
       <c r="G125" t="n">
-        <v>936.4333333333333</v>
+        <v>936.6166666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5193,16 +4891,16 @@
         <v>932</v>
       </c>
       <c r="D126" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E126" t="n">
         <v>932</v>
       </c>
       <c r="F126" t="n">
-        <v>1993.2903</v>
+        <v>1728.6874</v>
       </c>
       <c r="G126" t="n">
-        <v>936.2833333333333</v>
+        <v>936.4333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5229,19 +4927,19 @@
         <v>932</v>
       </c>
       <c r="C127" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D127" t="n">
         <v>933</v>
       </c>
       <c r="E127" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F127" t="n">
-        <v>2935.3297</v>
+        <v>1993.2903</v>
       </c>
       <c r="G127" t="n">
-        <v>936.15</v>
+        <v>936.2833333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5268,19 +4966,19 @@
         <v>932</v>
       </c>
       <c r="C128" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D128" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E128" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F128" t="n">
-        <v>1410.956</v>
+        <v>2935.3297</v>
       </c>
       <c r="G128" t="n">
-        <v>936</v>
+        <v>936.15</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5316,10 +5014,10 @@
         <v>932</v>
       </c>
       <c r="F129" t="n">
-        <v>761.1022</v>
+        <v>1410.956</v>
       </c>
       <c r="G129" t="n">
-        <v>935.8666666666667</v>
+        <v>936</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5355,10 +5053,10 @@
         <v>932</v>
       </c>
       <c r="F130" t="n">
-        <v>1900</v>
+        <v>761.1022</v>
       </c>
       <c r="G130" t="n">
-        <v>935.75</v>
+        <v>935.8666666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5394,10 +5092,10 @@
         <v>932</v>
       </c>
       <c r="F131" t="n">
-        <v>812.6093</v>
+        <v>1900</v>
       </c>
       <c r="G131" t="n">
-        <v>935.6333333333333</v>
+        <v>935.75</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5421,22 +5119,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C132" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D132" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E132" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F132" t="n">
-        <v>235.608</v>
+        <v>812.6093</v>
       </c>
       <c r="G132" t="n">
-        <v>935.5</v>
+        <v>935.6333333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5460,22 +5158,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C133" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D133" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E133" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F133" t="n">
-        <v>180</v>
+        <v>235.608</v>
       </c>
       <c r="G133" t="n">
-        <v>935.2833333333333</v>
+        <v>935.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5505,16 +5203,16 @@
         <v>932</v>
       </c>
       <c r="D134" t="n">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="E134" t="n">
         <v>932</v>
       </c>
       <c r="F134" t="n">
-        <v>3178.9453</v>
+        <v>180</v>
       </c>
       <c r="G134" t="n">
-        <v>935.15</v>
+        <v>935.2833333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5544,16 +5242,16 @@
         <v>932</v>
       </c>
       <c r="D135" t="n">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="E135" t="n">
         <v>932</v>
       </c>
       <c r="F135" t="n">
-        <v>831</v>
+        <v>3178.9453</v>
       </c>
       <c r="G135" t="n">
-        <v>935.0166666666667</v>
+        <v>935.15</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5577,22 +5275,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C136" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D136" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E136" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F136" t="n">
-        <v>6.7451</v>
+        <v>831</v>
       </c>
       <c r="G136" t="n">
-        <v>934.9</v>
+        <v>935.0166666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5628,10 +5326,10 @@
         <v>933</v>
       </c>
       <c r="F137" t="n">
-        <v>27.585</v>
+        <v>6.7451</v>
       </c>
       <c r="G137" t="n">
-        <v>934.8</v>
+        <v>934.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5667,10 +5365,10 @@
         <v>933</v>
       </c>
       <c r="F138" t="n">
-        <v>201.2158</v>
+        <v>27.585</v>
       </c>
       <c r="G138" t="n">
-        <v>934.6833333333333</v>
+        <v>934.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5694,22 +5392,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C139" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D139" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E139" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F139" t="n">
-        <v>589</v>
+        <v>201.2158</v>
       </c>
       <c r="G139" t="n">
-        <v>934.55</v>
+        <v>934.6833333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5745,10 +5443,10 @@
         <v>932</v>
       </c>
       <c r="F140" t="n">
-        <v>794.7227</v>
+        <v>589</v>
       </c>
       <c r="G140" t="n">
-        <v>934.4</v>
+        <v>934.55</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5784,10 +5482,10 @@
         <v>932</v>
       </c>
       <c r="F141" t="n">
-        <v>693.2936999999999</v>
+        <v>794.7227</v>
       </c>
       <c r="G141" t="n">
-        <v>934.2666666666667</v>
+        <v>934.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5823,10 +5521,10 @@
         <v>932</v>
       </c>
       <c r="F142" t="n">
-        <v>123.3325</v>
+        <v>693.2936999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>934.1333333333333</v>
+        <v>934.2666666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5862,10 +5560,10 @@
         <v>932</v>
       </c>
       <c r="F143" t="n">
-        <v>773.2462</v>
+        <v>123.3325</v>
       </c>
       <c r="G143" t="n">
-        <v>934</v>
+        <v>934.1333333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5901,10 +5599,10 @@
         <v>932</v>
       </c>
       <c r="F144" t="n">
-        <v>471.1934</v>
+        <v>773.2462</v>
       </c>
       <c r="G144" t="n">
-        <v>933.8666666666667</v>
+        <v>934</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5940,10 +5638,10 @@
         <v>932</v>
       </c>
       <c r="F145" t="n">
-        <v>280.0636</v>
+        <v>471.1934</v>
       </c>
       <c r="G145" t="n">
-        <v>933.7333333333333</v>
+        <v>933.8666666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5979,10 +5677,10 @@
         <v>932</v>
       </c>
       <c r="F146" t="n">
-        <v>790.0544</v>
+        <v>280.0636</v>
       </c>
       <c r="G146" t="n">
-        <v>933.6</v>
+        <v>933.7333333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6018,10 +5716,10 @@
         <v>932</v>
       </c>
       <c r="F147" t="n">
-        <v>80.4678</v>
+        <v>790.0544</v>
       </c>
       <c r="G147" t="n">
-        <v>933.4666666666667</v>
+        <v>933.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6048,19 +5746,19 @@
         <v>932</v>
       </c>
       <c r="C148" t="n">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D148" t="n">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E148" t="n">
         <v>932</v>
       </c>
       <c r="F148" t="n">
-        <v>3866.298</v>
+        <v>80.4678</v>
       </c>
       <c r="G148" t="n">
-        <v>933.3833333333333</v>
+        <v>933.4666666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6087,19 +5785,19 @@
         <v>932</v>
       </c>
       <c r="C149" t="n">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D149" t="n">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="E149" t="n">
         <v>932</v>
       </c>
       <c r="F149" t="n">
-        <v>533.0182</v>
+        <v>3866.298</v>
       </c>
       <c r="G149" t="n">
-        <v>933.25</v>
+        <v>933.3833333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6135,10 +5833,10 @@
         <v>932</v>
       </c>
       <c r="F150" t="n">
-        <v>582</v>
+        <v>533.0182</v>
       </c>
       <c r="G150" t="n">
-        <v>933.1166666666667</v>
+        <v>933.25</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6165,19 +5863,19 @@
         <v>932</v>
       </c>
       <c r="C151" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D151" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E151" t="n">
         <v>932</v>
       </c>
       <c r="F151" t="n">
-        <v>1049.0706</v>
+        <v>582</v>
       </c>
       <c r="G151" t="n">
-        <v>933</v>
+        <v>933.1166666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6204,19 +5902,19 @@
         <v>932</v>
       </c>
       <c r="C152" t="n">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D152" t="n">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E152" t="n">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="F152" t="n">
-        <v>6931.9543</v>
+        <v>1049.0706</v>
       </c>
       <c r="G152" t="n">
-        <v>932.9166666666666</v>
+        <v>933</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6240,22 +5938,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C153" t="n">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D153" t="n">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="E153" t="n">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F153" t="n">
-        <v>1244</v>
+        <v>6931.9543</v>
       </c>
       <c r="G153" t="n">
-        <v>932.7833333333333</v>
+        <v>932.9166666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6279,22 +5977,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C154" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D154" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E154" t="n">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F154" t="n">
-        <v>200</v>
+        <v>1244</v>
       </c>
       <c r="G154" t="n">
-        <v>932.7166666666667</v>
+        <v>932.7833333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6321,66 +6019,72 @@
         <v>933</v>
       </c>
       <c r="C155" t="n">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D155" t="n">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E155" t="n">
         <v>933</v>
       </c>
       <c r="F155" t="n">
-        <v>570</v>
+        <v>200</v>
       </c>
       <c r="G155" t="n">
-        <v>932.65</v>
+        <v>932.7166666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>933</v>
+      </c>
+      <c r="C156" t="n">
         <v>934</v>
       </c>
-      <c r="C156" t="n">
-        <v>939</v>
-      </c>
       <c r="D156" t="n">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="E156" t="n">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F156" t="n">
-        <v>655</v>
+        <v>570</v>
       </c>
       <c r="G156" t="n">
-        <v>932.7</v>
+        <v>932.65</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6390,7 +6094,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="C157" t="n">
         <v>939</v>
@@ -6399,13 +6103,13 @@
         <v>939</v>
       </c>
       <c r="E157" t="n">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="F157" t="n">
-        <v>2603</v>
+        <v>655</v>
       </c>
       <c r="G157" t="n">
-        <v>932.75</v>
+        <v>932.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6415,7 +6119,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6428,29 +6136,33 @@
         <v>938</v>
       </c>
       <c r="C158" t="n">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D158" t="n">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E158" t="n">
         <v>938</v>
       </c>
       <c r="F158" t="n">
-        <v>20</v>
+        <v>2603</v>
       </c>
       <c r="G158" t="n">
-        <v>932.7833333333333</v>
+        <v>932.75</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6472,10 +6184,10 @@
         <v>938</v>
       </c>
       <c r="F159" t="n">
-        <v>360.7909</v>
+        <v>20</v>
       </c>
       <c r="G159" t="n">
-        <v>932.8333333333334</v>
+        <v>932.7833333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6485,7 +6197,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6495,32 +6211,36 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C160" t="n">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D160" t="n">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E160" t="n">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>360.7909</v>
       </c>
       <c r="G160" t="n">
-        <v>932.9666666666667</v>
+        <v>932.8333333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6530,22 +6250,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C161" t="n">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="D161" t="n">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="E161" t="n">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="F161" t="n">
-        <v>44.2108</v>
+        <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>933.0833333333334</v>
+        <v>932.9666666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6555,7 +6275,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6565,22 +6289,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C162" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D162" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E162" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F162" t="n">
-        <v>1411.0732</v>
+        <v>44.2108</v>
       </c>
       <c r="G162" t="n">
-        <v>933.1833333333333</v>
+        <v>933.0833333333334</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6590,7 +6314,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6600,22 +6328,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C163" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D163" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E163" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F163" t="n">
-        <v>2116.6098</v>
+        <v>1411.0732</v>
       </c>
       <c r="G163" t="n">
-        <v>933.2666666666667</v>
+        <v>933.1833333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6625,7 +6353,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6635,22 +6367,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C164" t="n">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D164" t="n">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E164" t="n">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F164" t="n">
-        <v>1674.838</v>
+        <v>2116.6098</v>
       </c>
       <c r="G164" t="n">
-        <v>933.4</v>
+        <v>933.2666666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6660,7 +6392,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6670,22 +6406,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C165" t="n">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D165" t="n">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E165" t="n">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F165" t="n">
-        <v>512.3115</v>
+        <v>1674.838</v>
       </c>
       <c r="G165" t="n">
-        <v>933.5333333333333</v>
+        <v>933.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6695,7 +6431,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6705,22 +6445,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C166" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D166" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E166" t="n">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F166" t="n">
-        <v>28.0206</v>
+        <v>512.3115</v>
       </c>
       <c r="G166" t="n">
-        <v>933.65</v>
+        <v>933.5333333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6730,7 +6470,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6740,22 +6484,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C167" t="n">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D167" t="n">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E167" t="n">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F167" t="n">
-        <v>130</v>
+        <v>28.0206</v>
       </c>
       <c r="G167" t="n">
-        <v>933.7166666666667</v>
+        <v>933.65</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6765,7 +6509,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6775,22 +6523,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C168" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D168" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E168" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F168" t="n">
-        <v>315.95</v>
+        <v>130</v>
       </c>
       <c r="G168" t="n">
-        <v>933.85</v>
+        <v>933.7166666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6800,7 +6548,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6810,22 +6562,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C169" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D169" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E169" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F169" t="n">
-        <v>99.468</v>
+        <v>315.95</v>
       </c>
       <c r="G169" t="n">
-        <v>933.8833333333333</v>
+        <v>933.85</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6835,7 +6587,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6857,10 +6613,10 @@
         <v>940</v>
       </c>
       <c r="F170" t="n">
-        <v>1731.99</v>
+        <v>99.468</v>
       </c>
       <c r="G170" t="n">
-        <v>933.9833333333333</v>
+        <v>933.8833333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6870,7 +6626,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6892,10 +6652,10 @@
         <v>940</v>
       </c>
       <c r="F171" t="n">
-        <v>425.6198</v>
+        <v>1731.99</v>
       </c>
       <c r="G171" t="n">
-        <v>934.1</v>
+        <v>933.9833333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6905,7 +6665,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6915,22 +6679,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C172" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D172" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E172" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F172" t="n">
-        <v>491.7363</v>
+        <v>425.6198</v>
       </c>
       <c r="G172" t="n">
-        <v>934.25</v>
+        <v>934.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6940,7 +6704,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6950,22 +6718,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C173" t="n">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D173" t="n">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E173" t="n">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F173" t="n">
-        <v>37.219</v>
+        <v>491.7363</v>
       </c>
       <c r="G173" t="n">
-        <v>934.4333333333333</v>
+        <v>934.25</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6975,7 +6743,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6985,22 +6757,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C174" t="n">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D174" t="n">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="E174" t="n">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="F174" t="n">
-        <v>725</v>
+        <v>37.219</v>
       </c>
       <c r="G174" t="n">
-        <v>934.7</v>
+        <v>934.4333333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7010,7 +6782,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7020,22 +6796,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="C175" t="n">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="D175" t="n">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E175" t="n">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F175" t="n">
-        <v>546.8457</v>
+        <v>725</v>
       </c>
       <c r="G175" t="n">
-        <v>934.9</v>
+        <v>934.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7045,7 +6821,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7055,22 +6835,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C176" t="n">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D176" t="n">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E176" t="n">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F176" t="n">
-        <v>176.258</v>
+        <v>546.8457</v>
       </c>
       <c r="G176" t="n">
-        <v>935.1333333333333</v>
+        <v>934.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7080,7 +6860,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7102,10 +6886,10 @@
         <v>947</v>
       </c>
       <c r="F177" t="n">
-        <v>201.6823</v>
+        <v>176.258</v>
       </c>
       <c r="G177" t="n">
-        <v>935.35</v>
+        <v>935.1333333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7115,7 +6899,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7137,10 +6925,10 @@
         <v>947</v>
       </c>
       <c r="F178" t="n">
-        <v>319.5078</v>
+        <v>201.6823</v>
       </c>
       <c r="G178" t="n">
-        <v>935.5833333333334</v>
+        <v>935.35</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7150,7 +6938,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7163,30 +6955,67 @@
         <v>947</v>
       </c>
       <c r="C179" t="n">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D179" t="n">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E179" t="n">
         <v>947</v>
       </c>
       <c r="F179" t="n">
-        <v>106.357</v>
+        <v>319.5078</v>
       </c>
       <c r="G179" t="n">
-        <v>935.8333333333334</v>
+        <v>935.5833333333334</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>947</v>
+      </c>
+      <c r="C180" t="n">
+        <v>948</v>
+      </c>
+      <c r="D180" t="n">
+        <v>948</v>
+      </c>
+      <c r="E180" t="n">
+        <v>947</v>
+      </c>
+      <c r="F180" t="n">
+        <v>106.357</v>
+      </c>
+      <c r="G180" t="n">
+        <v>935.8333333333334</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-19 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N248"/>
+  <dimension ref="A1:M248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>5746.4488</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>4246.4488</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>4246.4488</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>3652.3802</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>3657.880200000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>2061.210300000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>2061.210300000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>1838.227400000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>1838.227400000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>1233.428900000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>-593.5662999999995</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6288,18 +5797,21 @@
         <v>-17309.988</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5838,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5875,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5912,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5949,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5986,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +6023,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6060,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6097,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6134,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6171,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6208,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6245,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6282,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6319,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6828,18 +6354,21 @@
         <v>-18244.7225</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6395,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6432,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6469,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6506,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6543,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6580,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7080,18 +6615,21 @@
         <v>-19220.2614</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7116,18 +6654,21 @@
         <v>-17809.3054</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7152,18 +6693,21 @@
         <v>-17809.3054</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6734,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7224,22 +6769,21 @@
         <v>-17809.3054</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="n">
-        <v>932</v>
-      </c>
-      <c r="K190" t="n">
-        <v>932</v>
-      </c>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+        <v>932</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7264,26 +6808,19 @@
         <v>-18044.9134</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>932</v>
-      </c>
-      <c r="K191" t="n">
-        <v>932</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7308,26 +6845,21 @@
         <v>-17864.9134</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
         <v>931</v>
       </c>
-      <c r="K192" t="n">
-        <v>932</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7352,26 +6884,21 @@
         <v>-17864.9134</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>932</v>
-      </c>
-      <c r="K193" t="n">
-        <v>932</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+        <v>932</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7396,24 +6923,21 @@
         <v>-17864.9134</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>932</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7438,26 +6962,19 @@
         <v>-17858.1683</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>932</v>
-      </c>
-      <c r="K195" t="n">
-        <v>932</v>
-      </c>
-      <c r="L195" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7482,26 +6999,21 @@
         <v>-17858.1683</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
         <v>933</v>
       </c>
-      <c r="K196" t="n">
-        <v>932</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7528,22 +7040,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>932</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7568,24 +7075,21 @@
         <v>-18447.1683</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>932</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7610,26 +7114,21 @@
         <v>-18447.1683</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>932</v>
-      </c>
-      <c r="K199" t="n">
-        <v>932</v>
-      </c>
-      <c r="L199" t="inlineStr">
+        <v>932</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7654,24 +7153,21 @@
         <v>-18447.1683</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>932</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7696,26 +7192,21 @@
         <v>-18447.1683</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
-        <v>932</v>
-      </c>
-      <c r="K201" t="n">
-        <v>932</v>
-      </c>
-      <c r="L201" t="inlineStr">
+        <v>932</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7740,26 +7231,21 @@
         <v>-18447.1683</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
-        <v>932</v>
-      </c>
-      <c r="K202" t="n">
-        <v>932</v>
-      </c>
-      <c r="L202" t="inlineStr">
+        <v>932</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7784,26 +7270,19 @@
         <v>-18447.1683</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>932</v>
-      </c>
-      <c r="K203" t="n">
-        <v>932</v>
-      </c>
-      <c r="L203" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7828,26 +7307,21 @@
         <v>-18447.1683</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="n">
-        <v>932</v>
-      </c>
-      <c r="K204" t="n">
-        <v>932</v>
-      </c>
-      <c r="L204" t="inlineStr">
+        <v>932</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7872,26 +7346,19 @@
         <v>-18447.1683</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>932</v>
-      </c>
-      <c r="K205" t="n">
-        <v>932</v>
-      </c>
-      <c r="L205" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7916,26 +7383,21 @@
         <v>-18447.1683</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="n">
-        <v>932</v>
-      </c>
-      <c r="K206" t="n">
-        <v>932</v>
-      </c>
-      <c r="L206" t="inlineStr">
+        <v>932</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7960,26 +7422,21 @@
         <v>-14580.87030000001</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
-        <v>932</v>
-      </c>
-      <c r="K207" t="n">
-        <v>932</v>
-      </c>
-      <c r="L207" t="inlineStr">
+        <v>932</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8004,26 +7461,21 @@
         <v>-15113.88850000001</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
         <v>935</v>
       </c>
-      <c r="K208" t="n">
-        <v>932</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8048,26 +7500,21 @@
         <v>-15113.88850000001</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>932</v>
-      </c>
-      <c r="K209" t="n">
-        <v>932</v>
-      </c>
-      <c r="L209" t="inlineStr">
+        <v>932</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8092,26 +7539,21 @@
         <v>-14064.81790000001</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>932</v>
-      </c>
-      <c r="K210" t="n">
-        <v>932</v>
-      </c>
-      <c r="L210" t="inlineStr">
+        <v>932</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8136,26 +7578,21 @@
         <v>-7132.863600000005</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
         <v>933</v>
       </c>
-      <c r="K211" t="n">
-        <v>932</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8180,24 +7617,21 @@
         <v>-8376.863600000004</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>932</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8224,22 +7658,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>932</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8266,22 +7695,17 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>932</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8306,24 +7730,21 @@
         <v>-6951.863600000004</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>932</v>
-      </c>
-      <c r="L215" t="inlineStr">
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8350,22 +7771,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>932</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8392,22 +7808,17 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>932</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8434,22 +7845,17 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>932</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8476,22 +7882,17 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>932</v>
-      </c>
-      <c r="L219" t="inlineStr">
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8518,22 +7919,17 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>932</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8560,22 +7956,17 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>932</v>
-      </c>
-      <c r="L221" t="inlineStr">
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8600,24 +7991,21 @@
         <v>-10542.7574</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
+        <v>937</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>932</v>
-      </c>
-      <c r="L222" t="inlineStr">
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8644,22 +8032,17 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>932</v>
-      </c>
-      <c r="L223" t="inlineStr">
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8686,22 +8069,17 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>932</v>
-      </c>
-      <c r="L224" t="inlineStr">
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8728,22 +8106,17 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>932</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8770,22 +8143,17 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>932</v>
-      </c>
-      <c r="L226" t="inlineStr">
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8810,24 +8178,21 @@
         <v>-9594.201500000005</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>932</v>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8852,24 +8217,21 @@
         <v>-9494.733500000004</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>939</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>932</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8896,22 +8258,17 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>932</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8936,24 +8293,21 @@
         <v>-9494.733500000004</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>932</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8980,22 +8334,17 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>932</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9022,22 +8371,17 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>932</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9064,22 +8408,17 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>932</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9106,22 +8445,17 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>932</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9148,22 +8482,17 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>932</v>
-      </c>
-      <c r="L235" t="inlineStr">
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9190,22 +8519,17 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>932</v>
-      </c>
-      <c r="L236" t="inlineStr">
+      <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9232,22 +8556,17 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>932</v>
-      </c>
-      <c r="L237" t="inlineStr">
+      <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9274,22 +8593,17 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>932</v>
-      </c>
-      <c r="L238" t="inlineStr">
+      <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9316,22 +8630,17 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>932</v>
-      </c>
-      <c r="L239" t="inlineStr">
+      <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9358,22 +8667,17 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>932</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9400,22 +8704,17 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>932</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9442,22 +8741,17 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>932</v>
-      </c>
-      <c r="L242" t="inlineStr">
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9484,22 +8778,17 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>932</v>
-      </c>
-      <c r="L243" t="inlineStr">
+      <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9524,24 +8813,21 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>947</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>932</v>
-      </c>
-      <c r="L244" t="inlineStr">
+      <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9568,22 +8854,17 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>932</v>
-      </c>
-      <c r="L245" t="inlineStr">
+      <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9608,24 +8889,21 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>947</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>932</v>
-      </c>
-      <c r="L246" t="inlineStr">
+      <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9652,22 +8930,17 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>932</v>
-      </c>
-      <c r="L247" t="inlineStr">
+      <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9692,26 +8965,23 @@
         <v>-8673.019800000004</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>947</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>932</v>
-      </c>
-      <c r="L248" t="inlineStr">
+      <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-19 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>5746.4488</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>4966.4488</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>4966.4488</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>4246.4488</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>4246.4488</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>3652.3802</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>4100.733200000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>3657.880200000001</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2061.210300000001</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2061.210300000001</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1838.227400000001</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1838.227400000001</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1960.649200000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1960.649200000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1468.535800000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1468.535800000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1402.789600000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1233.428900000001</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-593.5662999999995</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1756.7905</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-3584.595299999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-3584.595299999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3584.595299999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-3584.595299999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-3784.595299999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-3784.595299999999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-3784.595299999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-3784.595299999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-3972.8611</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-3972.8611</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-3972.8611</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-3972.8611</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-17309.988</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>931</v>
@@ -5873,9 +5873,11 @@
         <v>-14944.988</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>930</v>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -5910,9 +5912,11 @@
         <v>-18419.988</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>936</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -5947,9 +5951,11 @@
         <v>-14669.988</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>931</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6021,9 +6027,11 @@
         <v>-15869.125</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>934</v>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6058,9 +6066,11 @@
         <v>-16355.125</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>933</v>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6095,9 +6105,11 @@
         <v>-16355.125</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>932</v>
+      </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6132,9 +6144,11 @@
         <v>-18672.3261</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>932</v>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6169,9 +6183,11 @@
         <v>-17085.0779</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>931</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6206,9 +6222,11 @@
         <v>-17085.0779</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>933</v>
+      </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6243,9 +6261,11 @@
         <v>-16042.5173</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>933</v>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6280,9 +6300,11 @@
         <v>-17864.8949</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>934</v>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6317,9 +6339,11 @@
         <v>-17864.8949</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>933</v>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -6354,7 +6378,7 @@
         <v>-18244.7225</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>933</v>
@@ -6393,9 +6417,11 @@
         <v>-18244.7225</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>932</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6430,9 +6456,11 @@
         <v>-18244.7225</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>932</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6467,9 +6495,11 @@
         <v>-15001.2381</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>932</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -6541,9 +6571,11 @@
         <v>-16284.9317</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>932</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -6615,7 +6647,7 @@
         <v>-19220.2614</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>932</v>
@@ -6654,7 +6686,7 @@
         <v>-17809.3054</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>931</v>
@@ -6693,7 +6725,7 @@
         <v>-17809.3054</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>932</v>
@@ -6732,9 +6764,11 @@
         <v>-17809.3054</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>932</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -6769,7 +6803,7 @@
         <v>-17809.3054</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>932</v>
@@ -6808,9 +6842,11 @@
         <v>-18044.9134</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>932</v>
+      </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -6845,7 +6881,7 @@
         <v>-17864.9134</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>931</v>
@@ -6884,7 +6920,7 @@
         <v>-17864.9134</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>932</v>
@@ -6923,11 +6959,9 @@
         <v>-17864.9134</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -6999,11 +7033,9 @@
         <v>-17858.1683</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>933</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7038,9 +7070,11 @@
         <v>-17858.1683</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>933</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7075,7 +7109,7 @@
         <v>-18447.1683</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>933</v>
@@ -7114,7 +7148,7 @@
         <v>-18447.1683</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>932</v>
@@ -7153,7 +7187,7 @@
         <v>-18447.1683</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>932</v>
@@ -7192,7 +7226,7 @@
         <v>-18447.1683</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>932</v>
@@ -7231,7 +7265,7 @@
         <v>-18447.1683</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>932</v>
@@ -7270,9 +7304,11 @@
         <v>-18447.1683</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>932</v>
+      </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
@@ -7307,7 +7343,7 @@
         <v>-18447.1683</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>932</v>
@@ -7346,9 +7382,11 @@
         <v>-18447.1683</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>932</v>
+      </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -7383,11 +7421,9 @@
         <v>-18447.1683</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -7422,7 +7458,7 @@
         <v>-14580.87030000001</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>932</v>
@@ -7461,11 +7497,9 @@
         <v>-15113.88850000001</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -7500,11 +7534,9 @@
         <v>-15113.88850000001</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -7539,11 +7571,9 @@
         <v>-14064.81790000001</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -7578,11 +7608,9 @@
         <v>-7132.863600000005</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>933</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -7617,11 +7645,9 @@
         <v>-8376.863600000004</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -7730,11 +7756,9 @@
         <v>-6951.863600000004</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>934</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -7991,11 +8015,9 @@
         <v>-10542.7574</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -8178,11 +8200,9 @@
         <v>-9594.201500000005</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -8217,11 +8237,9 @@
         <v>-9494.733500000004</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -8293,11 +8311,9 @@
         <v>-9494.733500000004</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -8813,11 +8829,9 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -8889,11 +8903,9 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -8965,11 +8977,9 @@
         <v>-8673.019800000004</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -8982,6 +8992,6 @@
       <c r="M248" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-19 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>5746.4488</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>4966.4488</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>4966.4488</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>4100.733200000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>3657.880200000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2061.210300000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2061.210300000001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1838.227400000001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1838.227400000001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1960.649200000001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1960.649200000001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1468.535800000001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1468.535800000001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1402.789600000001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1233.428900000001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-593.5662999999995</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1756.7905</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-3584.595299999999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-3584.595299999999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3584.595299999999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-3584.595299999999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-3784.595299999999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-3784.595299999999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-3784.595299999999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-3784.595299999999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-3972.8611</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-3972.8611</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-3972.8611</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-3972.8611</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -5797,1678 +5797,1450 @@
         <v>-17309.988</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>930</v>
+      </c>
+      <c r="C165" t="n">
+        <v>930</v>
+      </c>
+      <c r="D165" t="n">
+        <v>936</v>
+      </c>
+      <c r="E165" t="n">
+        <v>930</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2545</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-17309.988</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>930</v>
+      </c>
+      <c r="C166" t="n">
+        <v>936</v>
+      </c>
+      <c r="D166" t="n">
+        <v>936</v>
+      </c>
+      <c r="E166" t="n">
+        <v>930</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2365</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-14944.988</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
         <v>931</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
+      <c r="C167" t="n">
+        <v>931</v>
+      </c>
+      <c r="D167" t="n">
+        <v>935</v>
+      </c>
+      <c r="E167" t="n">
+        <v>931</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3475</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-18419.988</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>930</v>
+      </c>
+      <c r="C168" t="n">
+        <v>938</v>
+      </c>
+      <c r="D168" t="n">
+        <v>938</v>
+      </c>
+      <c r="E168" t="n">
+        <v>930</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3750</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-14669.988</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>935</v>
+      </c>
+      <c r="C169" t="n">
+        <v>934</v>
+      </c>
+      <c r="D169" t="n">
+        <v>935</v>
+      </c>
+      <c r="E169" t="n">
+        <v>934</v>
+      </c>
+      <c r="F169" t="n">
+        <v>960.447</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-15630.435</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>934</v>
+      </c>
+      <c r="C170" t="n">
+        <v>933</v>
+      </c>
+      <c r="D170" t="n">
+        <v>935</v>
+      </c>
+      <c r="E170" t="n">
+        <v>933</v>
+      </c>
+      <c r="F170" t="n">
+        <v>238.69</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-15869.125</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>932</v>
+      </c>
+      <c r="C171" t="n">
+        <v>932</v>
+      </c>
+      <c r="D171" t="n">
+        <v>932</v>
+      </c>
+      <c r="E171" t="n">
+        <v>932</v>
+      </c>
+      <c r="F171" t="n">
+        <v>486</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-16355.125</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>932</v>
+      </c>
+      <c r="C172" t="n">
+        <v>932</v>
+      </c>
+      <c r="D172" t="n">
+        <v>932</v>
+      </c>
+      <c r="E172" t="n">
+        <v>932</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1459</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-16355.125</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>932</v>
+      </c>
+      <c r="C173" t="n">
+        <v>931</v>
+      </c>
+      <c r="D173" t="n">
+        <v>932</v>
+      </c>
+      <c r="E173" t="n">
+        <v>931</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2317.2011</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-18672.3261</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>931</v>
+      </c>
+      <c r="C174" t="n">
+        <v>933</v>
+      </c>
+      <c r="D174" t="n">
+        <v>933</v>
+      </c>
+      <c r="E174" t="n">
+        <v>931</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1587.2482</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-17085.0779</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>932</v>
+      </c>
+      <c r="C175" t="n">
+        <v>933</v>
+      </c>
+      <c r="D175" t="n">
+        <v>933</v>
+      </c>
+      <c r="E175" t="n">
+        <v>932</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1903.8974</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-17085.0779</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>933</v>
+      </c>
+      <c r="C176" t="n">
+        <v>934</v>
+      </c>
+      <c r="D176" t="n">
+        <v>934</v>
+      </c>
+      <c r="E176" t="n">
+        <v>933</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1042.5606</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-16042.5173</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>933</v>
+      </c>
+      <c r="C177" t="n">
+        <v>933</v>
+      </c>
+      <c r="D177" t="n">
+        <v>934</v>
+      </c>
+      <c r="E177" t="n">
+        <v>933</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1822.3776</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-17864.8949</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>932</v>
+      </c>
+      <c r="C178" t="n">
+        <v>933</v>
+      </c>
+      <c r="D178" t="n">
+        <v>933</v>
+      </c>
+      <c r="E178" t="n">
+        <v>932</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-17864.8949</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>932</v>
+      </c>
+      <c r="C179" t="n">
+        <v>932</v>
+      </c>
+      <c r="D179" t="n">
+        <v>932</v>
+      </c>
+      <c r="E179" t="n">
+        <v>932</v>
+      </c>
+      <c r="F179" t="n">
+        <v>379.8276</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-18244.7225</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>932</v>
+      </c>
+      <c r="C180" t="n">
+        <v>932</v>
+      </c>
+      <c r="D180" t="n">
+        <v>932</v>
+      </c>
+      <c r="E180" t="n">
+        <v>932</v>
+      </c>
+      <c r="F180" t="n">
+        <v>319.9561</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-18244.7225</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>932</v>
+      </c>
+      <c r="C181" t="n">
+        <v>932</v>
+      </c>
+      <c r="D181" t="n">
+        <v>932</v>
+      </c>
+      <c r="E181" t="n">
+        <v>931</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1001.862</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-18244.7225</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>932</v>
+      </c>
+      <c r="C182" t="n">
+        <v>936</v>
+      </c>
+      <c r="D182" t="n">
+        <v>936</v>
+      </c>
+      <c r="E182" t="n">
+        <v>931</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3243.4844</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-15001.2381</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>933</v>
+      </c>
+      <c r="C183" t="n">
+        <v>932</v>
+      </c>
+      <c r="D183" t="n">
+        <v>933</v>
+      </c>
+      <c r="E183" t="n">
+        <v>931</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1283.6936</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-16284.9317</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>932</v>
+      </c>
+      <c r="C184" t="n">
+        <v>932</v>
+      </c>
+      <c r="D184" t="n">
+        <v>932</v>
+      </c>
+      <c r="E184" t="n">
+        <v>932</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1728.6874</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-16284.9317</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>932</v>
+      </c>
+      <c r="C185" t="n">
+        <v>932</v>
+      </c>
+      <c r="D185" t="n">
+        <v>933</v>
+      </c>
+      <c r="E185" t="n">
+        <v>932</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1993.2903</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-16284.9317</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>932</v>
+      </c>
+      <c r="C186" t="n">
+        <v>931</v>
+      </c>
+      <c r="D186" t="n">
+        <v>933</v>
+      </c>
+      <c r="E186" t="n">
+        <v>931</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2935.3297</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-19220.2614</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>932</v>
+      </c>
+      <c r="C187" t="n">
+        <v>932</v>
+      </c>
+      <c r="D187" t="n">
+        <v>932</v>
+      </c>
+      <c r="E187" t="n">
+        <v>932</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1410.956</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-17809.3054</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>932</v>
+      </c>
+      <c r="C188" t="n">
+        <v>932</v>
+      </c>
+      <c r="D188" t="n">
+        <v>932</v>
+      </c>
+      <c r="E188" t="n">
+        <v>932</v>
+      </c>
+      <c r="F188" t="n">
+        <v>761.1022</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-17809.3054</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>932</v>
+      </c>
+      <c r="C189" t="n">
+        <v>932</v>
+      </c>
+      <c r="D189" t="n">
+        <v>932</v>
+      </c>
+      <c r="E189" t="n">
+        <v>932</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1900</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-17809.3054</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>932</v>
+      </c>
+      <c r="C190" t="n">
+        <v>932</v>
+      </c>
+      <c r="D190" t="n">
+        <v>932</v>
+      </c>
+      <c r="E190" t="n">
+        <v>932</v>
+      </c>
+      <c r="F190" t="n">
+        <v>812.6093</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-17809.3054</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>931</v>
+      </c>
+      <c r="C191" t="n">
+        <v>931</v>
+      </c>
+      <c r="D191" t="n">
+        <v>931</v>
+      </c>
+      <c r="E191" t="n">
+        <v>931</v>
+      </c>
+      <c r="F191" t="n">
+        <v>235.608</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-18044.9134</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>932</v>
+      </c>
+      <c r="C192" t="n">
+        <v>932</v>
+      </c>
+      <c r="D192" t="n">
+        <v>932</v>
+      </c>
+      <c r="E192" t="n">
+        <v>932</v>
+      </c>
+      <c r="F192" t="n">
+        <v>180</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-17864.9134</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>932</v>
+      </c>
+      <c r="C193" t="n">
+        <v>932</v>
+      </c>
+      <c r="D193" t="n">
+        <v>937</v>
+      </c>
+      <c r="E193" t="n">
+        <v>932</v>
+      </c>
+      <c r="F193" t="n">
+        <v>3178.9453</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-17864.9134</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>932</v>
+      </c>
+      <c r="C194" t="n">
+        <v>932</v>
+      </c>
+      <c r="D194" t="n">
+        <v>932</v>
+      </c>
+      <c r="E194" t="n">
+        <v>932</v>
+      </c>
+      <c r="F194" t="n">
+        <v>831</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-17864.9134</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>933</v>
+      </c>
+      <c r="C195" t="n">
+        <v>933</v>
+      </c>
+      <c r="D195" t="n">
+        <v>933</v>
+      </c>
+      <c r="E195" t="n">
+        <v>933</v>
+      </c>
+      <c r="F195" t="n">
+        <v>6.7451</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-17858.1683</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>933</v>
+      </c>
+      <c r="C196" t="n">
+        <v>933</v>
+      </c>
+      <c r="D196" t="n">
+        <v>933</v>
+      </c>
+      <c r="E196" t="n">
+        <v>933</v>
+      </c>
+      <c r="F196" t="n">
+        <v>27.585</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-17858.1683</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>933</v>
+      </c>
+      <c r="C197" t="n">
+        <v>933</v>
+      </c>
+      <c r="D197" t="n">
+        <v>933</v>
+      </c>
+      <c r="E197" t="n">
+        <v>933</v>
+      </c>
+      <c r="F197" t="n">
+        <v>201.2158</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-17858.1683</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>932</v>
+      </c>
+      <c r="C198" t="n">
+        <v>932</v>
+      </c>
+      <c r="D198" t="n">
+        <v>932</v>
+      </c>
+      <c r="E198" t="n">
+        <v>932</v>
+      </c>
+      <c r="F198" t="n">
+        <v>589</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-18447.1683</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>932</v>
+      </c>
+      <c r="C199" t="n">
+        <v>932</v>
+      </c>
+      <c r="D199" t="n">
+        <v>932</v>
+      </c>
+      <c r="E199" t="n">
+        <v>932</v>
+      </c>
+      <c r="F199" t="n">
+        <v>794.7227</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-18447.1683</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>932</v>
+      </c>
+      <c r="C200" t="n">
+        <v>932</v>
+      </c>
+      <c r="D200" t="n">
+        <v>932</v>
+      </c>
+      <c r="E200" t="n">
+        <v>932</v>
+      </c>
+      <c r="F200" t="n">
+        <v>693.2936999999999</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-18447.1683</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>932</v>
+      </c>
+      <c r="C201" t="n">
+        <v>932</v>
+      </c>
+      <c r="D201" t="n">
+        <v>932</v>
+      </c>
+      <c r="E201" t="n">
+        <v>932</v>
+      </c>
+      <c r="F201" t="n">
+        <v>123.3325</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-18447.1683</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>932</v>
+      </c>
+      <c r="C202" t="n">
+        <v>932</v>
+      </c>
+      <c r="D202" t="n">
+        <v>932</v>
+      </c>
+      <c r="E202" t="n">
+        <v>932</v>
+      </c>
+      <c r="F202" t="n">
+        <v>773.2462</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-18447.1683</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>932</v>
+      </c>
+      <c r="C203" t="n">
+        <v>932</v>
+      </c>
+      <c r="D203" t="n">
+        <v>932</v>
+      </c>
+      <c r="E203" t="n">
+        <v>932</v>
+      </c>
+      <c r="F203" t="n">
+        <v>471.1934</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-18447.1683</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>932</v>
+      </c>
+      <c r="C204" t="n">
+        <v>932</v>
+      </c>
+      <c r="D204" t="n">
+        <v>932</v>
+      </c>
+      <c r="E204" t="n">
+        <v>932</v>
+      </c>
+      <c r="F204" t="n">
+        <v>280.0636</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-18447.1683</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>932</v>
+      </c>
+      <c r="C205" t="n">
+        <v>932</v>
+      </c>
+      <c r="D205" t="n">
+        <v>932</v>
+      </c>
+      <c r="E205" t="n">
+        <v>932</v>
+      </c>
+      <c r="F205" t="n">
+        <v>790.0544</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-18447.1683</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>932</v>
+      </c>
+      <c r="J205" t="n">
+        <v>932</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>932</v>
+      </c>
+      <c r="C206" t="n">
+        <v>932</v>
+      </c>
+      <c r="D206" t="n">
+        <v>932</v>
+      </c>
+      <c r="E206" t="n">
+        <v>932</v>
+      </c>
+      <c r="F206" t="n">
+        <v>80.4678</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-18447.1683</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>932</v>
+      </c>
+      <c r="J206" t="n">
+        <v>932</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>932</v>
+      </c>
+      <c r="C207" t="n">
+        <v>935</v>
+      </c>
+      <c r="D207" t="n">
+        <v>935</v>
+      </c>
+      <c r="E207" t="n">
+        <v>932</v>
+      </c>
+      <c r="F207" t="n">
+        <v>3866.298</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-14580.87030000001</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>932</v>
+      </c>
+      <c r="J207" t="n">
+        <v>932</v>
+      </c>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>930</v>
-      </c>
-      <c r="C165" t="n">
-        <v>930</v>
-      </c>
-      <c r="D165" t="n">
-        <v>936</v>
-      </c>
-      <c r="E165" t="n">
-        <v>930</v>
-      </c>
-      <c r="F165" t="n">
-        <v>2545</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-17309.988</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>930</v>
-      </c>
-      <c r="C166" t="n">
-        <v>936</v>
-      </c>
-      <c r="D166" t="n">
-        <v>936</v>
-      </c>
-      <c r="E166" t="n">
-        <v>930</v>
-      </c>
-      <c r="F166" t="n">
-        <v>2365</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-14944.988</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>930</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>931</v>
-      </c>
-      <c r="C167" t="n">
-        <v>931</v>
-      </c>
-      <c r="D167" t="n">
-        <v>935</v>
-      </c>
-      <c r="E167" t="n">
-        <v>931</v>
-      </c>
-      <c r="F167" t="n">
-        <v>3475</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-18419.988</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>936</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>930</v>
-      </c>
-      <c r="C168" t="n">
-        <v>938</v>
-      </c>
-      <c r="D168" t="n">
-        <v>938</v>
-      </c>
-      <c r="E168" t="n">
-        <v>930</v>
-      </c>
-      <c r="F168" t="n">
-        <v>3750</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-14669.988</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>931</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>935</v>
-      </c>
-      <c r="C169" t="n">
-        <v>934</v>
-      </c>
-      <c r="D169" t="n">
-        <v>935</v>
-      </c>
-      <c r="E169" t="n">
-        <v>934</v>
-      </c>
-      <c r="F169" t="n">
-        <v>960.447</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-15630.435</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>934</v>
-      </c>
-      <c r="C170" t="n">
-        <v>933</v>
-      </c>
-      <c r="D170" t="n">
-        <v>935</v>
-      </c>
-      <c r="E170" t="n">
-        <v>933</v>
-      </c>
-      <c r="F170" t="n">
-        <v>238.69</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-15869.125</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>934</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>932</v>
-      </c>
-      <c r="C171" t="n">
-        <v>932</v>
-      </c>
-      <c r="D171" t="n">
-        <v>932</v>
-      </c>
-      <c r="E171" t="n">
-        <v>932</v>
-      </c>
-      <c r="F171" t="n">
-        <v>486</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-16355.125</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>933</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>932</v>
-      </c>
-      <c r="C172" t="n">
-        <v>932</v>
-      </c>
-      <c r="D172" t="n">
-        <v>932</v>
-      </c>
-      <c r="E172" t="n">
-        <v>932</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1459</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-16355.125</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>932</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>932</v>
-      </c>
-      <c r="C173" t="n">
-        <v>931</v>
-      </c>
-      <c r="D173" t="n">
-        <v>932</v>
-      </c>
-      <c r="E173" t="n">
-        <v>931</v>
-      </c>
-      <c r="F173" t="n">
-        <v>2317.2011</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-18672.3261</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>932</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>931</v>
-      </c>
-      <c r="C174" t="n">
-        <v>933</v>
-      </c>
-      <c r="D174" t="n">
-        <v>933</v>
-      </c>
-      <c r="E174" t="n">
-        <v>931</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1587.2482</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-17085.0779</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>931</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>932</v>
-      </c>
-      <c r="C175" t="n">
-        <v>933</v>
-      </c>
-      <c r="D175" t="n">
-        <v>933</v>
-      </c>
-      <c r="E175" t="n">
-        <v>932</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1903.8974</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-17085.0779</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>933</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>933</v>
-      </c>
-      <c r="C176" t="n">
-        <v>934</v>
-      </c>
-      <c r="D176" t="n">
-        <v>934</v>
-      </c>
-      <c r="E176" t="n">
-        <v>933</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1042.5606</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-16042.5173</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>933</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>933</v>
-      </c>
-      <c r="C177" t="n">
-        <v>933</v>
-      </c>
-      <c r="D177" t="n">
-        <v>934</v>
-      </c>
-      <c r="E177" t="n">
-        <v>933</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1822.3776</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-17864.8949</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>934</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>932</v>
-      </c>
-      <c r="C178" t="n">
-        <v>933</v>
-      </c>
-      <c r="D178" t="n">
-        <v>933</v>
-      </c>
-      <c r="E178" t="n">
-        <v>932</v>
-      </c>
-      <c r="F178" t="n">
-        <v>2400</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-17864.8949</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>933</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>932</v>
-      </c>
-      <c r="C179" t="n">
-        <v>932</v>
-      </c>
-      <c r="D179" t="n">
-        <v>932</v>
-      </c>
-      <c r="E179" t="n">
-        <v>932</v>
-      </c>
-      <c r="F179" t="n">
-        <v>379.8276</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-18244.7225</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>933</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>932</v>
-      </c>
-      <c r="C180" t="n">
-        <v>932</v>
-      </c>
-      <c r="D180" t="n">
-        <v>932</v>
-      </c>
-      <c r="E180" t="n">
-        <v>932</v>
-      </c>
-      <c r="F180" t="n">
-        <v>319.9561</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-18244.7225</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>932</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>932</v>
-      </c>
-      <c r="C181" t="n">
-        <v>932</v>
-      </c>
-      <c r="D181" t="n">
-        <v>932</v>
-      </c>
-      <c r="E181" t="n">
-        <v>931</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1001.862</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-18244.7225</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>932</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>932</v>
-      </c>
-      <c r="C182" t="n">
-        <v>936</v>
-      </c>
-      <c r="D182" t="n">
-        <v>936</v>
-      </c>
-      <c r="E182" t="n">
-        <v>931</v>
-      </c>
-      <c r="F182" t="n">
-        <v>3243.4844</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-15001.2381</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>932</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>933</v>
-      </c>
-      <c r="C183" t="n">
-        <v>932</v>
-      </c>
-      <c r="D183" t="n">
-        <v>933</v>
-      </c>
-      <c r="E183" t="n">
-        <v>931</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1283.6936</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-16284.9317</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>932</v>
-      </c>
-      <c r="C184" t="n">
-        <v>932</v>
-      </c>
-      <c r="D184" t="n">
-        <v>932</v>
-      </c>
-      <c r="E184" t="n">
-        <v>932</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1728.6874</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-16284.9317</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>932</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>932</v>
-      </c>
-      <c r="C185" t="n">
-        <v>932</v>
-      </c>
-      <c r="D185" t="n">
-        <v>933</v>
-      </c>
-      <c r="E185" t="n">
-        <v>932</v>
-      </c>
-      <c r="F185" t="n">
-        <v>1993.2903</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-16284.9317</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>932</v>
-      </c>
-      <c r="C186" t="n">
-        <v>931</v>
-      </c>
-      <c r="D186" t="n">
-        <v>933</v>
-      </c>
-      <c r="E186" t="n">
-        <v>931</v>
-      </c>
-      <c r="F186" t="n">
-        <v>2935.3297</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-19220.2614</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>932</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>932</v>
-      </c>
-      <c r="C187" t="n">
-        <v>932</v>
-      </c>
-      <c r="D187" t="n">
-        <v>932</v>
-      </c>
-      <c r="E187" t="n">
-        <v>932</v>
-      </c>
-      <c r="F187" t="n">
-        <v>1410.956</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-17809.3054</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>931</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>932</v>
-      </c>
-      <c r="C188" t="n">
-        <v>932</v>
-      </c>
-      <c r="D188" t="n">
-        <v>932</v>
-      </c>
-      <c r="E188" t="n">
-        <v>932</v>
-      </c>
-      <c r="F188" t="n">
-        <v>761.1022</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-17809.3054</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>932</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>932</v>
-      </c>
-      <c r="C189" t="n">
-        <v>932</v>
-      </c>
-      <c r="D189" t="n">
-        <v>932</v>
-      </c>
-      <c r="E189" t="n">
-        <v>932</v>
-      </c>
-      <c r="F189" t="n">
-        <v>1900</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-17809.3054</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>932</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>932</v>
-      </c>
-      <c r="C190" t="n">
-        <v>932</v>
-      </c>
-      <c r="D190" t="n">
-        <v>932</v>
-      </c>
-      <c r="E190" t="n">
-        <v>932</v>
-      </c>
-      <c r="F190" t="n">
-        <v>812.6093</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-17809.3054</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>932</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>931</v>
-      </c>
-      <c r="C191" t="n">
-        <v>931</v>
-      </c>
-      <c r="D191" t="n">
-        <v>931</v>
-      </c>
-      <c r="E191" t="n">
-        <v>931</v>
-      </c>
-      <c r="F191" t="n">
-        <v>235.608</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-18044.9134</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>932</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>932</v>
-      </c>
-      <c r="C192" t="n">
-        <v>932</v>
-      </c>
-      <c r="D192" t="n">
-        <v>932</v>
-      </c>
-      <c r="E192" t="n">
-        <v>932</v>
-      </c>
-      <c r="F192" t="n">
-        <v>180</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-17864.9134</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>931</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>932</v>
-      </c>
-      <c r="C193" t="n">
-        <v>932</v>
-      </c>
-      <c r="D193" t="n">
-        <v>937</v>
-      </c>
-      <c r="E193" t="n">
-        <v>932</v>
-      </c>
-      <c r="F193" t="n">
-        <v>3178.9453</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-17864.9134</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>932</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>932</v>
-      </c>
-      <c r="C194" t="n">
-        <v>932</v>
-      </c>
-      <c r="D194" t="n">
-        <v>932</v>
-      </c>
-      <c r="E194" t="n">
-        <v>932</v>
-      </c>
-      <c r="F194" t="n">
-        <v>831</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-17864.9134</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>933</v>
-      </c>
-      <c r="C195" t="n">
-        <v>933</v>
-      </c>
-      <c r="D195" t="n">
-        <v>933</v>
-      </c>
-      <c r="E195" t="n">
-        <v>933</v>
-      </c>
-      <c r="F195" t="n">
-        <v>6.7451</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-17858.1683</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>933</v>
-      </c>
-      <c r="C196" t="n">
-        <v>933</v>
-      </c>
-      <c r="D196" t="n">
-        <v>933</v>
-      </c>
-      <c r="E196" t="n">
-        <v>933</v>
-      </c>
-      <c r="F196" t="n">
-        <v>27.585</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-17858.1683</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>933</v>
-      </c>
-      <c r="C197" t="n">
-        <v>933</v>
-      </c>
-      <c r="D197" t="n">
-        <v>933</v>
-      </c>
-      <c r="E197" t="n">
-        <v>933</v>
-      </c>
-      <c r="F197" t="n">
-        <v>201.2158</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-17858.1683</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>933</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>932</v>
-      </c>
-      <c r="C198" t="n">
-        <v>932</v>
-      </c>
-      <c r="D198" t="n">
-        <v>932</v>
-      </c>
-      <c r="E198" t="n">
-        <v>932</v>
-      </c>
-      <c r="F198" t="n">
-        <v>589</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-18447.1683</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>933</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>932</v>
-      </c>
-      <c r="C199" t="n">
-        <v>932</v>
-      </c>
-      <c r="D199" t="n">
-        <v>932</v>
-      </c>
-      <c r="E199" t="n">
-        <v>932</v>
-      </c>
-      <c r="F199" t="n">
-        <v>794.7227</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-18447.1683</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>932</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>932</v>
-      </c>
-      <c r="C200" t="n">
-        <v>932</v>
-      </c>
-      <c r="D200" t="n">
-        <v>932</v>
-      </c>
-      <c r="E200" t="n">
-        <v>932</v>
-      </c>
-      <c r="F200" t="n">
-        <v>693.2936999999999</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-18447.1683</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>932</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>932</v>
-      </c>
-      <c r="C201" t="n">
-        <v>932</v>
-      </c>
-      <c r="D201" t="n">
-        <v>932</v>
-      </c>
-      <c r="E201" t="n">
-        <v>932</v>
-      </c>
-      <c r="F201" t="n">
-        <v>123.3325</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-18447.1683</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>932</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>932</v>
-      </c>
-      <c r="C202" t="n">
-        <v>932</v>
-      </c>
-      <c r="D202" t="n">
-        <v>932</v>
-      </c>
-      <c r="E202" t="n">
-        <v>932</v>
-      </c>
-      <c r="F202" t="n">
-        <v>773.2462</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-18447.1683</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>932</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>932</v>
-      </c>
-      <c r="C203" t="n">
-        <v>932</v>
-      </c>
-      <c r="D203" t="n">
-        <v>932</v>
-      </c>
-      <c r="E203" t="n">
-        <v>932</v>
-      </c>
-      <c r="F203" t="n">
-        <v>471.1934</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-18447.1683</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>932</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>932</v>
-      </c>
-      <c r="C204" t="n">
-        <v>932</v>
-      </c>
-      <c r="D204" t="n">
-        <v>932</v>
-      </c>
-      <c r="E204" t="n">
-        <v>932</v>
-      </c>
-      <c r="F204" t="n">
-        <v>280.0636</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-18447.1683</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>932</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>932</v>
-      </c>
-      <c r="C205" t="n">
-        <v>932</v>
-      </c>
-      <c r="D205" t="n">
-        <v>932</v>
-      </c>
-      <c r="E205" t="n">
-        <v>932</v>
-      </c>
-      <c r="F205" t="n">
-        <v>790.0544</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-18447.1683</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>932</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>932</v>
-      </c>
-      <c r="C206" t="n">
-        <v>932</v>
-      </c>
-      <c r="D206" t="n">
-        <v>932</v>
-      </c>
-      <c r="E206" t="n">
-        <v>932</v>
-      </c>
-      <c r="F206" t="n">
-        <v>80.4678</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-18447.1683</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>932</v>
-      </c>
-      <c r="C207" t="n">
-        <v>935</v>
-      </c>
-      <c r="D207" t="n">
-        <v>935</v>
-      </c>
-      <c r="E207" t="n">
-        <v>932</v>
-      </c>
-      <c r="F207" t="n">
-        <v>3866.298</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-14580.87030000001</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>932</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7500,7 +7272,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>932</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7537,7 +7311,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>932</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7571,10 +7347,14 @@
         <v>-14064.81790000001</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>932</v>
+      </c>
+      <c r="J210" t="n">
+        <v>932</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7611,7 +7391,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>932</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7648,7 +7430,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>932</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7685,7 +7469,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>932</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7722,7 +7508,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>932</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7759,7 +7547,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>932</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7796,7 +7586,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>932</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7833,7 +7625,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>932</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7870,7 +7664,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>932</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7907,7 +7703,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>932</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7944,7 +7742,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>932</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7981,7 +7781,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>932</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8018,7 +7820,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>932</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8055,7 +7859,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>932</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8092,7 +7898,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>932</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8129,7 +7937,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>932</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8166,7 +7976,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>932</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8203,7 +8015,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>932</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8240,7 +8054,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>932</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8277,7 +8093,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>932</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8314,7 +8132,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>932</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8351,7 +8171,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>932</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8388,7 +8210,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>932</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8425,7 +8249,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>932</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8459,17 +8285,19 @@
         <v>-8787.623900000004</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>932</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L234" t="n">
-        <v>1</v>
+        <v>1.008948497854077</v>
       </c>
       <c r="M234" t="inlineStr"/>
     </row>
@@ -8496,15 +8324,11 @@
         <v>-8611.365900000004</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8533,15 +8357,11 @@
         <v>-8611.365900000004</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8570,15 +8390,11 @@
         <v>-8611.365900000004</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8607,15 +8423,11 @@
         <v>-8505.008900000004</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8644,15 +8456,11 @@
         <v>-8505.008900000004</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8681,15 +8489,11 @@
         <v>-8505.008900000004</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8718,15 +8522,11 @@
         <v>-8505.008900000004</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8755,15 +8555,11 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8792,15 +8588,11 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8829,15 +8621,11 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8866,15 +8654,11 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8903,15 +8687,11 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8940,15 +8720,11 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8977,21 +8753,17 @@
         <v>-8673.019800000004</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
       <c r="M248" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-19 BackTest WAVES.xlsx
@@ -451,7 +451,7 @@
         <v>5746.4488</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>4966.4488</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>4966.4488</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>4246.4488</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>4246.4488</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>4246.4488</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>3652.3802</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>3417.3256</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>3417.3256</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>3417.3256</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>3417.3256</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>3417.3256</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>3657.880200000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -6721,10 +6721,14 @@
         <v>-17864.9134</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>931</v>
+      </c>
+      <c r="J192" t="n">
+        <v>931</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
@@ -6754,11 +6758,19 @@
         <v>-17864.9134</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>932</v>
+      </c>
+      <c r="J193" t="n">
+        <v>931</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +6802,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>931</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6919,10 +6937,14 @@
         <v>-18447.1683</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>933</v>
+      </c>
+      <c r="J198" t="n">
+        <v>933</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
@@ -6952,11 +6974,19 @@
         <v>-18447.1683</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>932</v>
+      </c>
+      <c r="J199" t="n">
+        <v>933</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7015,19 @@
         <v>-18447.1683</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>932</v>
+      </c>
+      <c r="J200" t="n">
+        <v>933</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,10 +7056,14 @@
         <v>-18447.1683</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>932</v>
+      </c>
+      <c r="J201" t="n">
+        <v>932</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
@@ -7051,11 +7093,19 @@
         <v>-18447.1683</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>932</v>
+      </c>
+      <c r="J202" t="n">
+        <v>932</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7134,19 @@
         <v>-18447.1683</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>932</v>
+      </c>
+      <c r="J203" t="n">
+        <v>932</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7117,10 +7175,14 @@
         <v>-18447.1683</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>932</v>
+      </c>
+      <c r="J204" t="n">
+        <v>932</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
@@ -7158,7 +7220,11 @@
       <c r="J205" t="n">
         <v>932</v>
       </c>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7269,9 +7335,11 @@
         <v>-15113.88850000001</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>935</v>
+      </c>
       <c r="J208" t="n">
         <v>932</v>
       </c>
@@ -7308,9 +7376,11 @@
         <v>-15113.88850000001</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>932</v>
+      </c>
       <c r="J209" t="n">
         <v>932</v>
       </c>
@@ -7388,9 +7458,11 @@
         <v>-7132.863600000005</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>933</v>
+      </c>
       <c r="J211" t="n">
         <v>932</v>
       </c>
@@ -8285,7 +8357,7 @@
         <v>-8787.623900000004</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
@@ -8293,11 +8365,11 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L234" t="n">
-        <v>1.008948497854077</v>
+        <v>1</v>
       </c>
       <c r="M234" t="inlineStr"/>
     </row>
@@ -8324,11 +8396,17 @@
         <v>-8611.365900000004</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>932</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8357,11 +8435,17 @@
         <v>-8611.365900000004</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>932</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8390,11 +8474,17 @@
         <v>-8611.365900000004</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>932</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8423,11 +8513,17 @@
         <v>-8505.008900000004</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>932</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8456,11 +8552,17 @@
         <v>-8505.008900000004</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>932</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8489,11 +8591,17 @@
         <v>-8505.008900000004</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>932</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8522,11 +8630,17 @@
         <v>-8505.008900000004</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>932</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8555,11 +8669,17 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>932</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8588,11 +8708,17 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>932</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8621,11 +8747,17 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>932</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8654,11 +8786,17 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>932</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8687,11 +8825,17 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>932</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8720,11 +8864,17 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>932</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8753,11 +8903,17 @@
         <v>-8673.019800000004</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>932</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-19 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-19 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M248"/>
+  <dimension ref="A1:L248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1041</v>
       </c>
       <c r="G2" t="n">
-        <v>5746.4488</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>780</v>
       </c>
       <c r="G3" t="n">
-        <v>4966.4488</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>297.1582</v>
       </c>
       <c r="G4" t="n">
-        <v>4966.4488</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>720</v>
       </c>
       <c r="G5" t="n">
-        <v>4246.4488</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2152.9516</v>
       </c>
       <c r="G6" t="n">
-        <v>4246.4488</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1012.4513</v>
       </c>
       <c r="G7" t="n">
-        <v>4246.4488</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>594.0685999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>3652.3802</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>235.0546</v>
       </c>
       <c r="G9" t="n">
-        <v>3417.3256</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>178</v>
       </c>
       <c r="G10" t="n">
-        <v>3417.3256</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>3417.3256</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>446</v>
       </c>
       <c r="G12" t="n">
-        <v>3417.3256</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>18.259</v>
       </c>
       <c r="G13" t="n">
-        <v>3417.3256</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>683.4076</v>
       </c>
       <c r="G14" t="n">
-        <v>4100.733200000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>442.853</v>
       </c>
       <c r="G15" t="n">
-        <v>3657.880200000001</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1484.6324</v>
       </c>
       <c r="G16" t="n">
-        <v>2173.247800000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1201</v>
       </c>
       <c r="G17" t="n">
-        <v>2173.247800000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1205</v>
       </c>
       <c r="G18" t="n">
-        <v>2173.247800000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1165</v>
       </c>
       <c r="G19" t="n">
-        <v>2173.247800000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>213.8428</v>
       </c>
       <c r="G20" t="n">
-        <v>2173.247800000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>572.3203999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>2173.247800000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>211.0338</v>
       </c>
       <c r="G22" t="n">
-        <v>2173.247800000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>112.0375</v>
       </c>
       <c r="G23" t="n">
-        <v>2061.210300000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>653.5137999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>2061.210300000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>222.9829</v>
       </c>
       <c r="G25" t="n">
-        <v>1838.227400000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1648.593</v>
       </c>
       <c r="G26" t="n">
-        <v>1838.227400000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>122.4218</v>
       </c>
       <c r="G27" t="n">
-        <v>1960.649200000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>409.4354</v>
       </c>
       <c r="G28" t="n">
-        <v>1960.649200000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>492.1134</v>
       </c>
       <c r="G29" t="n">
-        <v>1468.535800000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1636.0639</v>
       </c>
       <c r="G30" t="n">
-        <v>1468.535800000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>465.34</v>
       </c>
       <c r="G31" t="n">
-        <v>1468.535800000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1000</v>
       </c>
       <c r="G32" t="n">
-        <v>2468.535800000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>855.7462</v>
       </c>
       <c r="G33" t="n">
-        <v>1612.789600000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>1950.7742</v>
       </c>
       <c r="G34" t="n">
-        <v>1612.789600000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>612.96871741</v>
       </c>
       <c r="G35" t="n">
-        <v>1612.789600000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>210</v>
       </c>
       <c r="G36" t="n">
-        <v>1402.789600000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>790</v>
       </c>
       <c r="G37" t="n">
-        <v>1402.789600000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>169.3607</v>
       </c>
       <c r="G38" t="n">
-        <v>1233.428900000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1826.9952</v>
       </c>
       <c r="G39" t="n">
-        <v>-593.5662999999995</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>1163.2242</v>
       </c>
       <c r="G40" t="n">
-        <v>-1756.7905</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1827.8048</v>
       </c>
       <c r="G41" t="n">
-        <v>-3584.595299999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>2414.4747</v>
       </c>
       <c r="G42" t="n">
-        <v>-3584.595299999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1135.735</v>
       </c>
       <c r="G43" t="n">
-        <v>-3584.595299999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>15</v>
       </c>
       <c r="G44" t="n">
-        <v>-3584.595299999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>200</v>
       </c>
       <c r="G45" t="n">
-        <v>-3784.595299999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>2384.5486</v>
       </c>
       <c r="G46" t="n">
-        <v>-3784.595299999999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1431</v>
       </c>
       <c r="G47" t="n">
-        <v>-3784.595299999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1328</v>
       </c>
       <c r="G48" t="n">
-        <v>-3784.595299999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>188.2658</v>
       </c>
       <c r="G49" t="n">
-        <v>-3972.8611</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>325</v>
       </c>
       <c r="G50" t="n">
-        <v>-3972.8611</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>-3972.8611</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>729.5153</v>
       </c>
       <c r="G52" t="n">
-        <v>-3972.8611</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1890.8624</v>
       </c>
       <c r="G53" t="n">
-        <v>-3972.8611</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1337</v>
       </c>
       <c r="G54" t="n">
-        <v>-3972.8611</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1894.9606</v>
       </c>
       <c r="G55" t="n">
-        <v>-3972.8611</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>187.1</v>
       </c>
       <c r="G56" t="n">
-        <v>-3972.8611</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>270</v>
       </c>
       <c r="G57" t="n">
-        <v>-3972.8611</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>2990</v>
       </c>
       <c r="G58" t="n">
-        <v>-982.8610999999996</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>935.3119</v>
       </c>
       <c r="G59" t="n">
-        <v>-1918.173</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>536</v>
       </c>
       <c r="G60" t="n">
-        <v>-2454.173</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>851.8132000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>-2454.173</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>3254.6882</v>
       </c>
       <c r="G62" t="n">
-        <v>800.5152000000003</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>2557.9568</v>
       </c>
       <c r="G63" t="n">
-        <v>-1757.4416</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>1029.7443</v>
       </c>
       <c r="G64" t="n">
-        <v>-1757.4416</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>741.3031999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>-2498.744799999999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>440.9806</v>
       </c>
       <c r="G66" t="n">
-        <v>-2498.744799999999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>205</v>
       </c>
       <c r="G67" t="n">
-        <v>-2498.744799999999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>3175.2408</v>
       </c>
       <c r="G68" t="n">
-        <v>-2498.744799999999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>6091.41</v>
       </c>
       <c r="G69" t="n">
-        <v>-8590.1548</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>3235.5925</v>
       </c>
       <c r="G70" t="n">
-        <v>-5354.5623</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>410</v>
       </c>
       <c r="G71" t="n">
-        <v>-5764.5623</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>500</v>
       </c>
       <c r="G72" t="n">
-        <v>-5764.5623</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>200</v>
       </c>
       <c r="G73" t="n">
-        <v>-5764.5623</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>2430.15</v>
       </c>
       <c r="G74" t="n">
-        <v>-5764.5623</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>1831.3267</v>
       </c>
       <c r="G75" t="n">
-        <v>-5764.5623</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>915.4302</v>
       </c>
       <c r="G76" t="n">
-        <v>-6679.992499999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>2043.4324</v>
       </c>
       <c r="G77" t="n">
-        <v>-8723.4249</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>2463.57</v>
       </c>
       <c r="G78" t="n">
-        <v>-11186.9949</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>2100</v>
       </c>
       <c r="G79" t="n">
-        <v>-11186.9949</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>1712.0947</v>
       </c>
       <c r="G80" t="n">
-        <v>-9474.9002</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>25.6941</v>
       </c>
       <c r="G81" t="n">
-        <v>-9500.594300000001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>1674.9144</v>
       </c>
       <c r="G82" t="n">
-        <v>-11175.5087</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>211.8982</v>
       </c>
       <c r="G83" t="n">
-        <v>-10963.6105</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>2751.7991</v>
       </c>
       <c r="G84" t="n">
-        <v>-8211.811400000001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>4678.09</v>
       </c>
       <c r="G85" t="n">
-        <v>-8211.811400000001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>2844.5073</v>
       </c>
       <c r="G86" t="n">
-        <v>-11056.3187</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>4212.9091</v>
       </c>
       <c r="G87" t="n">
-        <v>-6843.4096</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>4509.9</v>
       </c>
       <c r="G88" t="n">
-        <v>-2333.5096</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>901.9669</v>
       </c>
       <c r="G89" t="n">
-        <v>-3235.4765</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>125</v>
       </c>
       <c r="G90" t="n">
-        <v>-3235.4765</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>450</v>
       </c>
       <c r="G91" t="n">
-        <v>-3235.4765</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>490.7118</v>
       </c>
       <c r="G92" t="n">
-        <v>-3726.1883</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>3106.8801</v>
       </c>
       <c r="G93" t="n">
-        <v>-619.3082000000004</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>2191.3282</v>
       </c>
       <c r="G94" t="n">
-        <v>-2810.6364</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>1610.5216</v>
       </c>
       <c r="G95" t="n">
-        <v>-2810.6364</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>2.1313</v>
       </c>
       <c r="G96" t="n">
-        <v>-2810.6364</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>776.4496</v>
       </c>
       <c r="G97" t="n">
-        <v>-2810.6364</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>703.0022</v>
       </c>
       <c r="G98" t="n">
-        <v>-3513.6386</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>3091.127</v>
       </c>
       <c r="G99" t="n">
-        <v>-422.5116000000003</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>323</v>
       </c>
       <c r="G100" t="n">
-        <v>-745.5116000000003</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>190.0749</v>
       </c>
       <c r="G101" t="n">
-        <v>-935.5865000000003</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>2237.846</v>
       </c>
       <c r="G102" t="n">
-        <v>-935.5865000000003</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>2042</v>
       </c>
       <c r="G103" t="n">
-        <v>-2977.5865</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>183</v>
       </c>
       <c r="G104" t="n">
-        <v>-3160.5865</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>906</v>
       </c>
       <c r="G105" t="n">
-        <v>-4066.5865</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>2520</v>
       </c>
       <c r="G106" t="n">
-        <v>-1546.5865</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>821</v>
       </c>
       <c r="G107" t="n">
-        <v>-2367.5865</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>1175.9428</v>
       </c>
       <c r="G108" t="n">
-        <v>-3543.5293</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>1795.7505</v>
       </c>
       <c r="G109" t="n">
-        <v>-3543.5293</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>893.9995</v>
       </c>
       <c r="G110" t="n">
-        <v>-2649.5298</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>50</v>
       </c>
       <c r="G111" t="n">
-        <v>-2649.5298</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>2745</v>
       </c>
       <c r="G112" t="n">
-        <v>-2649.5298</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>100</v>
       </c>
       <c r="G113" t="n">
-        <v>-2649.5298</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>450</v>
       </c>
       <c r="G114" t="n">
-        <v>-2649.5298</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>175.18</v>
       </c>
       <c r="G115" t="n">
-        <v>-2649.5298</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>17.7379</v>
       </c>
       <c r="G116" t="n">
-        <v>-2649.5298</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>3649.2235</v>
       </c>
       <c r="G117" t="n">
-        <v>-6298.7533</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>1248.4103</v>
       </c>
       <c r="G118" t="n">
-        <v>-5050.343000000001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>1480.3039</v>
       </c>
       <c r="G119" t="n">
-        <v>-5050.343000000001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>1350.0965</v>
       </c>
       <c r="G120" t="n">
-        <v>-6400.4395</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>664</v>
       </c>
       <c r="G121" t="n">
-        <v>-5736.4395</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>2097.5189</v>
       </c>
       <c r="G122" t="n">
-        <v>-5736.4395</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>2690</v>
       </c>
       <c r="G123" t="n">
-        <v>-5736.4395</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>1200</v>
       </c>
       <c r="G124" t="n">
-        <v>-4536.4395</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>1228.59</v>
       </c>
       <c r="G125" t="n">
-        <v>-5765.029500000001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>1234</v>
       </c>
       <c r="G126" t="n">
-        <v>-6999.029500000001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>1215</v>
       </c>
       <c r="G127" t="n">
-        <v>-5784.029500000001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>26.4699</v>
       </c>
       <c r="G128" t="n">
-        <v>-5810.499400000001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>495</v>
       </c>
       <c r="G129" t="n">
-        <v>-6305.499400000001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>1345.0751</v>
       </c>
       <c r="G130" t="n">
-        <v>-6305.499400000001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>3898.5809</v>
       </c>
       <c r="G131" t="n">
-        <v>-6305.499400000001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>2681.529</v>
       </c>
       <c r="G132" t="n">
-        <v>-3623.970400000001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>438.468</v>
       </c>
       <c r="G133" t="n">
-        <v>-4062.4384</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>554.4104</v>
       </c>
       <c r="G134" t="n">
-        <v>-4062.4384</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>3140</v>
       </c>
       <c r="G135" t="n">
-        <v>-4062.4384</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>2076</v>
       </c>
       <c r="G136" t="n">
-        <v>-6138.438400000001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>1998.3805</v>
       </c>
       <c r="G137" t="n">
-        <v>-4140.057900000001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>433.1234</v>
       </c>
       <c r="G138" t="n">
-        <v>-4140.057900000001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>247.9454</v>
       </c>
       <c r="G139" t="n">
-        <v>-3892.112500000001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>45.2427</v>
       </c>
       <c r="G140" t="n">
-        <v>-3937.3552</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>2040.2836</v>
       </c>
       <c r="G141" t="n">
-        <v>-3937.3552</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>144.3726</v>
       </c>
       <c r="G142" t="n">
-        <v>-3937.3552</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>100</v>
       </c>
       <c r="G143" t="n">
-        <v>-3937.3552</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>237.402</v>
       </c>
       <c r="G144" t="n">
-        <v>-3937.3552</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>90.0119</v>
       </c>
       <c r="G145" t="n">
-        <v>-3937.3552</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>319.1489</v>
       </c>
       <c r="G146" t="n">
-        <v>-3937.3552</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>1079.083</v>
       </c>
       <c r="G147" t="n">
-        <v>-3937.3552</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>125.7199</v>
       </c>
       <c r="G148" t="n">
-        <v>-3937.3552</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>1756.9999</v>
       </c>
       <c r="G149" t="n">
-        <v>-3937.3552</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>277.23</v>
       </c>
       <c r="G150" t="n">
-        <v>-3937.3552</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>56.3062</v>
       </c>
       <c r="G151" t="n">
-        <v>-3937.3552</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>267.1998</v>
       </c>
       <c r="G152" t="n">
-        <v>-3937.3552</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>4337.8116</v>
       </c>
       <c r="G153" t="n">
-        <v>-8275.166800000001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>540.0236</v>
       </c>
       <c r="G154" t="n">
-        <v>-7735.1432</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>436.5834</v>
       </c>
       <c r="G155" t="n">
-        <v>-8171.7266</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>210.31</v>
       </c>
       <c r="G156" t="n">
-        <v>-8171.7266</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>516.7092</v>
       </c>
       <c r="G157" t="n">
-        <v>-8171.7266</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>904.1319999999999</v>
       </c>
       <c r="G158" t="n">
-        <v>-9075.8586</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>2212.2013</v>
       </c>
       <c r="G159" t="n">
-        <v>-11288.0599</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>2184.7996</v>
       </c>
       <c r="G160" t="n">
-        <v>-13472.8595</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>225</v>
       </c>
       <c r="G161" t="n">
-        <v>-13472.8595</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>803.753</v>
       </c>
       <c r="G162" t="n">
-        <v>-13472.8595</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>1398.4384</v>
       </c>
       <c r="G163" t="n">
-        <v>-13472.8595</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>3837.1285</v>
       </c>
       <c r="G164" t="n">
-        <v>-17309.988</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>2545</v>
       </c>
       <c r="G165" t="n">
-        <v>-17309.988</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>2365</v>
       </c>
       <c r="G166" t="n">
-        <v>-14944.988</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>3475</v>
       </c>
       <c r="G167" t="n">
-        <v>-18419.988</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>3750</v>
       </c>
       <c r="G168" t="n">
-        <v>-14669.988</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>960.447</v>
       </c>
       <c r="G169" t="n">
-        <v>-15630.435</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>238.69</v>
       </c>
       <c r="G170" t="n">
-        <v>-15869.125</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>486</v>
       </c>
       <c r="G171" t="n">
-        <v>-16355.125</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>1459</v>
       </c>
       <c r="G172" t="n">
-        <v>-16355.125</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>2317.2011</v>
       </c>
       <c r="G173" t="n">
-        <v>-18672.3261</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>1587.2482</v>
       </c>
       <c r="G174" t="n">
-        <v>-17085.0779</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>1903.8974</v>
       </c>
       <c r="G175" t="n">
-        <v>-17085.0779</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>1042.5606</v>
       </c>
       <c r="G176" t="n">
-        <v>-16042.5173</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>1822.3776</v>
       </c>
       <c r="G177" t="n">
-        <v>-17864.8949</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>2400</v>
       </c>
       <c r="G178" t="n">
-        <v>-17864.8949</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>379.8276</v>
       </c>
       <c r="G179" t="n">
-        <v>-18244.7225</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>319.9561</v>
       </c>
       <c r="G180" t="n">
-        <v>-18244.7225</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>1001.862</v>
       </c>
       <c r="G181" t="n">
-        <v>-18244.7225</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>3243.4844</v>
       </c>
       <c r="G182" t="n">
-        <v>-15001.2381</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>1283.6936</v>
       </c>
       <c r="G183" t="n">
-        <v>-16284.9317</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>1728.6874</v>
       </c>
       <c r="G184" t="n">
-        <v>-16284.9317</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>1993.2903</v>
       </c>
       <c r="G185" t="n">
-        <v>-16284.9317</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,21 @@
         <v>2935.3297</v>
       </c>
       <c r="G186" t="n">
-        <v>-19220.2614</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5999,21 @@
         <v>1410.956</v>
       </c>
       <c r="G187" t="n">
-        <v>-17809.3054</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6035,21 @@
         <v>761.1022</v>
       </c>
       <c r="G188" t="n">
-        <v>-17809.3054</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6071,21 @@
         <v>1900</v>
       </c>
       <c r="G189" t="n">
-        <v>-17809.3054</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6107,21 @@
         <v>812.6093</v>
       </c>
       <c r="G190" t="n">
-        <v>-17809.3054</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6143,21 @@
         <v>235.608</v>
       </c>
       <c r="G191" t="n">
-        <v>-18044.9134</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,22 +6179,21 @@
         <v>180</v>
       </c>
       <c r="G192" t="n">
-        <v>-17864.9134</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
         <v>931</v>
       </c>
-      <c r="J192" t="n">
-        <v>931</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6755,26 +6215,21 @@
         <v>3178.9453</v>
       </c>
       <c r="G193" t="n">
-        <v>-17864.9134</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>932</v>
-      </c>
-      <c r="J193" t="n">
-        <v>931</v>
-      </c>
-      <c r="K193" t="inlineStr">
+        <v>932</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6796,24 +6251,21 @@
         <v>831</v>
       </c>
       <c r="G194" t="n">
-        <v>-17864.9134</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>931</v>
-      </c>
-      <c r="K194" t="inlineStr">
+      <c r="J194" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6835,18 +6287,21 @@
         <v>6.7451</v>
       </c>
       <c r="G195" t="n">
-        <v>-17858.1683</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6868,18 +6323,21 @@
         <v>27.585</v>
       </c>
       <c r="G196" t="n">
-        <v>-17858.1683</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6901,18 +6359,21 @@
         <v>201.2158</v>
       </c>
       <c r="G197" t="n">
-        <v>-17858.1683</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6934,22 +6395,21 @@
         <v>589</v>
       </c>
       <c r="G198" t="n">
-        <v>-18447.1683</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
         <v>933</v>
       </c>
-      <c r="J198" t="n">
-        <v>933</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6971,26 +6431,21 @@
         <v>794.7227</v>
       </c>
       <c r="G199" t="n">
-        <v>-18447.1683</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>932</v>
-      </c>
-      <c r="J199" t="n">
-        <v>933</v>
-      </c>
-      <c r="K199" t="inlineStr">
+        <v>932</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7012,26 +6467,21 @@
         <v>693.2936999999999</v>
       </c>
       <c r="G200" t="n">
-        <v>-18447.1683</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>932</v>
-      </c>
-      <c r="J200" t="n">
-        <v>933</v>
-      </c>
-      <c r="K200" t="inlineStr">
+        <v>932</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7053,22 +6503,21 @@
         <v>123.3325</v>
       </c>
       <c r="G201" t="n">
-        <v>-18447.1683</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>932</v>
-      </c>
-      <c r="J201" t="n">
-        <v>932</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>932</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7090,26 +6539,21 @@
         <v>773.2462</v>
       </c>
       <c r="G202" t="n">
-        <v>-18447.1683</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>932</v>
-      </c>
-      <c r="J202" t="n">
-        <v>932</v>
-      </c>
-      <c r="K202" t="inlineStr">
+        <v>932</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7131,26 +6575,21 @@
         <v>471.1934</v>
       </c>
       <c r="G203" t="n">
-        <v>-18447.1683</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>932</v>
-      </c>
-      <c r="J203" t="n">
-        <v>932</v>
-      </c>
-      <c r="K203" t="inlineStr">
+        <v>932</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7172,22 +6611,21 @@
         <v>280.0636</v>
       </c>
       <c r="G204" t="n">
-        <v>-18447.1683</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>932</v>
-      </c>
-      <c r="J204" t="n">
-        <v>932</v>
-      </c>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>932</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7209,26 +6647,21 @@
         <v>790.0544</v>
       </c>
       <c r="G205" t="n">
-        <v>-18447.1683</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>932</v>
-      </c>
-      <c r="J205" t="n">
-        <v>932</v>
-      </c>
-      <c r="K205" t="inlineStr">
+        <v>932</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7250,26 +6683,19 @@
         <v>80.4678</v>
       </c>
       <c r="G206" t="n">
-        <v>-18447.1683</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>932</v>
-      </c>
-      <c r="J206" t="n">
-        <v>932</v>
-      </c>
-      <c r="K206" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7291,26 +6717,19 @@
         <v>3866.298</v>
       </c>
       <c r="G207" t="n">
-        <v>-14580.87030000001</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>932</v>
-      </c>
-      <c r="J207" t="n">
-        <v>932</v>
-      </c>
-      <c r="K207" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7332,26 +6751,19 @@
         <v>533.0182</v>
       </c>
       <c r="G208" t="n">
-        <v>-15113.88850000001</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>935</v>
-      </c>
-      <c r="J208" t="n">
-        <v>932</v>
-      </c>
-      <c r="K208" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7373,26 +6785,19 @@
         <v>582</v>
       </c>
       <c r="G209" t="n">
-        <v>-15113.88850000001</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>932</v>
-      </c>
-      <c r="J209" t="n">
-        <v>932</v>
-      </c>
-      <c r="K209" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7414,26 +6819,19 @@
         <v>1049.0706</v>
       </c>
       <c r="G210" t="n">
-        <v>-14064.81790000001</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>932</v>
-      </c>
-      <c r="J210" t="n">
-        <v>932</v>
-      </c>
-      <c r="K210" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7455,26 +6853,19 @@
         <v>6931.9543</v>
       </c>
       <c r="G211" t="n">
-        <v>-7132.863600000005</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>933</v>
-      </c>
-      <c r="J211" t="n">
-        <v>932</v>
-      </c>
-      <c r="K211" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7496,24 +6887,19 @@
         <v>1244</v>
       </c>
       <c r="G212" t="n">
-        <v>-8376.863600000004</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>932</v>
-      </c>
-      <c r="K212" t="inlineStr">
+      <c r="J212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7535,24 +6921,19 @@
         <v>200</v>
       </c>
       <c r="G213" t="n">
-        <v>-8176.863600000004</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>932</v>
-      </c>
-      <c r="K213" t="inlineStr">
+      <c r="J213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7574,24 +6955,19 @@
         <v>570</v>
       </c>
       <c r="G214" t="n">
-        <v>-7606.863600000004</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>932</v>
-      </c>
-      <c r="K214" t="inlineStr">
+      <c r="J214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7613,24 +6989,19 @@
         <v>655</v>
       </c>
       <c r="G215" t="n">
-        <v>-6951.863600000004</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>932</v>
-      </c>
-      <c r="K215" t="inlineStr">
+      <c r="J215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7652,24 +7023,19 @@
         <v>2603</v>
       </c>
       <c r="G216" t="n">
-        <v>-6951.863600000004</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>932</v>
-      </c>
-      <c r="K216" t="inlineStr">
+      <c r="J216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7691,24 +7057,19 @@
         <v>20</v>
       </c>
       <c r="G217" t="n">
-        <v>-6971.863600000004</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>932</v>
-      </c>
-      <c r="K217" t="inlineStr">
+      <c r="J217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7730,24 +7091,19 @@
         <v>360.7909</v>
       </c>
       <c r="G218" t="n">
-        <v>-6971.863600000004</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>932</v>
-      </c>
-      <c r="K218" t="inlineStr">
+      <c r="J218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7769,24 +7125,19 @@
         <v>1</v>
       </c>
       <c r="G219" t="n">
-        <v>-6970.863600000004</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>932</v>
-      </c>
-      <c r="K219" t="inlineStr">
+      <c r="J219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7808,24 +7159,19 @@
         <v>44.2108</v>
       </c>
       <c r="G220" t="n">
-        <v>-7015.074400000004</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>932</v>
-      </c>
-      <c r="K220" t="inlineStr">
+      <c r="J220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7847,24 +7193,19 @@
         <v>1411.0732</v>
       </c>
       <c r="G221" t="n">
-        <v>-8426.147600000004</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>932</v>
-      </c>
-      <c r="K221" t="inlineStr">
+      <c r="J221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7886,24 +7227,19 @@
         <v>2116.6098</v>
       </c>
       <c r="G222" t="n">
-        <v>-10542.7574</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>932</v>
-      </c>
-      <c r="K222" t="inlineStr">
+      <c r="J222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7925,24 +7261,19 @@
         <v>1674.838</v>
       </c>
       <c r="G223" t="n">
-        <v>-8867.919400000004</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>932</v>
-      </c>
-      <c r="K223" t="inlineStr">
+      <c r="J223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7964,24 +7295,19 @@
         <v>512.3115</v>
       </c>
       <c r="G224" t="n">
-        <v>-9380.230900000004</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>932</v>
-      </c>
-      <c r="K224" t="inlineStr">
+      <c r="J224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8003,24 +7329,19 @@
         <v>28.0206</v>
       </c>
       <c r="G225" t="n">
-        <v>-9408.251500000004</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>932</v>
-      </c>
-      <c r="K225" t="inlineStr">
+      <c r="J225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8042,24 +7363,19 @@
         <v>130</v>
       </c>
       <c r="G226" t="n">
-        <v>-9278.251500000004</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>932</v>
-      </c>
-      <c r="K226" t="inlineStr">
+      <c r="J226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8081,24 +7397,19 @@
         <v>315.95</v>
       </c>
       <c r="G227" t="n">
-        <v>-9594.201500000005</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>932</v>
-      </c>
-      <c r="K227" t="inlineStr">
+      <c r="J227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8120,24 +7431,19 @@
         <v>99.468</v>
       </c>
       <c r="G228" t="n">
-        <v>-9494.733500000004</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>932</v>
-      </c>
-      <c r="K228" t="inlineStr">
+      <c r="J228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8159,24 +7465,19 @@
         <v>1731.99</v>
       </c>
       <c r="G229" t="n">
-        <v>-9494.733500000004</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>932</v>
-      </c>
-      <c r="K229" t="inlineStr">
+      <c r="J229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8198,24 +7499,19 @@
         <v>425.6198</v>
       </c>
       <c r="G230" t="n">
-        <v>-9494.733500000004</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>932</v>
-      </c>
-      <c r="K230" t="inlineStr">
+      <c r="J230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8237,24 +7533,19 @@
         <v>491.7363</v>
       </c>
       <c r="G231" t="n">
-        <v>-9002.997200000003</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>932</v>
-      </c>
-      <c r="K231" t="inlineStr">
+      <c r="J231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8276,24 +7567,19 @@
         <v>37.219</v>
       </c>
       <c r="G232" t="n">
-        <v>-8965.778200000004</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>932</v>
-      </c>
-      <c r="K232" t="inlineStr">
+      <c r="J232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8315,24 +7601,19 @@
         <v>725</v>
       </c>
       <c r="G233" t="n">
-        <v>-8240.778200000004</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>932</v>
-      </c>
-      <c r="K233" t="inlineStr">
+      <c r="J233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8354,24 +7635,19 @@
         <v>546.8457</v>
       </c>
       <c r="G234" t="n">
-        <v>-8787.623900000004</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>932</v>
-      </c>
-      <c r="K234" t="inlineStr">
+      <c r="J234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8393,24 +7669,19 @@
         <v>176.258</v>
       </c>
       <c r="G235" t="n">
-        <v>-8611.365900000004</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>932</v>
-      </c>
-      <c r="K235" t="inlineStr">
+      <c r="J235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8432,24 +7703,19 @@
         <v>201.6823</v>
       </c>
       <c r="G236" t="n">
-        <v>-8611.365900000004</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>932</v>
-      </c>
-      <c r="K236" t="inlineStr">
+      <c r="J236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8471,24 +7737,19 @@
         <v>319.5078</v>
       </c>
       <c r="G237" t="n">
-        <v>-8611.365900000004</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>932</v>
-      </c>
-      <c r="K237" t="inlineStr">
+      <c r="J237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8510,24 +7771,19 @@
         <v>106.357</v>
       </c>
       <c r="G238" t="n">
-        <v>-8505.008900000004</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>932</v>
-      </c>
-      <c r="K238" t="inlineStr">
+      <c r="J238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8549,24 +7805,19 @@
         <v>150</v>
       </c>
       <c r="G239" t="n">
-        <v>-8505.008900000004</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>932</v>
-      </c>
-      <c r="K239" t="inlineStr">
+      <c r="J239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8588,24 +7839,19 @@
         <v>161.259</v>
       </c>
       <c r="G240" t="n">
-        <v>-8505.008900000004</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>932</v>
-      </c>
-      <c r="K240" t="inlineStr">
+      <c r="J240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8627,24 +7873,19 @@
         <v>3.741</v>
       </c>
       <c r="G241" t="n">
-        <v>-8505.008900000004</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>932</v>
-      </c>
-      <c r="K241" t="inlineStr">
+      <c r="J241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8666,24 +7907,19 @@
         <v>167.0109</v>
       </c>
       <c r="G242" t="n">
-        <v>-8672.019800000004</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>932</v>
-      </c>
-      <c r="K242" t="inlineStr">
+      <c r="J242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8705,24 +7941,19 @@
         <v>232.69</v>
       </c>
       <c r="G243" t="n">
-        <v>-8672.019800000004</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>932</v>
-      </c>
-      <c r="K243" t="inlineStr">
+      <c r="J243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8744,24 +7975,19 @@
         <v>36.9292</v>
       </c>
       <c r="G244" t="n">
-        <v>-8672.019800000004</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>932</v>
-      </c>
-      <c r="K244" t="inlineStr">
+      <c r="J244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8783,24 +8009,19 @@
         <v>134.4231</v>
       </c>
       <c r="G245" t="n">
-        <v>-8672.019800000004</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>932</v>
-      </c>
-      <c r="K245" t="inlineStr">
+      <c r="J245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8822,24 +8043,19 @@
         <v>150.19</v>
       </c>
       <c r="G246" t="n">
-        <v>-8672.019800000004</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>932</v>
-      </c>
-      <c r="K246" t="inlineStr">
+      <c r="J246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8861,24 +8077,19 @@
         <v>409.0308</v>
       </c>
       <c r="G247" t="n">
-        <v>-8672.019800000004</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>932</v>
-      </c>
-      <c r="K247" t="inlineStr">
+      <c r="J247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8900,24 +8111,19 @@
         <v>1</v>
       </c>
       <c r="G248" t="n">
-        <v>-8673.019800000004</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>932</v>
-      </c>
-      <c r="K248" t="inlineStr">
+      <c r="J248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
